--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="128">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -2796,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3007,7 +3007,9 @@
       <c r="J5" s="15">
         <v>13</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="K5" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
@@ -3045,7 +3047,9 @@
       <c r="J6" s="15">
         <v>14</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="15390" windowHeight="7365" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
     <sheet name="研发-UI开发顺序" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="129">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -578,6 +578,10 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tangyk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +592,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -730,25 +734,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -756,26 +760,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -785,7 +789,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,11 +805,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,8 +991,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1258,7 +1262,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1272,18 +1276,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -2788,7 +2792,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2796,21 +2805,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -2929,7 +2938,9 @@
       <c r="J3" s="15">
         <v>12</v>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="22" t="s">
+        <v>128</v>
+      </c>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
@@ -3087,7 +3098,9 @@
       <c r="J7" s="15">
         <v>15</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="22" t="s">
+        <v>128</v>
+      </c>
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
@@ -4753,6 +4766,11 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14715" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="129">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -592,7 +597,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -991,8 +996,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1262,7 +1267,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1276,18 +1281,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -2805,21 +2810,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -2981,7 +2986,9 @@
       <c r="K4" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="22" t="s">
+        <v>127</v>
+      </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
@@ -3021,7 +3028,9 @@
       <c r="K5" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="22" t="s">
+        <v>127</v>
+      </c>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
@@ -3061,7 +3070,9 @@
       <c r="K6" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L6" s="22"/>
+      <c r="L6" s="22" t="s">
+        <v>127</v>
+      </c>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -3138,7 +3149,9 @@
       <c r="J8" s="15">
         <v>16</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="130">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -587,6 +587,10 @@
   </si>
   <si>
     <t>tangyk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liangsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2811,7 +2815,7 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3149,9 +3153,7 @@
       <c r="J8" s="15">
         <v>16</v>
       </c>
-      <c r="K8" s="22" t="s">
-        <v>126</v>
-      </c>
+      <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -3227,7 +3229,9 @@
       <c r="J10" s="15">
         <v>18</v>
       </c>
-      <c r="K10" s="22"/>
+      <c r="K10" s="22" t="s">
+        <v>129</v>
+      </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
@@ -4779,7 +4783,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="130">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -3153,7 +3153,9 @@
       <c r="J8" s="15">
         <v>16</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="22" t="s">
+        <v>129</v>
+      </c>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -3232,7 +3234,9 @@
       <c r="K10" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="L10" s="22"/>
+      <c r="L10" s="22" t="s">
+        <v>127</v>
+      </c>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="132">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -588,6 +588,13 @@
   <si>
     <t>tangyk</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liangsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
   </si>
   <si>
     <t>liangsx</t>
@@ -2815,7 +2822,7 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3156,7 +3163,9 @@
       <c r="K8" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="L8" s="22"/>
+      <c r="L8" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
@@ -3193,7 +3202,9 @@
       <c r="J9" s="15">
         <v>17</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="22" t="s">
+        <v>131</v>
+      </c>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14715" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="129">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -587,17 +582,6 @@
   </si>
   <si>
     <t>tangyk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liangsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>liangsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +592,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -698,6 +682,24 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -830,11 +832,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1006,9 +1010,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1278,7 +1284,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1292,18 +1298,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -2822,20 +2828,20 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -2957,7 +2963,9 @@
       <c r="K3" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="22" t="s">
+        <v>127</v>
+      </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
@@ -2997,9 +3005,7 @@
       <c r="K4" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>127</v>
-      </c>
+      <c r="L4" s="22"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
@@ -3039,9 +3045,7 @@
       <c r="K5" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L5" s="22" t="s">
-        <v>127</v>
-      </c>
+      <c r="L5" s="22"/>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
@@ -3081,9 +3085,7 @@
       <c r="K6" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L6" s="22" t="s">
-        <v>127</v>
-      </c>
+      <c r="L6" s="22"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -3160,12 +3162,8 @@
       <c r="J8" s="15">
         <v>16</v>
       </c>
-      <c r="K8" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>130</v>
-      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
@@ -3202,9 +3200,7 @@
       <c r="J9" s="15">
         <v>17</v>
       </c>
-      <c r="K9" s="22" t="s">
-        <v>131</v>
-      </c>
+      <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
@@ -3242,12 +3238,8 @@
       <c r="J10" s="15">
         <v>18</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>127</v>
-      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
@@ -4798,7 +4790,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14715" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="139">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -585,7 +590,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tangyk</t>
+    <t>liangsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>liangsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的订单管理（我的购买）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/userinfo.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/password_setting.html</t>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/myfavorite.html</t>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/menus_manage.html</t>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/persona_manage_give.html
+/manager-web/src/main/resources/templates/persona_manage.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/api_document_deploy.html
+/manager-web/src/main/resources/templates/api_document_deploy2.html
+/manager-web/src/main/resources/templates/api_document_deploy3.html
+/manager-web/src/main/resources/templates/api_document.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +637,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -686,24 +727,6 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -836,13 +859,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1014,11 +1035,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1288,7 +1307,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1302,18 +1321,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -2831,22 +2850,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11" style="1"/>
+    <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11" style="1"/>
+    <col min="13" max="13" width="23.875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2886,7 +2907,9 @@
       <c r="L1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="22"/>
+      <c r="M1" s="22" t="s">
+        <v>133</v>
+      </c>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
@@ -2928,7 +2951,9 @@
       <c r="L2" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="M2" s="22"/>
+      <c r="M2" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -2967,9 +2992,7 @@
       <c r="K3" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="22" t="s">
-        <v>127</v>
-      </c>
+      <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
@@ -3009,13 +3032,15 @@
       <c r="K4" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="22" t="s">
+        <v>127</v>
+      </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:16" s="12" customFormat="1">
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="126">
       <c r="A5" s="11">
         <v>38</v>
       </c>
@@ -3049,8 +3074,12 @@
       <c r="K5" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="L5" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>137</v>
+      </c>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -3089,8 +3118,12 @@
       <c r="K6" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="L6" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>136</v>
+      </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -3135,7 +3168,7 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:16" s="12" customFormat="1">
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="135.75" customHeight="1">
       <c r="A8" s="11">
         <v>43</v>
       </c>
@@ -3166,9 +3199,15 @@
       <c r="J8" s="15">
         <v>16</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+      <c r="K8" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>138</v>
+      </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
@@ -3181,7 +3220,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="D9" s="40">
         <v>42867</v>
@@ -3205,7 +3244,7 @@
         <v>17</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
@@ -3244,9 +3283,15 @@
       <c r="J10" s="15">
         <v>18</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="K10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>135</v>
+      </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -4796,7 +4841,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="130">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -578,6 +578,10 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tangyk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2828,7 +2832,7 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3200,7 +3204,9 @@
       <c r="J9" s="15">
         <v>17</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="22" t="s">
+        <v>129</v>
+      </c>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14715" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="140">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -590,18 +590,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>liangsx</t>
+    <t>tangyk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
   </si>
   <si>
-    <t>liangsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的订单管理（我的购买）</t>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -610,23 +606,31 @@
   </si>
   <si>
     <t>/mall-web/src/main/resources/templates/personalCenter/password_setting.html</t>
-  </si>
-  <si>
-    <t>/mall-web/src/main/resources/templates/personalCenter/myfavorite.html</t>
-  </si>
-  <si>
-    <t>/manager-web/src/main/resources/templates/menus_manage.html</t>
   </si>
   <si>
     <t>/manager-web/src/main/resources/templates/persona_manage_give.html
 /manager-web/src/main/resources/templates/persona_manage.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/menus_manage.html</t>
   </si>
   <si>
     <t>/manager-web/src/main/resources/templates/api_document_deploy.html
 /manager-web/src/main/resources/templates/api_document_deploy2.html
 /manager-web/src/main/resources/templates/api_document_deploy3.html
 /manager-web/src/main/resources/templates/api_document.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/myfavorite.html</t>
+  </si>
+  <si>
+    <t>下单功能（数据购买）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tangyk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +641,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -727,6 +731,24 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -859,11 +881,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1035,9 +1059,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2850,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2865,9 +2891,7 @@
     <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11" style="1"/>
-    <col min="13" max="13" width="23.875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11" style="1"/>
+    <col min="11" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2908,7 +2932,7 @@
         <v>127</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
@@ -2952,7 +2976,7 @@
         <v>127</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
@@ -2992,13 +3016,15 @@
       <c r="K3" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="22" t="s">
+        <v>131</v>
+      </c>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1">
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="76.5" customHeight="1">
       <c r="A4" s="11">
         <v>16</v>
       </c>
@@ -3033,14 +3059,14 @@
         <v>126</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" ht="126">
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="32.25" customHeight="1">
       <c r="A5" s="11">
         <v>38</v>
       </c>
@@ -3075,10 +3101,10 @@
         <v>126</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
@@ -3119,10 +3145,10 @@
         <v>126</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -3136,7 +3162,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="D7" s="40">
         <v>42863</v>
@@ -3168,7 +3194,7 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:16" s="12" customFormat="1" ht="135.75" customHeight="1">
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="409.5">
       <c r="A8" s="11">
         <v>43</v>
       </c>
@@ -3200,13 +3226,13 @@
         <v>16</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L8" s="22" t="s">
         <v>130</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
@@ -3220,7 +3246,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D9" s="40">
         <v>42867</v>
@@ -3244,7 +3270,7 @@
         <v>17</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
@@ -3284,13 +3310,13 @@
         <v>18</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
@@ -3327,7 +3353,9 @@
       <c r="J11" s="15">
         <v>20</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -4841,7 +4869,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="141">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -632,6 +632,9 @@
   <si>
     <t>tangyk</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/order_manage.html</t>
   </si>
 </sst>
 </file>
@@ -889,7 +892,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
@@ -1057,6 +1060,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2876,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2891,7 +2924,9 @@
     <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11" style="1"/>
+    <col min="11" max="12" width="11" style="73"/>
+    <col min="13" max="13" width="101.75" style="68" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2925,13 +2960,13 @@
       <c r="J1" s="15">
         <v>11</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="64" t="s">
         <v>132</v>
       </c>
       <c r="N1" s="22"/>
@@ -2969,13 +3004,13 @@
       <c r="J2" s="15">
         <v>11</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="64" t="s">
         <v>133</v>
       </c>
       <c r="N2" s="22"/>
@@ -3013,18 +3048,18 @@
       <c r="J3" s="15">
         <v>12</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="64"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" ht="76.5" customHeight="1">
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="25.5" customHeight="1">
       <c r="A4" s="11">
         <v>16</v>
       </c>
@@ -3055,18 +3090,20 @@
       <c r="J4" s="15">
         <v>13</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="M4" s="22"/>
+      <c r="L4" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="64" t="s">
+        <v>140</v>
+      </c>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" ht="32.25" customHeight="1">
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="45.75" customHeight="1">
       <c r="A5" s="11">
         <v>38</v>
       </c>
@@ -3097,13 +3134,13 @@
       <c r="J5" s="15">
         <v>13</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="65" t="s">
         <v>134</v>
       </c>
       <c r="N5" s="22"/>
@@ -3141,13 +3178,13 @@
       <c r="J6" s="15">
         <v>14</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="64" t="s">
         <v>135</v>
       </c>
       <c r="N6" s="22"/>
@@ -3185,16 +3222,16 @@
       <c r="J7" s="15">
         <v>15</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="64"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:16" s="12" customFormat="1" ht="409.5">
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="77.25" customHeight="1">
       <c r="A8" s="11">
         <v>43</v>
       </c>
@@ -3225,13 +3262,13 @@
       <c r="J8" s="15">
         <v>16</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="65" t="s">
         <v>136</v>
       </c>
       <c r="N8" s="22"/>
@@ -3269,11 +3306,11 @@
       <c r="J9" s="15">
         <v>17</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="64"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -3309,13 +3346,13 @@
       <c r="J10" s="15">
         <v>18</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="64" t="s">
         <v>137</v>
       </c>
       <c r="N10" s="22"/>
@@ -3353,11 +3390,11 @@
       <c r="J11" s="15">
         <v>20</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="64"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -3393,9 +3430,9 @@
       <c r="J12" s="15">
         <v>21</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="64"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
@@ -3431,9 +3468,9 @@
       <c r="J13" s="15">
         <v>22</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="64"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -3469,9 +3506,9 @@
       <c r="J14" s="15">
         <v>22</v>
       </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="64"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
@@ -3505,9 +3542,9 @@
       <c r="J15" s="17">
         <v>22</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="64"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
@@ -3543,9 +3580,9 @@
       <c r="J16" s="15">
         <v>23</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="64"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
@@ -3577,9 +3614,9 @@
       <c r="J17" s="17">
         <v>23</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="64"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -3615,9 +3652,9 @@
       <c r="J18" s="15">
         <v>24</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="64"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
@@ -3651,9 +3688,9 @@
       <c r="J19" s="17">
         <v>25</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="64"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
@@ -3689,9 +3726,9 @@
       <c r="J20" s="46">
         <v>28</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="64"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
@@ -3727,9 +3764,9 @@
       <c r="J21" s="15">
         <v>30</v>
       </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="66"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -3765,9 +3802,9 @@
       <c r="J22" s="15">
         <v>31</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="64"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -3803,9 +3840,9 @@
       <c r="J23" s="15">
         <v>32</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="64"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
@@ -3841,9 +3878,9 @@
       <c r="J24" s="15">
         <v>40</v>
       </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="64"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
@@ -3879,9 +3916,9 @@
       <c r="J25" s="15">
         <v>41</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
@@ -3917,9 +3954,9 @@
       <c r="J26" s="15">
         <v>50</v>
       </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="64"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
@@ -3955,9 +3992,9 @@
       <c r="J27" s="17">
         <v>50</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="64"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
@@ -3993,9 +4030,9 @@
       <c r="J28" s="17">
         <v>50</v>
       </c>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="67"/>
       <c r="N28" s="54"/>
       <c r="O28" s="54"/>
       <c r="P28" s="54"/>
@@ -4031,9 +4068,9 @@
       <c r="J29" s="17">
         <v>50</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="64"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
@@ -4067,9 +4104,9 @@
       <c r="J30" s="17">
         <v>50</v>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="64"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
@@ -4103,9 +4140,9 @@
       <c r="J31" s="17">
         <v>50</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="64"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
@@ -4139,9 +4176,9 @@
       <c r="J32" s="17">
         <v>50</v>
       </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="64"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
@@ -4175,9 +4212,9 @@
       <c r="J33" s="17">
         <v>50</v>
       </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="64"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
@@ -4211,9 +4248,9 @@
       <c r="J34" s="17">
         <v>50</v>
       </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
@@ -4247,9 +4284,9 @@
       <c r="J35" s="17">
         <v>50</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="64"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
@@ -4275,9 +4312,9 @@
       <c r="J36" s="17">
         <v>50</v>
       </c>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="64"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
@@ -4307,9 +4344,9 @@
       <c r="J37" s="17">
         <v>50</v>
       </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="64"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
@@ -4337,9 +4374,9 @@
       <c r="J38" s="17">
         <v>50</v>
       </c>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="64"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
@@ -4373,9 +4410,9 @@
       <c r="J39" s="17">
         <v>50</v>
       </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="64"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
@@ -4409,9 +4446,9 @@
       <c r="J40" s="17">
         <v>50</v>
       </c>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="64"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
@@ -4445,9 +4482,9 @@
       <c r="J41" s="17">
         <v>50</v>
       </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="64"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
@@ -4481,9 +4518,9 @@
       <c r="J42" s="17">
         <v>50</v>
       </c>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="65"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
@@ -4518,9 +4555,9 @@
       <c r="J43" s="17">
         <v>50</v>
       </c>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="64"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
@@ -4550,9 +4587,9 @@
       <c r="J44" s="17">
         <v>50</v>
       </c>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="64"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
@@ -4586,9 +4623,9 @@
       <c r="J45" s="17">
         <v>50</v>
       </c>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="64"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
@@ -4620,9 +4657,9 @@
       <c r="J46" s="17">
         <v>50</v>
       </c>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="64"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
@@ -4654,9 +4691,9 @@
       <c r="J47" s="17">
         <v>50</v>
       </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="64"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
@@ -4678,9 +4715,9 @@
       <c r="J48" s="15">
         <v>50</v>
       </c>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="64"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
@@ -4704,9 +4741,9 @@
       <c r="J49" s="15">
         <v>50</v>
       </c>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="64"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
@@ -4732,9 +4769,9 @@
       <c r="J50" s="15">
         <v>50</v>
       </c>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="64"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
@@ -4760,9 +4797,9 @@
       <c r="J51" s="15">
         <v>50</v>
       </c>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="64"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
@@ -4786,9 +4823,9 @@
       <c r="J52" s="15">
         <v>50</v>
       </c>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="64"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
@@ -4822,18 +4859,18 @@
       <c r="J53" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="64"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="11"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="64"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="142">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -635,6 +635,11 @@
   </si>
   <si>
     <t>/manager-web/src/main/resources/templates/order_manage.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liangsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2909,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3430,7 +3435,9 @@
       <c r="J12" s="15">
         <v>21</v>
       </c>
-      <c r="K12" s="69"/>
+      <c r="K12" s="69" t="s">
+        <v>141</v>
+      </c>
       <c r="L12" s="69"/>
       <c r="M12" s="64"/>
       <c r="N12" s="22"/>
@@ -3468,7 +3475,9 @@
       <c r="J13" s="15">
         <v>22</v>
       </c>
-      <c r="K13" s="69"/>
+      <c r="K13" s="69" t="s">
+        <v>141</v>
+      </c>
       <c r="L13" s="69"/>
       <c r="M13" s="64"/>
       <c r="N13" s="22"/>
@@ -3580,7 +3589,9 @@
       <c r="J16" s="15">
         <v>23</v>
       </c>
-      <c r="K16" s="69"/>
+      <c r="K16" s="69" t="s">
+        <v>141</v>
+      </c>
       <c r="L16" s="69"/>
       <c r="M16" s="64"/>
       <c r="N16" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="143">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -639,6 +634,10 @@
   </si>
   <si>
     <t>liangsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/goods_classification.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +648,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1042,6 +1041,36 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,42 +1095,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1371,7 +1370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1385,18 +1384,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -1406,10 +1405,10 @@
       <c r="B1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="57"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1459,7 +1458,7 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="70" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -1489,7 +1488,7 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="23" t="s">
         <v>35</v>
       </c>
@@ -1517,7 +1516,7 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="23" t="s">
         <v>35</v>
       </c>
@@ -1545,7 +1544,7 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="23" t="s">
         <v>35</v>
       </c>
@@ -1573,7 +1572,7 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="23" t="s">
         <v>35</v>
       </c>
@@ -1601,7 +1600,7 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="23" t="s">
         <v>35</v>
       </c>
@@ -1629,7 +1628,7 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="23" t="s">
         <v>35</v>
       </c>
@@ -1657,7 +1656,7 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="61"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="23" t="s">
         <v>35</v>
       </c>
@@ -1685,7 +1684,7 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="23" t="s">
         <v>35</v>
       </c>
@@ -1713,7 +1712,7 @@
       <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1743,7 +1742,7 @@
       <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="21" t="s">
         <v>47</v>
       </c>
@@ -1771,7 +1770,7 @@
       <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="58"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="21" t="s">
         <v>47</v>
       </c>
@@ -1799,7 +1798,7 @@
       <c r="A15" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="58"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="21" t="s">
         <v>47</v>
       </c>
@@ -1827,7 +1826,7 @@
       <c r="A16" s="11">
         <v>16</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="21" t="s">
         <v>47</v>
       </c>
@@ -1855,7 +1854,7 @@
       <c r="A17" s="11">
         <v>17</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="72" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="20"/>
@@ -1883,7 +1882,7 @@
       <c r="A18" s="11">
         <v>18</v>
       </c>
-      <c r="B18" s="63"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="21"/>
       <c r="D18" s="17" t="s">
         <v>31</v>
@@ -1939,7 +1938,7 @@
       <c r="A20" s="11">
         <v>20</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="20"/>
@@ -1967,7 +1966,7 @@
       <c r="A21" s="11">
         <v>21</v>
       </c>
-      <c r="B21" s="58"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="23" t="s">
         <v>35</v>
       </c>
@@ -1995,7 +1994,7 @@
       <c r="A22" s="11">
         <v>22</v>
       </c>
-      <c r="B22" s="58"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
@@ -2023,7 +2022,7 @@
       <c r="A23" s="11">
         <v>23</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="23" t="s">
         <v>35</v>
       </c>
@@ -2051,7 +2050,7 @@
       <c r="A24" s="11">
         <v>24</v>
       </c>
-      <c r="B24" s="59"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="24"/>
       <c r="D24" s="15" t="s">
         <v>58</v>
@@ -2071,7 +2070,7 @@
       <c r="A25" s="11">
         <v>25</v>
       </c>
-      <c r="B25" s="58"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="21" t="s">
         <v>47</v>
       </c>
@@ -2095,7 +2094,7 @@
       <c r="A26" s="11">
         <v>26</v>
       </c>
-      <c r="B26" s="58"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="21" t="s">
         <v>47</v>
       </c>
@@ -2117,7 +2116,7 @@
       <c r="A27" s="11">
         <v>27</v>
       </c>
-      <c r="B27" s="58"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="23" t="s">
         <v>35</v>
       </c>
@@ -2145,7 +2144,7 @@
       <c r="A28" s="11">
         <v>28</v>
       </c>
-      <c r="B28" s="58"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="23" t="s">
         <v>35</v>
       </c>
@@ -2173,7 +2172,7 @@
       <c r="A29" s="11">
         <v>29</v>
       </c>
-      <c r="B29" s="58"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="21" t="s">
         <v>47</v>
       </c>
@@ -2201,7 +2200,7 @@
       <c r="A30" s="11">
         <v>31</v>
       </c>
-      <c r="B30" s="58"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="21" t="s">
         <v>47</v>
       </c>
@@ -2231,7 +2230,7 @@
       <c r="A31" s="11">
         <v>32</v>
       </c>
-      <c r="B31" s="58"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="21"/>
       <c r="D31" s="17" t="s">
         <v>64</v>
@@ -2257,7 +2256,7 @@
       <c r="A32" s="11">
         <v>33</v>
       </c>
-      <c r="B32" s="58"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="21"/>
       <c r="D32" s="17" t="s">
         <v>33</v>
@@ -2283,7 +2282,7 @@
       <c r="A33" s="11">
         <v>34</v>
       </c>
-      <c r="B33" s="58"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="21" t="s">
         <v>47</v>
       </c>
@@ -2311,7 +2310,7 @@
       <c r="A34" s="11">
         <v>35</v>
       </c>
-      <c r="B34" s="58"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="21"/>
       <c r="D34" s="15" t="s">
         <v>66</v>
@@ -2337,7 +2336,7 @@
       <c r="A35" s="11">
         <v>36</v>
       </c>
-      <c r="B35" s="58"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="21" t="s">
         <v>47</v>
       </c>
@@ -2365,7 +2364,7 @@
       <c r="A36" s="11">
         <v>37</v>
       </c>
-      <c r="B36" s="58"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="21"/>
       <c r="D36" s="17" t="s">
         <v>34</v>
@@ -2391,7 +2390,7 @@
       <c r="A37" s="11">
         <v>38</v>
       </c>
-      <c r="B37" s="58"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="21" t="s">
         <v>47</v>
       </c>
@@ -2419,7 +2418,7 @@
       <c r="A38" s="11">
         <v>39</v>
       </c>
-      <c r="B38" s="58"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="21" t="s">
         <v>47</v>
       </c>
@@ -2447,7 +2446,7 @@
       <c r="A39" s="11">
         <v>40</v>
       </c>
-      <c r="B39" s="58"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="21"/>
       <c r="D39" s="15" t="s">
         <v>70</v>
@@ -2479,7 +2478,7 @@
       <c r="A40" s="11">
         <v>41</v>
       </c>
-      <c r="B40" s="59"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="24"/>
       <c r="D40" s="15" t="s">
         <v>71</v>
@@ -2501,7 +2500,7 @@
       <c r="A41" s="11">
         <v>42</v>
       </c>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="70" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="21"/>
@@ -2529,7 +2528,7 @@
       <c r="A42" s="11">
         <v>43</v>
       </c>
-      <c r="B42" s="58"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="21" t="s">
         <v>47</v>
       </c>
@@ -2557,7 +2556,7 @@
       <c r="A43" s="11">
         <v>44</v>
       </c>
-      <c r="B43" s="58"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="21" t="s">
         <v>47</v>
       </c>
@@ -2585,7 +2584,7 @@
       <c r="A44" s="11">
         <v>45</v>
       </c>
-      <c r="B44" s="58"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="21"/>
       <c r="D44" s="15" t="s">
         <v>74</v>
@@ -2611,7 +2610,7 @@
       <c r="A45" s="11">
         <v>46</v>
       </c>
-      <c r="B45" s="58"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="21"/>
       <c r="D45" s="15" t="s">
         <v>76</v>
@@ -2637,7 +2636,7 @@
       <c r="A46" s="11">
         <v>47</v>
       </c>
-      <c r="B46" s="58"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="21" t="s">
         <v>47</v>
       </c>
@@ -2665,7 +2664,7 @@
       <c r="A47" s="11">
         <v>48</v>
       </c>
-      <c r="B47" s="58"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="21"/>
       <c r="D47" s="15" t="s">
         <v>77</v>
@@ -2691,7 +2690,7 @@
       <c r="A48" s="11">
         <v>49</v>
       </c>
-      <c r="B48" s="59"/>
+      <c r="B48" s="69"/>
       <c r="C48" s="24"/>
       <c r="D48" s="15" t="s">
         <v>78</v>
@@ -2914,23 +2913,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11" style="73"/>
-    <col min="13" max="13" width="101.75" style="68" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11" style="65"/>
+    <col min="13" max="13" width="101.7109375" style="60" customWidth="1"/>
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -2965,13 +2964,13 @@
       <c r="J1" s="15">
         <v>11</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="56" t="s">
         <v>132</v>
       </c>
       <c r="N1" s="22"/>
@@ -3009,13 +3008,13 @@
       <c r="J2" s="15">
         <v>11</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="56" t="s">
         <v>133</v>
       </c>
       <c r="N2" s="22"/>
@@ -3053,13 +3052,15 @@
       <c r="J3" s="15">
         <v>12</v>
       </c>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="69" t="s">
+      <c r="L3" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="M3" s="64"/>
+      <c r="M3" s="56" t="s">
+        <v>142</v>
+      </c>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -3095,13 +3096,13 @@
       <c r="J4" s="15">
         <v>13</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="56" t="s">
         <v>140</v>
       </c>
       <c r="N4" s="22"/>
@@ -3139,13 +3140,13 @@
       <c r="J5" s="15">
         <v>13</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="57" t="s">
         <v>134</v>
       </c>
       <c r="N5" s="22"/>
@@ -3183,13 +3184,13 @@
       <c r="J6" s="15">
         <v>14</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="64" t="s">
+      <c r="M6" s="56" t="s">
         <v>135</v>
       </c>
       <c r="N6" s="22"/>
@@ -3227,11 +3228,11 @@
       <c r="J7" s="15">
         <v>15</v>
       </c>
-      <c r="K7" s="69" t="s">
+      <c r="K7" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="69"/>
-      <c r="M7" s="64"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="56"/>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
@@ -3267,13 +3268,13 @@
       <c r="J8" s="15">
         <v>16</v>
       </c>
-      <c r="K8" s="69" t="s">
+      <c r="K8" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="65" t="s">
+      <c r="M8" s="57" t="s">
         <v>136</v>
       </c>
       <c r="N8" s="22"/>
@@ -3311,11 +3312,11 @@
       <c r="J9" s="15">
         <v>17</v>
       </c>
-      <c r="K9" s="69" t="s">
+      <c r="K9" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="L9" s="69"/>
-      <c r="M9" s="64"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="56"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -3351,13 +3352,13 @@
       <c r="J10" s="15">
         <v>18</v>
       </c>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="L10" s="69" t="s">
+      <c r="L10" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="M10" s="64" t="s">
+      <c r="M10" s="56" t="s">
         <v>137</v>
       </c>
       <c r="N10" s="22"/>
@@ -3395,11 +3396,11 @@
       <c r="J11" s="15">
         <v>20</v>
       </c>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="L11" s="69"/>
-      <c r="M11" s="64"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="56"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -3435,11 +3436,11 @@
       <c r="J12" s="15">
         <v>21</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="L12" s="69"/>
-      <c r="M12" s="64"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
@@ -3475,11 +3476,11 @@
       <c r="J13" s="15">
         <v>22</v>
       </c>
-      <c r="K13" s="69" t="s">
+      <c r="K13" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="69"/>
-      <c r="M13" s="64"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="56"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -3515,9 +3516,9 @@
       <c r="J14" s="15">
         <v>22</v>
       </c>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="64"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="56"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
@@ -3551,9 +3552,9 @@
       <c r="J15" s="17">
         <v>22</v>
       </c>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="64"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="56"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
@@ -3589,11 +3590,11 @@
       <c r="J16" s="15">
         <v>23</v>
       </c>
-      <c r="K16" s="69" t="s">
+      <c r="K16" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="69"/>
-      <c r="M16" s="64"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="56"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
@@ -3625,9 +3626,9 @@
       <c r="J17" s="17">
         <v>23</v>
       </c>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="64"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="56"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -3663,9 +3664,9 @@
       <c r="J18" s="15">
         <v>24</v>
       </c>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="64"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
@@ -3699,9 +3700,9 @@
       <c r="J19" s="17">
         <v>25</v>
       </c>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="64"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="56"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
@@ -3737,9 +3738,9 @@
       <c r="J20" s="46">
         <v>28</v>
       </c>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="64"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
@@ -3775,9 +3776,9 @@
       <c r="J21" s="15">
         <v>30</v>
       </c>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="66"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="58"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -3813,9 +3814,9 @@
       <c r="J22" s="15">
         <v>31</v>
       </c>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="64"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -3851,9 +3852,9 @@
       <c r="J23" s="15">
         <v>32</v>
       </c>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="64"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
@@ -3889,9 +3890,9 @@
       <c r="J24" s="15">
         <v>40</v>
       </c>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="64"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="56"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
@@ -3927,9 +3928,9 @@
       <c r="J25" s="15">
         <v>41</v>
       </c>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="64"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="56"/>
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
@@ -3965,9 +3966,9 @@
       <c r="J26" s="15">
         <v>50</v>
       </c>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="64"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="56"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
@@ -4003,9 +4004,9 @@
       <c r="J27" s="17">
         <v>50</v>
       </c>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="64"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="56"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
@@ -4041,9 +4042,9 @@
       <c r="J28" s="17">
         <v>50</v>
       </c>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="67"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="54"/>
       <c r="O28" s="54"/>
       <c r="P28" s="54"/>
@@ -4079,9 +4080,9 @@
       <c r="J29" s="17">
         <v>50</v>
       </c>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="64"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="56"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
@@ -4115,9 +4116,9 @@
       <c r="J30" s="17">
         <v>50</v>
       </c>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="64"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="56"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
@@ -4151,9 +4152,9 @@
       <c r="J31" s="17">
         <v>50</v>
       </c>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="64"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="56"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
@@ -4187,9 +4188,9 @@
       <c r="J32" s="17">
         <v>50</v>
       </c>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="64"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="56"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
@@ -4223,9 +4224,9 @@
       <c r="J33" s="17">
         <v>50</v>
       </c>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="64"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="56"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
@@ -4259,9 +4260,9 @@
       <c r="J34" s="17">
         <v>50</v>
       </c>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="64"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="56"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
@@ -4295,9 +4296,9 @@
       <c r="J35" s="17">
         <v>50</v>
       </c>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="64"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="56"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
@@ -4323,9 +4324,9 @@
       <c r="J36" s="17">
         <v>50</v>
       </c>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="64"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="56"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
@@ -4355,9 +4356,9 @@
       <c r="J37" s="17">
         <v>50</v>
       </c>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="64"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="56"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
@@ -4385,9 +4386,9 @@
       <c r="J38" s="17">
         <v>50</v>
       </c>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="64"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="56"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
@@ -4421,9 +4422,9 @@
       <c r="J39" s="17">
         <v>50</v>
       </c>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="64"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="56"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
@@ -4457,9 +4458,9 @@
       <c r="J40" s="17">
         <v>50</v>
       </c>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="64"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="56"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
@@ -4493,9 +4494,9 @@
       <c r="J41" s="17">
         <v>50</v>
       </c>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="64"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="56"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
@@ -4529,9 +4530,9 @@
       <c r="J42" s="17">
         <v>50</v>
       </c>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="65"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="57"/>
       <c r="N42" s="35"/>
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
@@ -4566,9 +4567,9 @@
       <c r="J43" s="17">
         <v>50</v>
       </c>
-      <c r="K43" s="69"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="64"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="56"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
@@ -4598,9 +4599,9 @@
       <c r="J44" s="17">
         <v>50</v>
       </c>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="64"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="56"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
@@ -4634,9 +4635,9 @@
       <c r="J45" s="17">
         <v>50</v>
       </c>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="64"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="56"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
@@ -4668,9 +4669,9 @@
       <c r="J46" s="17">
         <v>50</v>
       </c>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="64"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="56"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
@@ -4702,9 +4703,9 @@
       <c r="J47" s="17">
         <v>50</v>
       </c>
-      <c r="K47" s="69"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="64"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="56"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
@@ -4726,9 +4727,9 @@
       <c r="J48" s="15">
         <v>50</v>
       </c>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="64"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="56"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
@@ -4752,9 +4753,9 @@
       <c r="J49" s="15">
         <v>50</v>
       </c>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="64"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="56"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
@@ -4780,9 +4781,9 @@
       <c r="J50" s="15">
         <v>50</v>
       </c>
-      <c r="K50" s="69"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="64"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="56"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
@@ -4808,9 +4809,9 @@
       <c r="J51" s="15">
         <v>50</v>
       </c>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="64"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="56"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
@@ -4834,9 +4835,9 @@
       <c r="J52" s="15">
         <v>50</v>
       </c>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="64"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="56"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
@@ -4870,18 +4871,18 @@
       <c r="J53" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="64"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="56"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="11"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="64"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="56"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1370,7 +1370,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2913,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3109,7 +3109,7 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" ht="45.75" customHeight="1">
+    <row r="5" spans="1:16" s="12" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="11">
         <v>38</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:16" s="12" customFormat="1" ht="77.25" customHeight="1">
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="77" customHeight="1">
       <c r="A8" s="11">
         <v>43</v>
       </c>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14685" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="145">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -639,6 +644,14 @@
   <si>
     <t>/manager-web/src/main/resources/templates/goods_classification.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/mybill_apply.html
+/mall-web/src/main/resources/templates/personalCenter/mybill.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/mydata.html</t>
   </si>
 </sst>
 </file>
@@ -648,7 +661,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1097,10 +1110,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1370,7 +1383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1384,18 +1397,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -2914,22 +2927,22 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
     <col min="11" max="12" width="11" style="65"/>
-    <col min="13" max="13" width="101.7109375" style="60" customWidth="1"/>
+    <col min="13" max="13" width="101.75" style="60" customWidth="1"/>
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -3237,7 +3250,7 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:16" s="12" customFormat="1" ht="77" customHeight="1">
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="77.099999999999994" customHeight="1">
       <c r="A8" s="11">
         <v>43</v>
       </c>
@@ -3439,13 +3452,17 @@
       <c r="K12" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="56"/>
+      <c r="L12" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>144</v>
+      </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="39" customHeight="1">
       <c r="A13" s="11">
         <v>6</v>
       </c>
@@ -3479,8 +3496,12 @@
       <c r="K13" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="61"/>
-      <c r="M13" s="56"/>
+      <c r="L13" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="57" t="s">
+        <v>143</v>
+      </c>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="146">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -652,6 +652,10 @@
   </si>
   <si>
     <t>/mall-web/src/main/resources/templates/personalCenter/mydata.html</t>
+  </si>
+  <si>
+    <t>liangsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2926,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3537,7 +3541,9 @@
       <c r="J14" s="15">
         <v>22</v>
       </c>
-      <c r="K14" s="61"/>
+      <c r="K14" s="61" t="s">
+        <v>145</v>
+      </c>
       <c r="L14" s="61"/>
       <c r="M14" s="56"/>
       <c r="N14" s="22"/>
@@ -4939,7 +4945,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="147">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -656,6 +656,9 @@
   <si>
     <t>liangsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/goods_complaint.html</t>
   </si>
 </sst>
 </file>
@@ -2931,7 +2934,7 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3620,8 +3623,12 @@
       <c r="K16" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="56"/>
+      <c r="L16" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" s="56" t="s">
+        <v>146</v>
+      </c>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14685" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="148">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -586,14 +581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tangyk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tangyk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
   </si>
   <si>
@@ -630,10 +617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tangyk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/manager-web/src/main/resources/templates/order_manage.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,6 +642,22 @@
   </si>
   <si>
     <t>/mall-web/src/main/resources/templates/personalCenter/goods_complaint.html</t>
+  </si>
+  <si>
+    <t>唐演坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐演坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/myOrder.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/data_purchase.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -668,7 +667,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -908,11 +907,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1116,11 +1123,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="12">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1390,7 +1405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1404,18 +1419,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -2933,23 +2948,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
     <col min="11" max="12" width="11" style="65"/>
-    <col min="13" max="13" width="101.75" style="60" customWidth="1"/>
+    <col min="13" max="13" width="101.7109375" style="60" customWidth="1"/>
     <col min="14" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -2991,13 +3006,13 @@
         <v>127</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="23" customHeight="1">
       <c r="A2" s="34">
         <v>4</v>
       </c>
@@ -3035,13 +3050,13 @@
         <v>127</v>
       </c>
       <c r="M2" s="56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="23" customHeight="1">
       <c r="A3" s="11">
         <v>29</v>
       </c>
@@ -3073,19 +3088,19 @@
         <v>12</v>
       </c>
       <c r="K3" s="61" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="L3" s="61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" ht="25.5" customHeight="1">
+    <row r="4" spans="1:16" s="12" customFormat="1" ht="25" customHeight="1">
       <c r="A4" s="11">
         <v>16</v>
       </c>
@@ -3120,10 +3135,10 @@
         <v>126</v>
       </c>
       <c r="L4" s="61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M4" s="56" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
@@ -3164,10 +3179,10 @@
         <v>126</v>
       </c>
       <c r="L5" s="61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M5" s="57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
@@ -3208,16 +3223,16 @@
         <v>126</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="17" customHeight="1">
       <c r="A7" s="11">
         <v>23</v>
       </c>
@@ -3225,7 +3240,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" s="40">
         <v>42863</v>
@@ -3249,15 +3264,19 @@
         <v>15</v>
       </c>
       <c r="K7" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="61"/>
-      <c r="M7" s="56"/>
+      <c r="M7" s="56" t="s">
+        <v>147</v>
+      </c>
       <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:16" s="12" customFormat="1" ht="77.099999999999994" customHeight="1">
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="77" customHeight="1">
       <c r="A8" s="11">
         <v>43</v>
       </c>
@@ -3292,16 +3311,16 @@
         <v>126</v>
       </c>
       <c r="L8" s="61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M8" s="57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="17" customHeight="1">
       <c r="A9" s="11">
         <v>10</v>
       </c>
@@ -3333,10 +3352,14 @@
         <v>17</v>
       </c>
       <c r="K9" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" s="61"/>
-      <c r="M9" s="56"/>
+        <v>144</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="56" t="s">
+        <v>146</v>
+      </c>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -3376,16 +3399,16 @@
         <v>126</v>
       </c>
       <c r="L10" s="61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:16" s="5" customFormat="1">
+    <row r="11" spans="1:16" s="5" customFormat="1" ht="19" customHeight="1">
       <c r="A11" s="11">
         <v>27</v>
       </c>
@@ -3417,15 +3440,19 @@
         <v>20</v>
       </c>
       <c r="K11" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" s="61"/>
-      <c r="M11" s="56"/>
+        <v>145</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>147</v>
+      </c>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="19" customHeight="1">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -3457,13 +3484,13 @@
         <v>21</v>
       </c>
       <c r="K12" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" s="56" t="s">
         <v>141</v>
-      </c>
-      <c r="L12" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="M12" s="56" t="s">
-        <v>144</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
@@ -3501,13 +3528,13 @@
         <v>22</v>
       </c>
       <c r="K13" s="61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L13" s="61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M13" s="57" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
@@ -3545,7 +3572,7 @@
         <v>22</v>
       </c>
       <c r="K14" s="61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L14" s="61"/>
       <c r="M14" s="56"/>
@@ -3621,13 +3648,13 @@
         <v>23</v>
       </c>
       <c r="K16" s="61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L16" s="61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M16" s="56" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
@@ -4952,7 +4979,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="149">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -657,6 +657,10 @@
   </si>
   <si>
     <t>/mall-web/src/main/resources/templates/personalCenter/data_purchase.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐演坤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2949,7 +2953,7 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3725,7 +3729,9 @@
       <c r="J18" s="15">
         <v>24</v>
       </c>
-      <c r="K18" s="61"/>
+      <c r="K18" s="61" t="s">
+        <v>148</v>
+      </c>
       <c r="L18" s="61"/>
       <c r="M18" s="56"/>
       <c r="N18" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="149">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -911,11 +911,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1127,18 +1129,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="14">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2952,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3843,7 +3847,9 @@
       <c r="J21" s="15">
         <v>30</v>
       </c>
-      <c r="K21" s="62"/>
+      <c r="K21" s="61" t="s">
+        <v>148</v>
+      </c>
       <c r="L21" s="62"/>
       <c r="M21" s="58"/>
       <c r="N21" s="49"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="150">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -661,6 +661,10 @@
   </si>
   <si>
     <t>唐演坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/browsing_ history.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -911,11 +915,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1129,7 +1137,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="18">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -1137,12 +1145,16 @@
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2956,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3736,8 +3748,12 @@
       <c r="K18" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="L18" s="61"/>
-      <c r="M18" s="56"/>
+      <c r="L18" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>149</v>
+      </c>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="154">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -667,15 +667,31 @@
     <t>/mall-web/src/main/resources/templates/personalCenter/browsing_ history.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UI界面调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多媒体资料管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -937,7 +953,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
@@ -1136,8 +1152,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -1147,15 +1167,14 @@
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1425,32 +1444,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -2965,2049 +2984,2198 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11" style="65"/>
-    <col min="13" max="13" width="101.7109375" style="60" customWidth="1"/>
-    <col min="14" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="65"/>
+    <col min="14" max="14" width="101.75" style="60" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="11">
-        <v>3</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="40">
-        <v>42857</v>
-      </c>
-      <c r="E1" s="40">
-        <v>42857</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="15">
+    <row r="1" spans="1:17">
+      <c r="A1" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="15">
-        <v>3</v>
-      </c>
-      <c r="J1" s="15">
-        <v>11</v>
-      </c>
-      <c r="K1" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" s="22"/>
+      <c r="H1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="56"/>
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
-    </row>
-    <row r="2" spans="1:16" ht="23" customHeight="1">
-      <c r="A2" s="34">
-        <v>4</v>
-      </c>
-      <c r="B2" s="51" t="s">
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="11">
+        <v>3</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="40">
-        <v>42858</v>
+      <c r="C2" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E2" s="40">
-        <v>42858</v>
-      </c>
-      <c r="F2" s="41" t="s">
+        <v>42857</v>
+      </c>
+      <c r="F2" s="40">
+        <v>42857</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="H2" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="15">
+      <c r="I2" s="15">
         <v>0</v>
       </c>
-      <c r="I2" s="15">
+      <c r="J2" s="15">
         <v>3</v>
       </c>
-      <c r="J2" s="15">
+      <c r="K2" s="15">
         <v>11</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="L2" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="M2" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="M2" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="N2" s="22"/>
+      <c r="N2" s="56" t="s">
+        <v>130</v>
+      </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
-    </row>
-    <row r="3" spans="1:16" ht="23" customHeight="1">
-      <c r="A3" s="11">
-        <v>29</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="27">
-        <v>42859</v>
-      </c>
-      <c r="E3" s="27">
-        <v>42863</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="15">
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" ht="23.1" customHeight="1">
+      <c r="A3" s="34">
+        <v>4</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="40">
+        <v>42858</v>
+      </c>
+      <c r="F3" s="40">
+        <v>42858</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="15">
         <v>0</v>
       </c>
-      <c r="I3" s="15">
+      <c r="J3" s="15">
         <v>3</v>
       </c>
-      <c r="J3" s="15">
-        <v>12</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>144</v>
+      <c r="K3" s="15">
+        <v>11</v>
       </c>
       <c r="L3" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="N3" s="22"/>
+        <v>126</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>131</v>
+      </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
-    </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" ht="25" customHeight="1">
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" ht="23.1" customHeight="1">
       <c r="A4" s="11">
-        <v>16</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="40">
-        <v>42857</v>
-      </c>
-      <c r="E4" s="40">
-        <v>42865</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="15">
+        <v>29</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="27">
+        <v>42859</v>
+      </c>
+      <c r="F4" s="27">
+        <v>42863</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="15">
         <v>0</v>
       </c>
-      <c r="I4" s="15">
+      <c r="J4" s="15">
         <v>3</v>
       </c>
-      <c r="J4" s="15">
-        <v>13</v>
-      </c>
-      <c r="K4" s="61" t="s">
-        <v>126</v>
+      <c r="K4" s="15">
+        <v>12</v>
       </c>
       <c r="L4" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="N4" s="22"/>
+      <c r="N4" s="56" t="s">
+        <v>139</v>
+      </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" ht="45" customHeight="1">
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" s="12" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="11">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="29">
-        <v>42858</v>
-      </c>
-      <c r="E5" s="29">
-        <v>42859</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="C5" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="40">
+        <v>42857</v>
+      </c>
+      <c r="F5" s="40">
+        <v>42865</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="15">
         <v>0</v>
       </c>
-      <c r="I5" s="15">
+      <c r="J5" s="15">
         <v>3</v>
       </c>
-      <c r="J5" s="15">
+      <c r="K5" s="15">
         <v>13</v>
       </c>
-      <c r="K5" s="61" t="s">
+      <c r="L5" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="L5" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="M5" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="N5" s="22"/>
+      <c r="M5" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>137</v>
+      </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" spans="1:17" s="12" customFormat="1" ht="45" customHeight="1">
       <c r="A6" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="29">
-        <v>42860</v>
+      <c r="C6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="E6" s="29">
-        <v>42861</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>87</v>
+        <v>42858</v>
+      </c>
+      <c r="F6" s="29">
+        <v>42859</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="15">
         <v>0</v>
       </c>
-      <c r="I6" s="15">
+      <c r="J6" s="15">
         <v>3</v>
       </c>
-      <c r="J6" s="15">
-        <v>14</v>
-      </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="15">
+        <v>13</v>
+      </c>
+      <c r="L6" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="L6" s="61" t="s">
+      <c r="M6" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="N6" s="22"/>
+      <c r="N6" s="57" t="s">
+        <v>132</v>
+      </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="1:16" ht="17" customHeight="1">
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="11">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="40">
-        <v>42863</v>
-      </c>
-      <c r="E7" s="40">
-        <v>42866</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="15">
+        <v>47</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="29">
+        <v>42860</v>
+      </c>
+      <c r="F7" s="29">
+        <v>42861</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="15">
         <v>0</v>
       </c>
-      <c r="I7" s="15">
-        <v>2</v>
-      </c>
       <c r="J7" s="15">
-        <v>15</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>144</v>
+        <v>3</v>
+      </c>
+      <c r="K7" s="15">
+        <v>14</v>
       </c>
       <c r="L7" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="M7" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="N7" s="22"/>
+      <c r="N7" s="56" t="s">
+        <v>133</v>
+      </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:16" s="12" customFormat="1" ht="77" customHeight="1">
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="11">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="27">
-        <v>42857</v>
-      </c>
-      <c r="E8" s="27">
-        <v>42864</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="15">
+        <v>35</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="40">
+        <v>42863</v>
+      </c>
+      <c r="F8" s="40">
+        <v>42866</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="15">
         <v>0</v>
       </c>
-      <c r="I8" s="15">
+      <c r="J8" s="15">
         <v>2</v>
       </c>
-      <c r="J8" s="15">
-        <v>16</v>
-      </c>
-      <c r="K8" s="61" t="s">
-        <v>126</v>
+      <c r="K8" s="15">
+        <v>15</v>
       </c>
       <c r="L8" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="M8" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" s="22"/>
+      <c r="N8" s="56" t="s">
+        <v>147</v>
+      </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="1:16" ht="17" customHeight="1">
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" s="12" customFormat="1" ht="30.75" customHeight="1">
       <c r="A9" s="11">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="40">
-        <v>42867</v>
-      </c>
-      <c r="E9" s="41">
-        <v>42868</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="15">
+        <v>47</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="27">
+        <v>42857</v>
+      </c>
+      <c r="F9" s="27">
+        <v>42864</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="15">
         <v>0</v>
       </c>
-      <c r="I9" s="15">
+      <c r="J9" s="15">
         <v>2</v>
       </c>
-      <c r="J9" s="15">
-        <v>17</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>144</v>
+      <c r="K9" s="15">
+        <v>16</v>
       </c>
       <c r="L9" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="N9" s="22"/>
+      <c r="N9" s="57" t="s">
+        <v>134</v>
+      </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" s="5" customFormat="1">
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="27">
-        <v>42863</v>
-      </c>
-      <c r="E10" s="27">
-        <v>42866</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="C10" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="40">
+        <v>42867</v>
+      </c>
+      <c r="F10" s="41">
+        <v>42868</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="15">
         <v>0</v>
       </c>
-      <c r="I10" s="15">
-        <v>3</v>
-      </c>
       <c r="J10" s="15">
-        <v>18</v>
-      </c>
-      <c r="K10" s="61" t="s">
-        <v>126</v>
+        <v>2</v>
+      </c>
+      <c r="K10" s="15">
+        <v>17</v>
       </c>
       <c r="L10" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="N10" s="22"/>
+      <c r="N10" s="56" t="s">
+        <v>146</v>
+      </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" s="5" customFormat="1" ht="19" customHeight="1">
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="1:17" s="5" customFormat="1">
       <c r="A11" s="11">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="40">
-        <v>42867</v>
-      </c>
-      <c r="E11" s="40">
-        <v>42880</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="C11" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="27">
+        <v>42863</v>
+      </c>
+      <c r="F11" s="27">
+        <v>42866</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="15">
         <v>0</v>
       </c>
-      <c r="I11" s="15">
-        <v>2</v>
-      </c>
       <c r="J11" s="15">
-        <v>20</v>
-      </c>
-      <c r="K11" s="61" t="s">
-        <v>145</v>
+        <v>3</v>
+      </c>
+      <c r="K11" s="15">
+        <v>18</v>
       </c>
       <c r="L11" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="M11" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="N11" s="22"/>
+      <c r="N11" s="56" t="s">
+        <v>135</v>
+      </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
-    </row>
-    <row r="12" spans="1:16" ht="19" customHeight="1">
+      <c r="Q11" s="22"/>
+    </row>
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="18.95" customHeight="1">
       <c r="A12" s="11">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="40">
-        <v>42865</v>
+      <c r="C12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="E12" s="40">
         <v>42867</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="42" t="s">
+      <c r="F12" s="40">
+        <v>42880</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="15">
+      <c r="I12" s="15">
         <v>0</v>
       </c>
-      <c r="I12" s="15">
+      <c r="J12" s="15">
         <v>2</v>
       </c>
-      <c r="J12" s="15">
-        <v>21</v>
-      </c>
-      <c r="K12" s="61" t="s">
-        <v>138</v>
+      <c r="K12" s="15">
+        <v>20</v>
       </c>
       <c r="L12" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="M12" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="N12" s="22"/>
+      <c r="N12" s="56" t="s">
+        <v>147</v>
+      </c>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
-    </row>
-    <row r="13" spans="1:16" ht="39" customHeight="1">
+      <c r="Q12" s="22"/>
+    </row>
+    <row r="13" spans="1:17" ht="18.95" customHeight="1">
       <c r="A13" s="11">
-        <v>6</v>
-      </c>
-      <c r="B13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="40">
+      <c r="C13" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="40">
+        <v>42865</v>
+      </c>
+      <c r="F13" s="40">
         <v>42867</v>
       </c>
-      <c r="E13" s="40">
-        <v>42870</v>
-      </c>
-      <c r="F13" s="41" t="s">
+      <c r="G13" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="H13" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="15">
+      <c r="I13" s="15">
         <v>0</v>
       </c>
-      <c r="I13" s="15">
-        <v>3</v>
-      </c>
       <c r="J13" s="15">
-        <v>22</v>
-      </c>
-      <c r="K13" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="15">
+        <v>21</v>
+      </c>
+      <c r="L13" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="L13" s="61" t="s">
+      <c r="M13" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="M13" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="N13" s="22"/>
+      <c r="N13" s="56" t="s">
+        <v>141</v>
+      </c>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="22"/>
+    </row>
+    <row r="14" spans="1:17" ht="39" customHeight="1">
       <c r="A14" s="11">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="29">
-        <v>42865</v>
-      </c>
-      <c r="E14" s="29">
+      <c r="C14" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="40">
         <v>42867</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="15">
+      <c r="F14" s="40">
+        <v>42870</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="15">
         <v>0</v>
       </c>
-      <c r="I14" s="15">
+      <c r="J14" s="15">
         <v>3</v>
       </c>
-      <c r="J14" s="15">
+      <c r="K14" s="15">
         <v>22</v>
       </c>
-      <c r="K14" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="22"/>
+      <c r="L14" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="N14" s="57" t="s">
+        <v>140</v>
+      </c>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
-    </row>
-    <row r="15" spans="1:16" s="5" customFormat="1">
-      <c r="A15" s="17">
-        <v>44</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="Q14" s="22"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="11">
+        <v>19</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="29">
         <v>42865</v>
       </c>
-      <c r="E15" s="19">
-        <v>42870</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18">
-        <v>1</v>
-      </c>
-      <c r="I15" s="17">
-        <v>2</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="F15" s="29">
+        <v>42867</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="15">
         <v>22</v>
       </c>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="22"/>
+      <c r="L15" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="61"/>
+      <c r="N15" s="56"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
-    </row>
-    <row r="16" spans="1:16" s="5" customFormat="1">
-      <c r="A16" s="11">
+      <c r="Q15" s="22"/>
+    </row>
+    <row r="16" spans="1:17" s="5" customFormat="1">
+      <c r="A16" s="17">
+        <v>44</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="19">
+        <v>42865</v>
+      </c>
+      <c r="F16" s="19">
+        <v>42870</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
+      <c r="J16" s="17">
+        <v>2</v>
+      </c>
+      <c r="K16" s="17">
         <v>22</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="40">
-        <v>42870</v>
-      </c>
-      <c r="E16" s="40">
-        <v>42872</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15">
-        <v>3</v>
-      </c>
-      <c r="J16" s="15">
-        <v>23</v>
-      </c>
-      <c r="K16" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="L16" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="M16" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="N16" s="22"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="56"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
-    </row>
-    <row r="17" spans="1:16" s="5" customFormat="1">
-      <c r="A17" s="17">
-        <v>47</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="19">
-        <v>42871</v>
-      </c>
-      <c r="E17" s="19">
-        <v>42873</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="17">
-        <v>2</v>
-      </c>
-      <c r="J17" s="17">
+      <c r="Q16" s="22"/>
+    </row>
+    <row r="17" spans="1:17" s="5" customFormat="1">
+      <c r="A17" s="11">
+        <v>22</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="40">
+        <v>42870</v>
+      </c>
+      <c r="F17" s="40">
+        <v>42872</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <v>3</v>
+      </c>
+      <c r="K17" s="15">
         <v>23</v>
       </c>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="22"/>
+      <c r="L17" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="N17" s="56" t="s">
+        <v>143</v>
+      </c>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
-    </row>
-    <row r="18" spans="1:16" s="5" customFormat="1">
-      <c r="A18" s="11">
-        <v>8</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="27">
-        <v>42867</v>
-      </c>
-      <c r="E18" s="27">
+      <c r="Q17" s="22"/>
+    </row>
+    <row r="18" spans="1:17" s="5" customFormat="1">
+      <c r="A18" s="17">
+        <v>47</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="19">
         <v>42871</v>
       </c>
-      <c r="F18" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15">
-        <v>3</v>
-      </c>
-      <c r="J18" s="15">
-        <v>24</v>
-      </c>
-      <c r="K18" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="L18" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="M18" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="N18" s="22"/>
+      <c r="F18" s="19">
+        <v>42873</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="17">
+        <v>2</v>
+      </c>
+      <c r="K18" s="17">
+        <v>23</v>
+      </c>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="56"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
-    </row>
-    <row r="19" spans="1:16" s="12" customFormat="1">
-      <c r="A19" s="17">
-        <v>46</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="19">
-        <v>42840</v>
-      </c>
-      <c r="E19" s="19">
-        <v>42842</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18">
-        <v>1</v>
-      </c>
-      <c r="I19" s="17">
-        <v>2</v>
-      </c>
-      <c r="J19" s="17">
-        <v>25</v>
-      </c>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="22"/>
+      <c r="Q18" s="22"/>
+    </row>
+    <row r="19" spans="1:17" s="5" customFormat="1">
+      <c r="A19" s="11">
+        <v>8</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="27">
+        <v>42867</v>
+      </c>
+      <c r="F19" s="27">
+        <v>42871</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>3</v>
+      </c>
+      <c r="K19" s="15">
+        <v>24</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="N19" s="56" t="s">
+        <v>149</v>
+      </c>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
-    </row>
-    <row r="20" spans="1:16" s="12" customFormat="1">
-      <c r="A20" s="44">
-        <v>34</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="47">
-        <v>42867</v>
-      </c>
-      <c r="E20" s="47">
-        <v>42871</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="46">
-        <v>0</v>
-      </c>
-      <c r="I20" s="46">
-        <v>3</v>
-      </c>
-      <c r="J20" s="46">
-        <v>28</v>
-      </c>
-      <c r="K20" s="61"/>
+      <c r="Q19" s="22"/>
+    </row>
+    <row r="20" spans="1:17" s="12" customFormat="1">
+      <c r="A20" s="17">
+        <v>46</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="19">
+        <v>42840</v>
+      </c>
+      <c r="F20" s="19">
+        <v>42842</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17">
+        <v>2</v>
+      </c>
+      <c r="K20" s="17">
+        <v>25</v>
+      </c>
       <c r="L20" s="61"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="22"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
-    </row>
-    <row r="21" spans="1:16" s="50" customFormat="1">
-      <c r="A21" s="11">
+      <c r="Q20" s="22"/>
+    </row>
+    <row r="21" spans="1:17" s="12" customFormat="1">
+      <c r="A21" s="44">
+        <v>34</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="47">
+        <v>42867</v>
+      </c>
+      <c r="F21" s="47">
+        <v>42871</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="46">
+        <v>0</v>
+      </c>
+      <c r="J21" s="46">
+        <v>3</v>
+      </c>
+      <c r="K21" s="46">
+        <v>28</v>
+      </c>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+    </row>
+    <row r="22" spans="1:17" s="50" customFormat="1">
+      <c r="A22" s="11">
         <v>15</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="27">
+      <c r="B22" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="27">
         <v>42871</v>
       </c>
-      <c r="E21" s="27">
+      <c r="F22" s="27">
         <v>42875</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="G22" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="H22" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="15">
+      <c r="I22" s="15">
         <v>0</v>
       </c>
-      <c r="I21" s="15">
+      <c r="J22" s="15">
         <v>3</v>
       </c>
-      <c r="J21" s="15">
+      <c r="K22" s="15">
         <v>30</v>
       </c>
-      <c r="K21" s="61" t="s">
+      <c r="L22" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="L21" s="62"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-    </row>
-    <row r="22" spans="1:16" s="10" customFormat="1">
-      <c r="A22" s="11">
+      <c r="M22" s="62"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+    </row>
+    <row r="23" spans="1:17" s="10" customFormat="1">
+      <c r="A23" s="11">
         <v>35</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B23" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="40">
+      <c r="E23" s="40">
         <v>42871</v>
       </c>
-      <c r="E22" s="40">
+      <c r="F23" s="40">
         <v>42873</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="G23" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="H23" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="15">
+      <c r="I23" s="15">
         <v>0</v>
       </c>
-      <c r="I22" s="15">
+      <c r="J23" s="15">
         <v>3</v>
       </c>
-      <c r="J22" s="15">
+      <c r="K23" s="15">
         <v>31</v>
       </c>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-    </row>
-    <row r="23" spans="1:16" s="5" customFormat="1">
-      <c r="A23" s="11">
-        <v>36</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="29">
-        <v>42872</v>
-      </c>
-      <c r="E23" s="29">
-        <v>42874</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15">
-        <v>3</v>
-      </c>
-      <c r="J23" s="15">
-        <v>32</v>
-      </c>
-      <c r="K23" s="61"/>
       <c r="L23" s="61"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="22"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="56"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="22"/>
+    </row>
+    <row r="24" spans="1:17" s="5" customFormat="1">
       <c r="A24" s="11">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="40">
-        <v>42873</v>
-      </c>
-      <c r="E24" s="40">
-        <v>42875</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="15">
+      <c r="C24" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="29">
+        <v>42872</v>
+      </c>
+      <c r="F24" s="29">
+        <v>42874</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="15">
         <v>0</v>
       </c>
-      <c r="I24" s="15">
+      <c r="J24" s="15">
         <v>3</v>
       </c>
-      <c r="J24" s="15">
-        <v>40</v>
-      </c>
-      <c r="K24" s="61"/>
+      <c r="K24" s="15">
+        <v>32</v>
+      </c>
       <c r="L24" s="61"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="22"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="56"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="22"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="11">
-        <v>50</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="40">
+        <v>40</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="40">
+        <v>42873</v>
+      </c>
+      <c r="F25" s="40">
         <v>42875</v>
       </c>
-      <c r="E25" s="40">
-        <v>42878</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="15">
         <v>0</v>
       </c>
-      <c r="I25" s="15">
-        <v>2</v>
-      </c>
       <c r="J25" s="15">
-        <v>41</v>
-      </c>
-      <c r="K25" s="61"/>
+        <v>3</v>
+      </c>
+      <c r="K25" s="15">
+        <v>40</v>
+      </c>
       <c r="L25" s="61"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="22"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="56"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
-    </row>
-    <row r="26" spans="1:16" s="9" customFormat="1">
+      <c r="Q25" s="22"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="11">
-        <v>12</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="40">
-        <v>42852</v>
+        <v>50</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="E26" s="40">
-        <v>42857</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" s="15">
+        <v>42875</v>
+      </c>
+      <c r="F26" s="40">
+        <v>42878</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="15">
         <v>0</v>
       </c>
-      <c r="I26" s="15">
-        <v>3</v>
-      </c>
       <c r="J26" s="15">
-        <v>50</v>
-      </c>
-      <c r="K26" s="61"/>
+        <v>2</v>
+      </c>
+      <c r="K26" s="15">
+        <v>41</v>
+      </c>
       <c r="L26" s="61"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="22"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="56"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
-    </row>
-    <row r="27" spans="1:16" s="9" customFormat="1">
-      <c r="A27" s="53">
-        <v>42</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="19">
-        <v>42853</v>
-      </c>
-      <c r="E27" s="19">
-        <v>42861</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="17">
+      <c r="Q26" s="22"/>
+    </row>
+    <row r="27" spans="1:17" s="9" customFormat="1">
+      <c r="A27" s="11">
+        <v>12</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="40">
+        <v>42852</v>
+      </c>
+      <c r="F27" s="40">
+        <v>42857</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="15">
         <v>0</v>
       </c>
-      <c r="I27" s="17">
-        <v>2</v>
-      </c>
-      <c r="J27" s="17">
-        <v>50</v>
-      </c>
-      <c r="K27" s="61"/>
+      <c r="J27" s="15">
+        <v>3</v>
+      </c>
+      <c r="K27" s="15">
+        <v>50</v>
+      </c>
       <c r="L27" s="61"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="22"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="56"/>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
-    </row>
-    <row r="28" spans="1:16" s="55" customFormat="1">
-      <c r="A28" s="17">
+      <c r="Q27" s="22"/>
+    </row>
+    <row r="28" spans="1:17" s="9" customFormat="1">
+      <c r="A28" s="53">
+        <v>42</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="19">
+        <v>42853</v>
+      </c>
+      <c r="F28" s="19">
+        <v>42861</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
         <v>2</v>
       </c>
-      <c r="B28" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="19">
-        <v>42849</v>
-      </c>
-      <c r="E28" s="19">
-        <v>42850</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="18">
-        <v>1</v>
-      </c>
-      <c r="I28" s="17">
-        <v>1</v>
-      </c>
-      <c r="J28" s="17">
-        <v>50</v>
-      </c>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-    </row>
-    <row r="29" spans="1:16" s="9" customFormat="1">
+      <c r="K28" s="17">
+        <v>50</v>
+      </c>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+    </row>
+    <row r="29" spans="1:17" s="55" customFormat="1">
       <c r="A29" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="19">
+        <v>42849</v>
+      </c>
+      <c r="F29" s="19">
+        <v>42850</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
+      <c r="J29" s="17">
+        <v>1</v>
+      </c>
+      <c r="K29" s="17">
+        <v>50</v>
+      </c>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+    </row>
+    <row r="30" spans="1:17" s="9" customFormat="1">
+      <c r="A30" s="17">
+        <v>5</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="19">
+      <c r="E30" s="19">
         <v>42851</v>
       </c>
-      <c r="E29" s="19">
+      <c r="F30" s="19">
         <v>42851</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="G30" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="H30" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="18">
+      <c r="I30" s="18">
         <v>1</v>
       </c>
-      <c r="I29" s="17">
+      <c r="J30" s="17">
         <v>1</v>
       </c>
-      <c r="J29" s="17">
-        <v>50</v>
-      </c>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="17">
-        <v>13</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="19">
-        <v>42844</v>
-      </c>
-      <c r="E30" s="19">
-        <v>42853</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18">
-        <v>1</v>
-      </c>
-      <c r="I30" s="17">
-        <v>1</v>
-      </c>
-      <c r="J30" s="17">
-        <v>50</v>
-      </c>
-      <c r="K30" s="61"/>
+      <c r="K30" s="17">
+        <v>50</v>
+      </c>
       <c r="L30" s="61"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="22"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="56"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
-    </row>
-    <row r="31" spans="1:16" s="5" customFormat="1">
+      <c r="Q30" s="22"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="19">
+      <c r="C31" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="19">
         <v>42844</v>
       </c>
-      <c r="E31" s="19">
+      <c r="F31" s="19">
         <v>42853</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="G31" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18">
+      <c r="H31" s="17"/>
+      <c r="I31" s="18">
         <v>1</v>
       </c>
-      <c r="I31" s="17">
+      <c r="J31" s="17">
         <v>1</v>
       </c>
-      <c r="J31" s="17">
-        <v>50</v>
-      </c>
-      <c r="K31" s="61"/>
+      <c r="K31" s="17">
+        <v>50</v>
+      </c>
       <c r="L31" s="61"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="22"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="56"/>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31" s="22"/>
+    </row>
+    <row r="32" spans="1:17" s="5" customFormat="1">
       <c r="A32" s="17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="19">
-        <v>42845</v>
+        <v>117</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="E32" s="19">
-        <v>42852</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18">
+        <v>42844</v>
+      </c>
+      <c r="F32" s="19">
+        <v>42853</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18">
         <v>1</v>
       </c>
-      <c r="I32" s="17">
+      <c r="J32" s="17">
         <v>1</v>
       </c>
-      <c r="J32" s="17">
-        <v>50</v>
-      </c>
-      <c r="K32" s="61"/>
+      <c r="K32" s="17">
+        <v>50</v>
+      </c>
       <c r="L32" s="61"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="22"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="56"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
-    </row>
-    <row r="33" spans="1:17" s="12" customFormat="1">
+      <c r="Q32" s="22"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="19">
-        <v>42849</v>
+      <c r="C33" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="E33" s="19">
-        <v>42858</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18">
+        <v>42845</v>
+      </c>
+      <c r="F33" s="19">
+        <v>42852</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18">
         <v>1</v>
       </c>
-      <c r="I33" s="17">
+      <c r="J33" s="17">
         <v>1</v>
       </c>
-      <c r="J33" s="17">
-        <v>50</v>
-      </c>
-      <c r="K33" s="61"/>
+      <c r="K33" s="17">
+        <v>50</v>
+      </c>
       <c r="L33" s="61"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="22"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="56"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
-    </row>
-    <row r="34" spans="1:17" s="10" customFormat="1">
+      <c r="Q33" s="22"/>
+    </row>
+    <row r="34" spans="1:18" s="12" customFormat="1">
       <c r="A34" s="17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="19">
-        <v>42842</v>
+      <c r="C34" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="E34" s="19">
-        <v>42850</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18">
+        <v>42849</v>
+      </c>
+      <c r="F34" s="19">
+        <v>42858</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18">
         <v>1</v>
       </c>
-      <c r="I34" s="17">
+      <c r="J34" s="17">
         <v>1</v>
       </c>
-      <c r="J34" s="17">
-        <v>50</v>
-      </c>
-      <c r="K34" s="61"/>
+      <c r="K34" s="17">
+        <v>50</v>
+      </c>
       <c r="L34" s="61"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="22"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="56"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
-    </row>
-    <row r="35" spans="1:17" s="10" customFormat="1">
+      <c r="Q34" s="22"/>
+    </row>
+    <row r="35" spans="1:18" s="10" customFormat="1">
       <c r="A35" s="17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="19">
-        <v>42844</v>
+      <c r="C35" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="E35" s="19">
-        <v>42851</v>
-      </c>
-      <c r="F35" s="17" t="s">
+        <v>42842</v>
+      </c>
+      <c r="F35" s="19">
+        <v>42850</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18">
+      <c r="H35" s="17"/>
+      <c r="I35" s="18">
         <v>1</v>
       </c>
-      <c r="I35" s="17">
+      <c r="J35" s="17">
         <v>1</v>
       </c>
-      <c r="J35" s="17">
-        <v>50</v>
-      </c>
-      <c r="K35" s="61"/>
+      <c r="K35" s="17">
+        <v>50</v>
+      </c>
       <c r="L35" s="61"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="22"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="56"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="Q35" s="22"/>
+    </row>
+    <row r="36" spans="1:18" s="10" customFormat="1">
       <c r="A36" s="17">
-        <v>24</v>
-      </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18">
+        <v>21</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="19">
+        <v>42844</v>
+      </c>
+      <c r="F36" s="19">
+        <v>42851</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18">
         <v>1</v>
       </c>
-      <c r="I36" s="17">
-        <v>3</v>
-      </c>
       <c r="J36" s="17">
-        <v>50</v>
-      </c>
-      <c r="K36" s="61"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="17">
+        <v>50</v>
+      </c>
       <c r="L36" s="61"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="22"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="56"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="Q36" s="22"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="17">
-        <v>25</v>
-      </c>
-      <c r="B37" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="E37" s="19"/>
-      <c r="F37" s="17" t="s">
-        <v>84</v>
-      </c>
+      <c r="F37" s="19"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="18">
+      <c r="H37" s="17"/>
+      <c r="I37" s="18">
         <v>1</v>
       </c>
-      <c r="I37" s="17">
+      <c r="J37" s="17">
         <v>3</v>
       </c>
-      <c r="J37" s="17">
-        <v>50</v>
-      </c>
-      <c r="K37" s="61"/>
+      <c r="K37" s="17">
+        <v>50</v>
+      </c>
       <c r="L37" s="61"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="22"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="56"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="Q37" s="22"/>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="17">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="19"/>
+      <c r="C38" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>92</v>
+      </c>
       <c r="E38" s="19"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18">
+      <c r="F38" s="19"/>
+      <c r="G38" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18">
         <v>1</v>
       </c>
-      <c r="I38" s="17">
+      <c r="J38" s="17">
         <v>3</v>
       </c>
-      <c r="J38" s="17">
-        <v>50</v>
-      </c>
-      <c r="K38" s="61"/>
+      <c r="K38" s="17">
+        <v>50</v>
+      </c>
       <c r="L38" s="61"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="22"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="56"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
-    </row>
-    <row r="39" spans="1:17" s="12" customFormat="1">
+      <c r="Q38" s="22"/>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="17">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="19">
-        <v>42857</v>
-      </c>
-      <c r="E39" s="19">
-        <v>42860</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>46</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="18">
+      <c r="H39" s="17"/>
+      <c r="I39" s="18">
         <v>1</v>
       </c>
-      <c r="I39" s="17">
-        <v>1</v>
-      </c>
       <c r="J39" s="17">
-        <v>50</v>
-      </c>
-      <c r="K39" s="61"/>
+        <v>3</v>
+      </c>
+      <c r="K39" s="17">
+        <v>50</v>
+      </c>
       <c r="L39" s="61"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="22"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="56"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="Q39" s="22"/>
+    </row>
+    <row r="40" spans="1:18" s="12" customFormat="1">
       <c r="A40" s="17">
-        <v>31</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="19">
-        <v>42851</v>
+        <v>28</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="E40" s="19">
-        <v>42853</v>
-      </c>
-      <c r="F40" s="17" t="s">
+        <v>42857</v>
+      </c>
+      <c r="F40" s="19">
+        <v>42860</v>
+      </c>
+      <c r="G40" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18">
+      <c r="H40" s="17"/>
+      <c r="I40" s="18">
         <v>1</v>
       </c>
-      <c r="I40" s="17">
+      <c r="J40" s="17">
         <v>1</v>
       </c>
-      <c r="J40" s="17">
-        <v>50</v>
-      </c>
-      <c r="K40" s="61"/>
+      <c r="K40" s="17">
+        <v>50</v>
+      </c>
       <c r="L40" s="61"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="22"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="56"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="Q40" s="22"/>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="19">
-        <v>42843</v>
+      <c r="C41" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="E41" s="19">
+        <v>42851</v>
+      </c>
+      <c r="F41" s="19">
         <v>42853</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18">
+      <c r="G41" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="17"/>
+      <c r="I41" s="18">
         <v>1</v>
       </c>
-      <c r="I41" s="17">
+      <c r="J41" s="17">
         <v>1</v>
       </c>
-      <c r="J41" s="17">
-        <v>50</v>
-      </c>
-      <c r="K41" s="61"/>
+      <c r="K41" s="17">
+        <v>50</v>
+      </c>
       <c r="L41" s="61"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="22"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="56"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="Q41" s="22"/>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="17">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="19">
-        <v>42851</v>
+      <c r="C42" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="E42" s="19">
-        <v>42857</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18">
+        <v>42843</v>
+      </c>
+      <c r="F42" s="19">
+        <v>42853</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" s="17"/>
+      <c r="I42" s="18">
         <v>1</v>
       </c>
-      <c r="I42" s="17">
+      <c r="J42" s="17">
         <v>1</v>
       </c>
-      <c r="J42" s="17">
-        <v>50</v>
-      </c>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="33"/>
-    </row>
-    <row r="43" spans="1:17" s="7" customFormat="1">
+      <c r="K42" s="17">
+        <v>50</v>
+      </c>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="17">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B43" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="19">
+      <c r="C43" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="19">
         <v>42851</v>
       </c>
-      <c r="E43" s="19">
-        <v>42853</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18">
+      <c r="F43" s="19">
+        <v>42857</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="I43" s="18">
         <v>1</v>
       </c>
-      <c r="I43" s="17">
+      <c r="J43" s="17">
         <v>1</v>
       </c>
-      <c r="J43" s="17">
-        <v>50</v>
-      </c>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="K43" s="17">
+        <v>50</v>
+      </c>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="33"/>
+    </row>
+    <row r="44" spans="1:18" s="7" customFormat="1">
       <c r="A44" s="17">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18">
+      <c r="C44" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="19">
+        <v>42851</v>
+      </c>
+      <c r="F44" s="19">
+        <v>42853</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="17"/>
+      <c r="I44" s="18">
         <v>1</v>
       </c>
-      <c r="I44" s="17">
-        <v>3</v>
-      </c>
       <c r="J44" s="17">
-        <v>50</v>
-      </c>
-      <c r="K44" s="61"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="17">
+        <v>50</v>
+      </c>
       <c r="L44" s="61"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="22"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="56"/>
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="Q44" s="22"/>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="17">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B45" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="19">
-        <v>42837</v>
-      </c>
-      <c r="E45" s="19">
-        <v>42839</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18">
+      <c r="C45" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="18">
         <v>1</v>
       </c>
-      <c r="I45" s="17">
-        <v>2</v>
-      </c>
       <c r="J45" s="17">
-        <v>50</v>
-      </c>
-      <c r="K45" s="61"/>
+        <v>3</v>
+      </c>
+      <c r="K45" s="17">
+        <v>50</v>
+      </c>
       <c r="L45" s="61"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="22"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="56"/>
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="Q45" s="22"/>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="17">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="19">
-        <v>42874</v>
+      <c r="C46" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="E46" s="19">
-        <v>42885</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="17">
+        <v>42837</v>
+      </c>
+      <c r="F46" s="19">
+        <v>42839</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" s="17"/>
+      <c r="I46" s="18">
+        <v>1</v>
+      </c>
+      <c r="J46" s="17">
         <v>2</v>
       </c>
-      <c r="J46" s="17">
-        <v>50</v>
-      </c>
-      <c r="K46" s="61"/>
+      <c r="K46" s="17">
+        <v>50</v>
+      </c>
       <c r="L46" s="61"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="22"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="56"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="Q46" s="22"/>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="17">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="19">
+      <c r="C47" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="19">
         <v>42874</v>
       </c>
-      <c r="E47" s="19">
-        <v>42881</v>
-      </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="19">
+        <v>42885</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="17">
+      <c r="H47" s="17"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="17">
         <v>2</v>
       </c>
-      <c r="J47" s="17">
-        <v>50</v>
-      </c>
-      <c r="K47" s="61"/>
+      <c r="K47" s="17">
+        <v>50</v>
+      </c>
       <c r="L47" s="61"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="22"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="56"/>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="11">
-        <v>51</v>
-      </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25">
-        <v>42875</v>
-      </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15">
-        <v>50</v>
-      </c>
-      <c r="K48" s="61"/>
+      <c r="Q47" s="22"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="17">
+        <v>49</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="19">
+        <v>42874</v>
+      </c>
+      <c r="F48" s="19">
+        <v>42881</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" s="17"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="17">
+        <v>2</v>
+      </c>
+      <c r="K48" s="17">
+        <v>50</v>
+      </c>
       <c r="L48" s="61"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="22"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="56"/>
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48" s="22"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" s="32"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="25">
-        <v>42865</v>
-      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="25"/>
-      <c r="F49" s="15" t="s">
-        <v>7</v>
+      <c r="F49" s="25">
+        <v>42875</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
-      <c r="J49" s="15">
-        <v>50</v>
-      </c>
-      <c r="K49" s="61"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15">
+        <v>50</v>
+      </c>
       <c r="L49" s="61"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="22"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="56"/>
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49" s="22"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="32"/>
-      <c r="C50" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="25">
-        <v>42885</v>
-      </c>
+      <c r="C50" s="32"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="25">
-        <v>42901</v>
-      </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
+        <v>42865</v>
+      </c>
+      <c r="F50" s="25"/>
+      <c r="G50" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
-      <c r="J50" s="15">
-        <v>50</v>
-      </c>
-      <c r="K50" s="61"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15">
+        <v>50</v>
+      </c>
       <c r="L50" s="61"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="22"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="56"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50" s="22"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="11">
-        <v>54</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="25">
-        <v>42902</v>
+        <v>53</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="E51" s="25">
-        <v>42916</v>
-      </c>
-      <c r="F51" s="15"/>
+        <v>42885</v>
+      </c>
+      <c r="F51" s="25">
+        <v>42901</v>
+      </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
-      <c r="J51" s="15">
-        <v>50</v>
-      </c>
-      <c r="K51" s="61"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15">
+        <v>50</v>
+      </c>
       <c r="L51" s="61"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="22"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="56"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
-    </row>
-    <row r="52" spans="1:16" s="7" customFormat="1">
+      <c r="Q51" s="22"/>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="11">
-        <v>55</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="8">
+        <v>54</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="25">
+        <v>42902</v>
+      </c>
+      <c r="F52" s="25">
         <v>42916</v>
       </c>
-      <c r="E52" s="8">
-        <v>42916</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
-      <c r="J52" s="15">
-        <v>50</v>
-      </c>
-      <c r="K52" s="61"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15">
+        <v>50</v>
+      </c>
       <c r="L52" s="61"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="22"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="56"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K53" s="61"/>
+      <c r="Q52" s="22"/>
+    </row>
+    <row r="53" spans="1:17" s="7" customFormat="1">
+      <c r="A53" s="11">
+        <v>55</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="8">
+        <v>42916</v>
+      </c>
+      <c r="F53" s="8">
+        <v>42916</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15">
+        <v>50</v>
+      </c>
       <c r="L53" s="61"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="22"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="56"/>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="11"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="C57" s="1" t="s">
+      <c r="Q53" s="22"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="11"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="D58" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
-      <c r="C62" s="1" t="s">
+    <row r="63" spans="1:17">
+      <c r="D63" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
-      <c r="C63" s="1" t="s">
+    <row r="64" spans="1:17">
+      <c r="D64" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
-      <c r="C64" s="3" t="s">
+    <row r="65" spans="4:4">
+      <c r="D65" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="1" t="s">
+    <row r="66" spans="4:4">
+      <c r="D66" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:J65">
-    <sortCondition ref="J1"/>
+  <sortState ref="A1:K65">
+    <sortCondition ref="K1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="157">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -683,11 +688,22 @@
     <t>多媒体资料管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/goods_list_gys.html</t>
+  </si>
+  <si>
+    <t>不做了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liangsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -953,7 +969,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
@@ -1128,6 +1144,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,8 +1171,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1444,21 +1463,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -1479,10 +1498,10 @@
       <c r="B1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="67"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1532,7 +1551,7 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="71" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -1562,7 +1581,7 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="23" t="s">
         <v>35</v>
       </c>
@@ -1590,7 +1609,7 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="71"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="23" t="s">
         <v>35</v>
       </c>
@@ -1618,7 +1637,7 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="23" t="s">
         <v>35</v>
       </c>
@@ -1646,7 +1665,7 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="23" t="s">
         <v>35</v>
       </c>
@@ -1674,7 +1693,7 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="23" t="s">
         <v>35</v>
       </c>
@@ -1702,7 +1721,7 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="71"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="23" t="s">
         <v>35</v>
       </c>
@@ -1730,7 +1749,7 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="71"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="23" t="s">
         <v>35</v>
       </c>
@@ -1758,7 +1777,7 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="71"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="23" t="s">
         <v>35</v>
       </c>
@@ -1786,7 +1805,7 @@
       <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1816,7 +1835,7 @@
       <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="21" t="s">
         <v>47</v>
       </c>
@@ -1844,7 +1863,7 @@
       <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="21" t="s">
         <v>47</v>
       </c>
@@ -1872,7 +1891,7 @@
       <c r="A15" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="21" t="s">
         <v>47</v>
       </c>
@@ -1900,7 +1919,7 @@
       <c r="A16" s="11">
         <v>16</v>
       </c>
-      <c r="B16" s="69"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="21" t="s">
         <v>47</v>
       </c>
@@ -1928,7 +1947,7 @@
       <c r="A17" s="11">
         <v>17</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="73" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="20"/>
@@ -1956,7 +1975,7 @@
       <c r="A18" s="11">
         <v>18</v>
       </c>
-      <c r="B18" s="73"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="21"/>
       <c r="D18" s="17" t="s">
         <v>31</v>
@@ -2012,7 +2031,7 @@
       <c r="A20" s="11">
         <v>20</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="71" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="20"/>
@@ -2040,7 +2059,7 @@
       <c r="A21" s="11">
         <v>21</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="23" t="s">
         <v>35</v>
       </c>
@@ -2068,7 +2087,7 @@
       <c r="A22" s="11">
         <v>22</v>
       </c>
-      <c r="B22" s="68"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
@@ -2096,7 +2115,7 @@
       <c r="A23" s="11">
         <v>23</v>
       </c>
-      <c r="B23" s="68"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="23" t="s">
         <v>35</v>
       </c>
@@ -2124,7 +2143,7 @@
       <c r="A24" s="11">
         <v>24</v>
       </c>
-      <c r="B24" s="69"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="24"/>
       <c r="D24" s="15" t="s">
         <v>58</v>
@@ -2144,7 +2163,7 @@
       <c r="A25" s="11">
         <v>25</v>
       </c>
-      <c r="B25" s="68"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="21" t="s">
         <v>47</v>
       </c>
@@ -2168,7 +2187,7 @@
       <c r="A26" s="11">
         <v>26</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="21" t="s">
         <v>47</v>
       </c>
@@ -2190,7 +2209,7 @@
       <c r="A27" s="11">
         <v>27</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="23" t="s">
         <v>35</v>
       </c>
@@ -2218,7 +2237,7 @@
       <c r="A28" s="11">
         <v>28</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="23" t="s">
         <v>35</v>
       </c>
@@ -2246,7 +2265,7 @@
       <c r="A29" s="11">
         <v>29</v>
       </c>
-      <c r="B29" s="68"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="21" t="s">
         <v>47</v>
       </c>
@@ -2274,7 +2293,7 @@
       <c r="A30" s="11">
         <v>31</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="21" t="s">
         <v>47</v>
       </c>
@@ -2304,7 +2323,7 @@
       <c r="A31" s="11">
         <v>32</v>
       </c>
-      <c r="B31" s="68"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="21"/>
       <c r="D31" s="17" t="s">
         <v>64</v>
@@ -2330,7 +2349,7 @@
       <c r="A32" s="11">
         <v>33</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="21"/>
       <c r="D32" s="17" t="s">
         <v>33</v>
@@ -2356,7 +2375,7 @@
       <c r="A33" s="11">
         <v>34</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="21" t="s">
         <v>47</v>
       </c>
@@ -2384,7 +2403,7 @@
       <c r="A34" s="11">
         <v>35</v>
       </c>
-      <c r="B34" s="68"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="21"/>
       <c r="D34" s="15" t="s">
         <v>66</v>
@@ -2410,7 +2429,7 @@
       <c r="A35" s="11">
         <v>36</v>
       </c>
-      <c r="B35" s="68"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="21" t="s">
         <v>47</v>
       </c>
@@ -2438,7 +2457,7 @@
       <c r="A36" s="11">
         <v>37</v>
       </c>
-      <c r="B36" s="68"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="21"/>
       <c r="D36" s="17" t="s">
         <v>34</v>
@@ -2464,7 +2483,7 @@
       <c r="A37" s="11">
         <v>38</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="21" t="s">
         <v>47</v>
       </c>
@@ -2492,7 +2511,7 @@
       <c r="A38" s="11">
         <v>39</v>
       </c>
-      <c r="B38" s="68"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="21" t="s">
         <v>47</v>
       </c>
@@ -2520,7 +2539,7 @@
       <c r="A39" s="11">
         <v>40</v>
       </c>
-      <c r="B39" s="68"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="21"/>
       <c r="D39" s="15" t="s">
         <v>70</v>
@@ -2552,7 +2571,7 @@
       <c r="A40" s="11">
         <v>41</v>
       </c>
-      <c r="B40" s="69"/>
+      <c r="B40" s="70"/>
       <c r="C40" s="24"/>
       <c r="D40" s="15" t="s">
         <v>71</v>
@@ -2574,7 +2593,7 @@
       <c r="A41" s="11">
         <v>42</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="71" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="21"/>
@@ -2602,7 +2621,7 @@
       <c r="A42" s="11">
         <v>43</v>
       </c>
-      <c r="B42" s="68"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="21" t="s">
         <v>47</v>
       </c>
@@ -2630,7 +2649,7 @@
       <c r="A43" s="11">
         <v>44</v>
       </c>
-      <c r="B43" s="68"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="21" t="s">
         <v>47</v>
       </c>
@@ -2658,7 +2677,7 @@
       <c r="A44" s="11">
         <v>45</v>
       </c>
-      <c r="B44" s="68"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="21"/>
       <c r="D44" s="15" t="s">
         <v>74</v>
@@ -2684,7 +2703,7 @@
       <c r="A45" s="11">
         <v>46</v>
       </c>
-      <c r="B45" s="68"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="21"/>
       <c r="D45" s="15" t="s">
         <v>76</v>
@@ -2710,7 +2729,7 @@
       <c r="A46" s="11">
         <v>47</v>
       </c>
-      <c r="B46" s="68"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="21" t="s">
         <v>47</v>
       </c>
@@ -2738,7 +2757,7 @@
       <c r="A47" s="11">
         <v>48</v>
       </c>
-      <c r="B47" s="68"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="21"/>
       <c r="D47" s="15" t="s">
         <v>77</v>
@@ -2764,7 +2783,7 @@
       <c r="A48" s="11">
         <v>49</v>
       </c>
-      <c r="B48" s="69"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="24"/>
       <c r="D48" s="15" t="s">
         <v>78</v>
@@ -2984,14 +3003,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
     <col min="2" max="3" width="17" style="1" customWidth="1"/>
@@ -3053,7 +3072,7 @@
       <c r="B2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="66" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -3100,7 +3119,7 @@
       <c r="B3" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="66" t="s">
         <v>151</v>
       </c>
       <c r="D3" s="52" t="s">
@@ -3429,7 +3448,7 @@
       <c r="B10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="66" t="s">
         <v>152</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -3476,7 +3495,7 @@
       <c r="B11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="66" t="s">
         <v>152</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -3570,7 +3589,7 @@
       <c r="B13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="66" t="s">
         <v>152</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -3617,7 +3636,7 @@
       <c r="B14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="66" t="s">
         <v>152</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -3694,8 +3713,12 @@
       <c r="L15" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="56"/>
+      <c r="M15" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="N15" s="56" t="s">
+        <v>154</v>
+      </c>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
@@ -3830,7 +3853,7 @@
       <c r="B19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="66" t="s">
         <v>152</v>
       </c>
       <c r="D19" s="15" t="s">
@@ -4027,7 +4050,9 @@
       <c r="K23" s="15">
         <v>31</v>
       </c>
-      <c r="L23" s="61"/>
+      <c r="L23" s="61" t="s">
+        <v>156</v>
+      </c>
       <c r="M23" s="61"/>
       <c r="N23" s="56"/>
       <c r="O23" s="22"/>
@@ -4109,7 +4134,9 @@
       <c r="K25" s="15">
         <v>40</v>
       </c>
-      <c r="L25" s="61"/>
+      <c r="L25" s="61" t="s">
+        <v>156</v>
+      </c>
       <c r="M25" s="61"/>
       <c r="N25" s="56"/>
       <c r="O25" s="22"/>
@@ -4150,7 +4177,9 @@
       <c r="K26" s="15">
         <v>41</v>
       </c>
-      <c r="L26" s="61"/>
+      <c r="L26" s="75" t="s">
+        <v>155</v>
+      </c>
       <c r="M26" s="61"/>
       <c r="N26" s="56"/>
       <c r="O26" s="22"/>
@@ -4287,7 +4316,7 @@
       <c r="B30" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="66" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="17" t="s">

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24060" windowHeight="13580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="158">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -657,10 +652,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/mall-web/src/main/resources/templates/personalCenter/myOrder.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/mall-web/src/main/resources/templates/personalCenter/data_purchase.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -669,10 +660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/mall-web/src/main/resources/templates/personalCenter/browsing_ history.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UI界面调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -697,6 +684,19 @@
   </si>
   <si>
     <t>liangsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/personalCenter/browsing_ history.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/personalCenter/myOrder.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/personalCenter/multiMedia_manage.html
+/manager-web/src/main/resources/templates/personalCenter/singlePicture_manage.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +707,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -947,11 +947,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -969,7 +973,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
@@ -1120,9 +1124,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1132,9 +1133,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1147,6 +1145,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,12 +1172,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="18">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="22">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -1186,14 +1186,19 @@
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1463,7 +1468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1477,18 +1482,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -1498,10 +1503,10 @@
       <c r="B1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="68"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1551,7 +1556,7 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -1581,7 +1586,7 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="23" t="s">
         <v>35</v>
       </c>
@@ -1609,7 +1614,7 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="23" t="s">
         <v>35</v>
       </c>
@@ -1637,7 +1642,7 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="23" t="s">
         <v>35</v>
       </c>
@@ -1665,7 +1670,7 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="23" t="s">
         <v>35</v>
       </c>
@@ -1693,7 +1698,7 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="23" t="s">
         <v>35</v>
       </c>
@@ -1721,7 +1726,7 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="23" t="s">
         <v>35</v>
       </c>
@@ -1749,7 +1754,7 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="23" t="s">
         <v>35</v>
       </c>
@@ -1777,7 +1782,7 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="23" t="s">
         <v>35</v>
       </c>
@@ -1805,7 +1810,7 @@
       <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="68" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1835,7 +1840,7 @@
       <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="69"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="21" t="s">
         <v>47</v>
       </c>
@@ -1863,7 +1868,7 @@
       <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="21" t="s">
         <v>47</v>
       </c>
@@ -1891,7 +1896,7 @@
       <c r="A15" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="69"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="21" t="s">
         <v>47</v>
       </c>
@@ -1919,7 +1924,7 @@
       <c r="A16" s="11">
         <v>16</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="21" t="s">
         <v>47</v>
       </c>
@@ -1947,7 +1952,7 @@
       <c r="A17" s="11">
         <v>17</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="72" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="20"/>
@@ -1975,7 +1980,7 @@
       <c r="A18" s="11">
         <v>18</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="21"/>
       <c r="D18" s="17" t="s">
         <v>31</v>
@@ -2031,7 +2036,7 @@
       <c r="A20" s="11">
         <v>20</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="20"/>
@@ -2059,7 +2064,7 @@
       <c r="A21" s="11">
         <v>21</v>
       </c>
-      <c r="B21" s="69"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="23" t="s">
         <v>35</v>
       </c>
@@ -2087,7 +2092,7 @@
       <c r="A22" s="11">
         <v>22</v>
       </c>
-      <c r="B22" s="69"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
@@ -2115,7 +2120,7 @@
       <c r="A23" s="11">
         <v>23</v>
       </c>
-      <c r="B23" s="69"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="23" t="s">
         <v>35</v>
       </c>
@@ -2143,7 +2148,7 @@
       <c r="A24" s="11">
         <v>24</v>
       </c>
-      <c r="B24" s="70"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="24"/>
       <c r="D24" s="15" t="s">
         <v>58</v>
@@ -2163,7 +2168,7 @@
       <c r="A25" s="11">
         <v>25</v>
       </c>
-      <c r="B25" s="69"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="21" t="s">
         <v>47</v>
       </c>
@@ -2187,7 +2192,7 @@
       <c r="A26" s="11">
         <v>26</v>
       </c>
-      <c r="B26" s="69"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="21" t="s">
         <v>47</v>
       </c>
@@ -2209,7 +2214,7 @@
       <c r="A27" s="11">
         <v>27</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="23" t="s">
         <v>35</v>
       </c>
@@ -2237,7 +2242,7 @@
       <c r="A28" s="11">
         <v>28</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="23" t="s">
         <v>35</v>
       </c>
@@ -2265,7 +2270,7 @@
       <c r="A29" s="11">
         <v>29</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="21" t="s">
         <v>47</v>
       </c>
@@ -2293,7 +2298,7 @@
       <c r="A30" s="11">
         <v>31</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="21" t="s">
         <v>47</v>
       </c>
@@ -2323,7 +2328,7 @@
       <c r="A31" s="11">
         <v>32</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="21"/>
       <c r="D31" s="17" t="s">
         <v>64</v>
@@ -2349,7 +2354,7 @@
       <c r="A32" s="11">
         <v>33</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="21"/>
       <c r="D32" s="17" t="s">
         <v>33</v>
@@ -2375,7 +2380,7 @@
       <c r="A33" s="11">
         <v>34</v>
       </c>
-      <c r="B33" s="69"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="21" t="s">
         <v>47</v>
       </c>
@@ -2403,7 +2408,7 @@
       <c r="A34" s="11">
         <v>35</v>
       </c>
-      <c r="B34" s="69"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="21"/>
       <c r="D34" s="15" t="s">
         <v>66</v>
@@ -2429,7 +2434,7 @@
       <c r="A35" s="11">
         <v>36</v>
       </c>
-      <c r="B35" s="69"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="21" t="s">
         <v>47</v>
       </c>
@@ -2457,7 +2462,7 @@
       <c r="A36" s="11">
         <v>37</v>
       </c>
-      <c r="B36" s="69"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="21"/>
       <c r="D36" s="17" t="s">
         <v>34</v>
@@ -2483,7 +2488,7 @@
       <c r="A37" s="11">
         <v>38</v>
       </c>
-      <c r="B37" s="69"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="21" t="s">
         <v>47</v>
       </c>
@@ -2511,7 +2516,7 @@
       <c r="A38" s="11">
         <v>39</v>
       </c>
-      <c r="B38" s="69"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="21" t="s">
         <v>47</v>
       </c>
@@ -2539,7 +2544,7 @@
       <c r="A39" s="11">
         <v>40</v>
       </c>
-      <c r="B39" s="69"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="21"/>
       <c r="D39" s="15" t="s">
         <v>70</v>
@@ -2571,7 +2576,7 @@
       <c r="A40" s="11">
         <v>41</v>
       </c>
-      <c r="B40" s="70"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="24"/>
       <c r="D40" s="15" t="s">
         <v>71</v>
@@ -2593,7 +2598,7 @@
       <c r="A41" s="11">
         <v>42</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="70" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="21"/>
@@ -2621,7 +2626,7 @@
       <c r="A42" s="11">
         <v>43</v>
       </c>
-      <c r="B42" s="69"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="21" t="s">
         <v>47</v>
       </c>
@@ -2649,7 +2654,7 @@
       <c r="A43" s="11">
         <v>44</v>
       </c>
-      <c r="B43" s="69"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="21" t="s">
         <v>47</v>
       </c>
@@ -2677,7 +2682,7 @@
       <c r="A44" s="11">
         <v>45</v>
       </c>
-      <c r="B44" s="69"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="21"/>
       <c r="D44" s="15" t="s">
         <v>74</v>
@@ -2703,7 +2708,7 @@
       <c r="A45" s="11">
         <v>46</v>
       </c>
-      <c r="B45" s="69"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="21"/>
       <c r="D45" s="15" t="s">
         <v>76</v>
@@ -2729,7 +2734,7 @@
       <c r="A46" s="11">
         <v>47</v>
       </c>
-      <c r="B46" s="69"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="21" t="s">
         <v>47</v>
       </c>
@@ -2757,7 +2762,7 @@
       <c r="A47" s="11">
         <v>48</v>
       </c>
-      <c r="B47" s="69"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="21"/>
       <c r="D47" s="15" t="s">
         <v>77</v>
@@ -2783,7 +2788,7 @@
       <c r="A48" s="11">
         <v>49</v>
       </c>
-      <c r="B48" s="70"/>
+      <c r="B48" s="69"/>
       <c r="C48" s="24"/>
       <c r="D48" s="15" t="s">
         <v>78</v>
@@ -3006,23 +3011,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="11" style="65"/>
-    <col min="14" max="14" width="101.75" style="60" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="63"/>
+    <col min="14" max="14" width="101.7109375" style="59" customWidth="1"/>
     <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -3034,7 +3039,7 @@
         <v>28</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D1" s="36"/>
       <c r="E1" s="3" t="s">
@@ -3058,8 +3063,8 @@
       <c r="K1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="56"/>
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
@@ -3072,8 +3077,8 @@
       <c r="B2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>151</v>
+      <c r="C2" s="64" t="s">
+        <v>149</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>36</v>
@@ -3099,10 +3104,10 @@
       <c r="K2" s="15">
         <v>11</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="60" t="s">
         <v>127</v>
       </c>
       <c r="N2" s="56" t="s">
@@ -3112,15 +3117,15 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
     </row>
-    <row r="3" spans="1:17" ht="23.1" customHeight="1">
+    <row r="3" spans="1:17" ht="23" customHeight="1">
       <c r="A3" s="34">
         <v>4</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>151</v>
+      <c r="C3" s="64" t="s">
+        <v>149</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>37</v>
@@ -3146,10 +3151,10 @@
       <c r="K3" s="15">
         <v>11</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="60" t="s">
         <v>127</v>
       </c>
       <c r="N3" s="56" t="s">
@@ -3159,7 +3164,7 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
     </row>
-    <row r="4" spans="1:17" ht="23.1" customHeight="1">
+    <row r="4" spans="1:17" ht="23" customHeight="1">
       <c r="A4" s="11">
         <v>29</v>
       </c>
@@ -3193,10 +3198,10 @@
       <c r="K4" s="15">
         <v>12</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="60" t="s">
         <v>129</v>
       </c>
       <c r="N4" s="56" t="s">
@@ -3206,7 +3211,7 @@
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:17" s="12" customFormat="1" ht="25" customHeight="1">
       <c r="A5" s="11">
         <v>16</v>
       </c>
@@ -3240,10 +3245,10 @@
       <c r="K5" s="15">
         <v>13</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="60" t="s">
         <v>129</v>
       </c>
       <c r="N5" s="56" t="s">
@@ -3287,10 +3292,10 @@
       <c r="K6" s="15">
         <v>13</v>
       </c>
-      <c r="L6" s="61" t="s">
+      <c r="L6" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N6" s="57" t="s">
@@ -3334,10 +3339,10 @@
       <c r="K7" s="15">
         <v>14</v>
       </c>
-      <c r="L7" s="61" t="s">
+      <c r="L7" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M7" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N7" s="56" t="s">
@@ -3347,7 +3352,7 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
     </row>
-    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:17" ht="17" customHeight="1">
       <c r="A8" s="11">
         <v>23</v>
       </c>
@@ -3381,14 +3386,14 @@
       <c r="K8" s="15">
         <v>15</v>
       </c>
-      <c r="L8" s="61" t="s">
+      <c r="L8" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="M8" s="61" t="s">
+      <c r="M8" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N8" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
@@ -3428,10 +3433,10 @@
       <c r="K9" s="15">
         <v>16</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N9" s="57" t="s">
@@ -3441,15 +3446,15 @@
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:17" ht="17" customHeight="1">
       <c r="A10" s="11">
         <v>10</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="66" t="s">
-        <v>152</v>
+      <c r="C10" s="64" t="s">
+        <v>150</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>45</v>
@@ -3475,14 +3480,14 @@
       <c r="K10" s="15">
         <v>17</v>
       </c>
-      <c r="L10" s="61" t="s">
+      <c r="L10" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="M10" s="61" t="s">
+      <c r="M10" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N10" s="56" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -3495,8 +3500,8 @@
       <c r="B11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="66" t="s">
-        <v>152</v>
+      <c r="C11" s="64" t="s">
+        <v>150</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>41</v>
@@ -3522,10 +3527,10 @@
       <c r="K11" s="15">
         <v>18</v>
       </c>
-      <c r="L11" s="61" t="s">
+      <c r="L11" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="M11" s="61" t="s">
+      <c r="M11" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N11" s="56" t="s">
@@ -3535,7 +3540,7 @@
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" ht="18.95" customHeight="1">
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="19" customHeight="1">
       <c r="A12" s="11">
         <v>27</v>
       </c>
@@ -3569,28 +3574,28 @@
       <c r="K12" s="15">
         <v>20</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="M12" s="61" t="s">
+      <c r="M12" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N12" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="1:17" ht="18.95" customHeight="1">
+    <row r="13" spans="1:17" ht="19" customHeight="1">
       <c r="A13" s="11">
         <v>9</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="66" t="s">
-        <v>152</v>
+      <c r="C13" s="64" t="s">
+        <v>150</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>44</v>
@@ -3616,10 +3621,10 @@
       <c r="K13" s="15">
         <v>21</v>
       </c>
-      <c r="L13" s="61" t="s">
+      <c r="L13" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="M13" s="61" t="s">
+      <c r="M13" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N13" s="56" t="s">
@@ -3636,8 +3641,8 @@
       <c r="B14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="66" t="s">
-        <v>152</v>
+      <c r="C14" s="64" t="s">
+        <v>150</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>39</v>
@@ -3663,10 +3668,10 @@
       <c r="K14" s="15">
         <v>22</v>
       </c>
-      <c r="L14" s="61" t="s">
+      <c r="L14" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="M14" s="61" t="s">
+      <c r="M14" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N14" s="57" t="s">
@@ -3710,14 +3715,14 @@
       <c r="K15" s="15">
         <v>22</v>
       </c>
-      <c r="L15" s="61" t="s">
+      <c r="L15" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="61" t="s">
+      <c r="M15" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N15" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
@@ -3755,8 +3760,8 @@
       <c r="K16" s="17">
         <v>22</v>
       </c>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
       <c r="N16" s="56"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
@@ -3796,10 +3801,10 @@
       <c r="K17" s="15">
         <v>23</v>
       </c>
-      <c r="L17" s="61" t="s">
+      <c r="L17" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="M17" s="61" t="s">
+      <c r="M17" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N17" s="56" t="s">
@@ -3839,8 +3844,8 @@
       <c r="K18" s="17">
         <v>23</v>
       </c>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
       <c r="N18" s="56"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
@@ -3853,8 +3858,8 @@
       <c r="B19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="66" t="s">
-        <v>152</v>
+      <c r="C19" s="64" t="s">
+        <v>150</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>43</v>
@@ -3880,14 +3885,14 @@
       <c r="K19" s="15">
         <v>24</v>
       </c>
-      <c r="L19" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="M19" s="61" t="s">
+      <c r="L19" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="M19" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N19" s="56" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
@@ -3925,8 +3930,8 @@
       <c r="K20" s="17">
         <v>25</v>
       </c>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
       <c r="N20" s="56"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
@@ -3966,14 +3971,14 @@
       <c r="K21" s="46">
         <v>28</v>
       </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
       <c r="N21" s="56"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" s="50" customFormat="1">
+    <row r="22" spans="1:17" s="50" customFormat="1" ht="35" customHeight="1">
       <c r="A22" s="11">
         <v>15</v>
       </c>
@@ -3984,7 +3989,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E22" s="27">
         <v>42871</v>
@@ -4007,11 +4012,15 @@
       <c r="K22" s="15">
         <v>30</v>
       </c>
-      <c r="L22" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="M22" s="62"/>
-      <c r="N22" s="58"/>
+      <c r="L22" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="N22" s="74" t="s">
+        <v>157</v>
+      </c>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="49"/>
@@ -4050,10 +4059,10 @@
       <c r="K23" s="15">
         <v>31</v>
       </c>
-      <c r="L23" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="M23" s="61"/>
+      <c r="L23" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="M23" s="60"/>
       <c r="N23" s="56"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
@@ -4093,8 +4102,8 @@
       <c r="K24" s="15">
         <v>32</v>
       </c>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
       <c r="N24" s="56"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
@@ -4134,10 +4143,10 @@
       <c r="K25" s="15">
         <v>40</v>
       </c>
-      <c r="L25" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="M25" s="61"/>
+      <c r="L25" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="60"/>
       <c r="N25" s="56"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
@@ -4177,10 +4186,10 @@
       <c r="K26" s="15">
         <v>41</v>
       </c>
-      <c r="L26" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="M26" s="61"/>
+      <c r="L26" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="60"/>
       <c r="N26" s="56"/>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
@@ -4220,8 +4229,8 @@
       <c r="K27" s="15">
         <v>50</v>
       </c>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
       <c r="N27" s="56"/>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
@@ -4261,8 +4270,8 @@
       <c r="K28" s="17">
         <v>50</v>
       </c>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
       <c r="N28" s="56"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
@@ -4302,9 +4311,9 @@
       <c r="K29" s="17">
         <v>50</v>
       </c>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="59"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="58"/>
       <c r="O29" s="54"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="54"/>
@@ -4316,8 +4325,8 @@
       <c r="B30" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="66" t="s">
-        <v>152</v>
+      <c r="C30" s="64" t="s">
+        <v>150</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>103</v>
@@ -4343,8 +4352,8 @@
       <c r="K30" s="17">
         <v>50</v>
       </c>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
       <c r="N30" s="56"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
@@ -4382,8 +4391,8 @@
       <c r="K31" s="17">
         <v>50</v>
       </c>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
       <c r="N31" s="56"/>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
@@ -4421,8 +4430,8 @@
       <c r="K32" s="17">
         <v>50</v>
       </c>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
       <c r="N32" s="56"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
@@ -4460,8 +4469,8 @@
       <c r="K33" s="17">
         <v>50</v>
       </c>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
       <c r="N33" s="56"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
@@ -4499,8 +4508,8 @@
       <c r="K34" s="17">
         <v>50</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
       <c r="N34" s="56"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
@@ -4538,8 +4547,8 @@
       <c r="K35" s="17">
         <v>50</v>
       </c>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
       <c r="N35" s="56"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
@@ -4577,8 +4586,8 @@
       <c r="K36" s="17">
         <v>50</v>
       </c>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
       <c r="N36" s="56"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
@@ -4608,8 +4617,8 @@
       <c r="K37" s="17">
         <v>50</v>
       </c>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
       <c r="N37" s="56"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
@@ -4643,8 +4652,8 @@
       <c r="K38" s="17">
         <v>50</v>
       </c>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
       <c r="N38" s="56"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
@@ -4676,8 +4685,8 @@
       <c r="K39" s="17">
         <v>50</v>
       </c>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
       <c r="N39" s="56"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
@@ -4715,8 +4724,8 @@
       <c r="K40" s="17">
         <v>50</v>
       </c>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
       <c r="N40" s="56"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
@@ -4754,8 +4763,8 @@
       <c r="K41" s="17">
         <v>50</v>
       </c>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
       <c r="N41" s="56"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
@@ -4793,8 +4802,8 @@
       <c r="K42" s="17">
         <v>50</v>
       </c>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
       <c r="N42" s="56"/>
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
@@ -4832,8 +4841,8 @@
       <c r="K43" s="17">
         <v>50</v>
       </c>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
       <c r="N43" s="57"/>
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
@@ -4872,8 +4881,8 @@
       <c r="K44" s="17">
         <v>50</v>
       </c>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
       <c r="N44" s="56"/>
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
@@ -4907,8 +4916,8 @@
       <c r="K45" s="17">
         <v>50</v>
       </c>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
       <c r="N45" s="56"/>
       <c r="O45" s="22"/>
       <c r="P45" s="22"/>
@@ -4946,8 +4955,8 @@
       <c r="K46" s="17">
         <v>50</v>
       </c>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
       <c r="N46" s="56"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
@@ -4983,8 +4992,8 @@
       <c r="K47" s="17">
         <v>50</v>
       </c>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
       <c r="N47" s="56"/>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
@@ -5020,8 +5029,8 @@
       <c r="K48" s="17">
         <v>50</v>
       </c>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
       <c r="N48" s="56"/>
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
@@ -5045,8 +5054,8 @@
       <c r="K49" s="15">
         <v>50</v>
       </c>
-      <c r="L49" s="61"/>
-      <c r="M49" s="61"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
       <c r="N49" s="56"/>
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
@@ -5072,8 +5081,8 @@
       <c r="K50" s="15">
         <v>50</v>
       </c>
-      <c r="L50" s="61"/>
-      <c r="M50" s="61"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
       <c r="N50" s="56"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
@@ -5101,8 +5110,8 @@
       <c r="K51" s="15">
         <v>50</v>
       </c>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
       <c r="N51" s="56"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
@@ -5130,8 +5139,8 @@
       <c r="K52" s="15">
         <v>50</v>
       </c>
-      <c r="L52" s="61"/>
-      <c r="M52" s="61"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
       <c r="N52" s="56"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
@@ -5157,8 +5166,8 @@
       <c r="K53" s="15">
         <v>50</v>
       </c>
-      <c r="L53" s="61"/>
-      <c r="M53" s="61"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
       <c r="N53" s="56"/>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
@@ -5166,8 +5175,8 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="11"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
       <c r="N57" s="56"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
@@ -5204,7 +5213,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24060" windowHeight="13580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24060" windowHeight="13575" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="160">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -698,6 +703,12 @@
     <t>/manager-web/src/main/resources/templates/personalCenter/multiMedia_manage.html
 /manager-web/src/main/resources/templates/personalCenter/singlePicture_manage.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/dataCustom_manage.html</t>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/invoice_manage.html</t>
   </si>
 </sst>
 </file>
@@ -707,7 +718,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1148,6 +1159,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1172,11 +1186,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="22">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -1188,17 +1200,16 @@
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1468,7 +1479,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1482,18 +1493,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -1503,10 +1514,10 @@
       <c r="B1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="67"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1556,7 +1567,7 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="71" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -1586,7 +1597,7 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="23" t="s">
         <v>35</v>
       </c>
@@ -1614,7 +1625,7 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="71"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="23" t="s">
         <v>35</v>
       </c>
@@ -1642,7 +1653,7 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="23" t="s">
         <v>35</v>
       </c>
@@ -1670,7 +1681,7 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="23" t="s">
         <v>35</v>
       </c>
@@ -1698,7 +1709,7 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="23" t="s">
         <v>35</v>
       </c>
@@ -1726,7 +1737,7 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="71"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="23" t="s">
         <v>35</v>
       </c>
@@ -1754,7 +1765,7 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="71"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="23" t="s">
         <v>35</v>
       </c>
@@ -1782,7 +1793,7 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="71"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="23" t="s">
         <v>35</v>
       </c>
@@ -1810,7 +1821,7 @@
       <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="69" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1840,7 +1851,7 @@
       <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="21" t="s">
         <v>47</v>
       </c>
@@ -1868,7 +1879,7 @@
       <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="21" t="s">
         <v>47</v>
       </c>
@@ -1896,7 +1907,7 @@
       <c r="A15" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="21" t="s">
         <v>47</v>
       </c>
@@ -1924,7 +1935,7 @@
       <c r="A16" s="11">
         <v>16</v>
       </c>
-      <c r="B16" s="69"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="21" t="s">
         <v>47</v>
       </c>
@@ -1952,7 +1963,7 @@
       <c r="A17" s="11">
         <v>17</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="73" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="20"/>
@@ -1980,7 +1991,7 @@
       <c r="A18" s="11">
         <v>18</v>
       </c>
-      <c r="B18" s="73"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="21"/>
       <c r="D18" s="17" t="s">
         <v>31</v>
@@ -2036,7 +2047,7 @@
       <c r="A20" s="11">
         <v>20</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="71" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="20"/>
@@ -2064,7 +2075,7 @@
       <c r="A21" s="11">
         <v>21</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="23" t="s">
         <v>35</v>
       </c>
@@ -2092,7 +2103,7 @@
       <c r="A22" s="11">
         <v>22</v>
       </c>
-      <c r="B22" s="68"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
@@ -2120,7 +2131,7 @@
       <c r="A23" s="11">
         <v>23</v>
       </c>
-      <c r="B23" s="68"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="23" t="s">
         <v>35</v>
       </c>
@@ -2148,7 +2159,7 @@
       <c r="A24" s="11">
         <v>24</v>
       </c>
-      <c r="B24" s="69"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="24"/>
       <c r="D24" s="15" t="s">
         <v>58</v>
@@ -2168,7 +2179,7 @@
       <c r="A25" s="11">
         <v>25</v>
       </c>
-      <c r="B25" s="68"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="21" t="s">
         <v>47</v>
       </c>
@@ -2192,7 +2203,7 @@
       <c r="A26" s="11">
         <v>26</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="21" t="s">
         <v>47</v>
       </c>
@@ -2214,7 +2225,7 @@
       <c r="A27" s="11">
         <v>27</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="23" t="s">
         <v>35</v>
       </c>
@@ -2242,7 +2253,7 @@
       <c r="A28" s="11">
         <v>28</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="23" t="s">
         <v>35</v>
       </c>
@@ -2270,7 +2281,7 @@
       <c r="A29" s="11">
         <v>29</v>
       </c>
-      <c r="B29" s="68"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="21" t="s">
         <v>47</v>
       </c>
@@ -2298,7 +2309,7 @@
       <c r="A30" s="11">
         <v>31</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="21" t="s">
         <v>47</v>
       </c>
@@ -2328,7 +2339,7 @@
       <c r="A31" s="11">
         <v>32</v>
       </c>
-      <c r="B31" s="68"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="21"/>
       <c r="D31" s="17" t="s">
         <v>64</v>
@@ -2354,7 +2365,7 @@
       <c r="A32" s="11">
         <v>33</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="21"/>
       <c r="D32" s="17" t="s">
         <v>33</v>
@@ -2380,7 +2391,7 @@
       <c r="A33" s="11">
         <v>34</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="21" t="s">
         <v>47</v>
       </c>
@@ -2408,7 +2419,7 @@
       <c r="A34" s="11">
         <v>35</v>
       </c>
-      <c r="B34" s="68"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="21"/>
       <c r="D34" s="15" t="s">
         <v>66</v>
@@ -2434,7 +2445,7 @@
       <c r="A35" s="11">
         <v>36</v>
       </c>
-      <c r="B35" s="68"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="21" t="s">
         <v>47</v>
       </c>
@@ -2462,7 +2473,7 @@
       <c r="A36" s="11">
         <v>37</v>
       </c>
-      <c r="B36" s="68"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="21"/>
       <c r="D36" s="17" t="s">
         <v>34</v>
@@ -2488,7 +2499,7 @@
       <c r="A37" s="11">
         <v>38</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="21" t="s">
         <v>47</v>
       </c>
@@ -2516,7 +2527,7 @@
       <c r="A38" s="11">
         <v>39</v>
       </c>
-      <c r="B38" s="68"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="21" t="s">
         <v>47</v>
       </c>
@@ -2544,7 +2555,7 @@
       <c r="A39" s="11">
         <v>40</v>
       </c>
-      <c r="B39" s="68"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="21"/>
       <c r="D39" s="15" t="s">
         <v>70</v>
@@ -2576,7 +2587,7 @@
       <c r="A40" s="11">
         <v>41</v>
       </c>
-      <c r="B40" s="69"/>
+      <c r="B40" s="70"/>
       <c r="C40" s="24"/>
       <c r="D40" s="15" t="s">
         <v>71</v>
@@ -2598,7 +2609,7 @@
       <c r="A41" s="11">
         <v>42</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="71" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="21"/>
@@ -2626,7 +2637,7 @@
       <c r="A42" s="11">
         <v>43</v>
       </c>
-      <c r="B42" s="68"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="21" t="s">
         <v>47</v>
       </c>
@@ -2654,7 +2665,7 @@
       <c r="A43" s="11">
         <v>44</v>
       </c>
-      <c r="B43" s="68"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="21" t="s">
         <v>47</v>
       </c>
@@ -2682,7 +2693,7 @@
       <c r="A44" s="11">
         <v>45</v>
       </c>
-      <c r="B44" s="68"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="21"/>
       <c r="D44" s="15" t="s">
         <v>74</v>
@@ -2708,7 +2719,7 @@
       <c r="A45" s="11">
         <v>46</v>
       </c>
-      <c r="B45" s="68"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="21"/>
       <c r="D45" s="15" t="s">
         <v>76</v>
@@ -2734,7 +2745,7 @@
       <c r="A46" s="11">
         <v>47</v>
       </c>
-      <c r="B46" s="68"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="21" t="s">
         <v>47</v>
       </c>
@@ -2762,7 +2773,7 @@
       <c r="A47" s="11">
         <v>48</v>
       </c>
-      <c r="B47" s="68"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="21"/>
       <c r="D47" s="15" t="s">
         <v>77</v>
@@ -2788,7 +2799,7 @@
       <c r="A48" s="11">
         <v>49</v>
       </c>
-      <c r="B48" s="69"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="24"/>
       <c r="D48" s="15" t="s">
         <v>78</v>
@@ -3011,23 +3022,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
     <col min="2" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="1" customWidth="1"/>
     <col min="12" max="13" width="11" style="63"/>
-    <col min="14" max="14" width="101.7109375" style="59" customWidth="1"/>
+    <col min="14" max="14" width="101.75" style="59" customWidth="1"/>
     <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -3117,7 +3128,7 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
     </row>
-    <row r="3" spans="1:17" ht="23" customHeight="1">
+    <row r="3" spans="1:17" ht="23.1" customHeight="1">
       <c r="A3" s="34">
         <v>4</v>
       </c>
@@ -3164,7 +3175,7 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
     </row>
-    <row r="4" spans="1:17" ht="23" customHeight="1">
+    <row r="4" spans="1:17" ht="23.1" customHeight="1">
       <c r="A4" s="11">
         <v>29</v>
       </c>
@@ -3211,7 +3222,7 @@
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" ht="25" customHeight="1">
+    <row r="5" spans="1:17" s="12" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="11">
         <v>16</v>
       </c>
@@ -3352,7 +3363,7 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
     </row>
-    <row r="8" spans="1:17" ht="17" customHeight="1">
+    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="11">
         <v>23</v>
       </c>
@@ -3446,7 +3457,7 @@
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="17" customHeight="1">
+    <row r="10" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="11">
         <v>10</v>
       </c>
@@ -3540,7 +3551,7 @@
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" ht="19" customHeight="1">
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="18.95" customHeight="1">
       <c r="A12" s="11">
         <v>27</v>
       </c>
@@ -3587,7 +3598,7 @@
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="1:17" ht="19" customHeight="1">
+    <row r="13" spans="1:17" ht="18.95" customHeight="1">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -3978,7 +3989,7 @@
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" s="50" customFormat="1" ht="35" customHeight="1">
+    <row r="22" spans="1:17" s="50" customFormat="1" ht="35.1" customHeight="1">
       <c r="A22" s="11">
         <v>15</v>
       </c>
@@ -4018,7 +4029,7 @@
       <c r="M22" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="N22" s="74" t="s">
+      <c r="N22" s="66" t="s">
         <v>157</v>
       </c>
       <c r="O22" s="49"/>
@@ -4063,7 +4074,9 @@
         <v>154</v>
       </c>
       <c r="M23" s="60"/>
-      <c r="N23" s="56"/>
+      <c r="N23" s="56" t="s">
+        <v>159</v>
+      </c>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
@@ -4147,7 +4160,9 @@
         <v>154</v>
       </c>
       <c r="M25" s="60"/>
-      <c r="N25" s="56"/>
+      <c r="N25" s="56" t="s">
+        <v>158</v>
+      </c>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="160">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -3022,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4115,7 +4115,9 @@
       <c r="K24" s="15">
         <v>32</v>
       </c>
-      <c r="L24" s="60"/>
+      <c r="L24" s="60" t="s">
+        <v>126</v>
+      </c>
       <c r="M24" s="60"/>
       <c r="N24" s="56"/>
       <c r="O24" s="22"/>
@@ -4244,7 +4246,9 @@
       <c r="K27" s="15">
         <v>50</v>
       </c>
-      <c r="L27" s="60"/>
+      <c r="L27" s="65" t="s">
+        <v>153</v>
+      </c>
       <c r="M27" s="60"/>
       <c r="N27" s="56"/>
       <c r="O27" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24060" windowHeight="13575" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24940" windowHeight="14080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="160">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -718,7 +713,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -958,11 +953,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1187,8 +1184,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="24">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -1200,16 +1196,19 @@
     <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1479,7 +1478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1493,18 +1492,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -3022,23 +3021,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
     <col min="12" max="13" width="11" style="63"/>
-    <col min="14" max="14" width="101.75" style="59" customWidth="1"/>
+    <col min="14" max="14" width="101.7109375" style="59" customWidth="1"/>
     <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -3128,7 +3127,7 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
     </row>
-    <row r="3" spans="1:17" ht="23.1" customHeight="1">
+    <row r="3" spans="1:17" ht="23" customHeight="1">
       <c r="A3" s="34">
         <v>4</v>
       </c>
@@ -3175,7 +3174,7 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
     </row>
-    <row r="4" spans="1:17" ht="23.1" customHeight="1">
+    <row r="4" spans="1:17" ht="23" customHeight="1">
       <c r="A4" s="11">
         <v>29</v>
       </c>
@@ -3222,7 +3221,7 @@
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:17" s="12" customFormat="1" ht="25" customHeight="1">
       <c r="A5" s="11">
         <v>16</v>
       </c>
@@ -3363,7 +3362,7 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
     </row>
-    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:17" ht="17" customHeight="1">
       <c r="A8" s="11">
         <v>23</v>
       </c>
@@ -3457,7 +3456,7 @@
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:17" ht="17" customHeight="1">
       <c r="A10" s="11">
         <v>10</v>
       </c>
@@ -3551,7 +3550,7 @@
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" ht="18.95" customHeight="1">
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="19" customHeight="1">
       <c r="A12" s="11">
         <v>27</v>
       </c>
@@ -3598,7 +3597,7 @@
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="1:17" ht="18.95" customHeight="1">
+    <row r="13" spans="1:17" ht="19" customHeight="1">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -3855,7 +3854,9 @@
       <c r="K18" s="17">
         <v>23</v>
       </c>
-      <c r="L18" s="60"/>
+      <c r="L18" s="60" t="s">
+        <v>144</v>
+      </c>
       <c r="M18" s="60"/>
       <c r="N18" s="56"/>
       <c r="O18" s="22"/>
@@ -3989,7 +3990,7 @@
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" s="50" customFormat="1" ht="35.1" customHeight="1">
+    <row r="22" spans="1:17" s="50" customFormat="1" ht="35" customHeight="1">
       <c r="A22" s="11">
         <v>15</v>
       </c>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="160">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -1478,7 +1478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3854,9 +3854,7 @@
       <c r="K18" s="17">
         <v>23</v>
       </c>
-      <c r="L18" s="60" t="s">
-        <v>144</v>
-      </c>
+      <c r="L18" s="60"/>
       <c r="M18" s="60"/>
       <c r="N18" s="56"/>
       <c r="O18" s="22"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24940" windowHeight="14080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24945" windowHeight="14085" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="161">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -704,6 +709,9 @@
   </si>
   <si>
     <t>/manager-web/src/main/resources/templates/invoice_manage.html</t>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/uesr_manage.html</t>
   </si>
 </sst>
 </file>
@@ -713,7 +721,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1185,6 +1193,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="24">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -1197,18 +1206,17 @@
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1478,7 +1486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1492,18 +1500,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -3021,23 +3029,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
     <col min="2" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="1" customWidth="1"/>
     <col min="12" max="13" width="11" style="63"/>
-    <col min="14" max="14" width="101.7109375" style="59" customWidth="1"/>
+    <col min="14" max="14" width="101.75" style="59" customWidth="1"/>
     <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -3127,7 +3135,7 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
     </row>
-    <row r="3" spans="1:17" ht="23" customHeight="1">
+    <row r="3" spans="1:17" ht="23.1" customHeight="1">
       <c r="A3" s="34">
         <v>4</v>
       </c>
@@ -3174,7 +3182,7 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
     </row>
-    <row r="4" spans="1:17" ht="23" customHeight="1">
+    <row r="4" spans="1:17" ht="23.1" customHeight="1">
       <c r="A4" s="11">
         <v>29</v>
       </c>
@@ -3221,7 +3229,7 @@
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" ht="25" customHeight="1">
+    <row r="5" spans="1:17" s="12" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="11">
         <v>16</v>
       </c>
@@ -3362,7 +3370,7 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
     </row>
-    <row r="8" spans="1:17" ht="17" customHeight="1">
+    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="11">
         <v>23</v>
       </c>
@@ -3456,7 +3464,7 @@
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="17" customHeight="1">
+    <row r="10" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="11">
         <v>10</v>
       </c>
@@ -3550,7 +3558,7 @@
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" ht="19" customHeight="1">
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="18.95" customHeight="1">
       <c r="A12" s="11">
         <v>27</v>
       </c>
@@ -3597,7 +3605,7 @@
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="1:17" ht="19" customHeight="1">
+    <row r="13" spans="1:17" ht="18.95" customHeight="1">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -3988,7 +3996,7 @@
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" s="50" customFormat="1" ht="35" customHeight="1">
+    <row r="22" spans="1:17" s="50" customFormat="1" ht="35.1" customHeight="1">
       <c r="A22" s="11">
         <v>15</v>
       </c>
@@ -4072,7 +4080,9 @@
       <c r="L23" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="60"/>
+      <c r="M23" s="60" t="s">
+        <v>128</v>
+      </c>
       <c r="N23" s="56" t="s">
         <v>159</v>
       </c>
@@ -4117,8 +4127,12 @@
       <c r="L24" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="M24" s="60"/>
-      <c r="N24" s="56"/>
+      <c r="M24" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="N24" s="56" t="s">
+        <v>160</v>
+      </c>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
@@ -4160,7 +4174,9 @@
       <c r="L25" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="M25" s="60"/>
+      <c r="M25" s="60" t="s">
+        <v>128</v>
+      </c>
       <c r="N25" s="56" t="s">
         <v>158</v>
       </c>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24945" windowHeight="14085" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24940" windowHeight="14080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="165">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -712,6 +707,22 @@
   </si>
   <si>
     <t>/manager-web/src/main/resources/templates/uesr_manage.html</t>
+  </si>
+  <si>
+    <t>线下汇款(tangyk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/shoppint_cart.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/offline_remittance.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车(tangyk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -721,7 +732,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -961,11 +972,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1192,8 +1213,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="24">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="34">
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -1206,17 +1226,28 @@
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1486,7 +1517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1500,18 +1531,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -3027,25 +3058,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
     <col min="2" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
     <col min="12" max="13" width="11" style="63"/>
-    <col min="14" max="14" width="101.75" style="59" customWidth="1"/>
+    <col min="14" max="14" width="101.7109375" style="59" customWidth="1"/>
     <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -3135,7 +3166,7 @@
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
     </row>
-    <row r="3" spans="1:17" ht="23.1" customHeight="1">
+    <row r="3" spans="1:17" ht="23" customHeight="1">
       <c r="A3" s="34">
         <v>4</v>
       </c>
@@ -3182,7 +3213,7 @@
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
     </row>
-    <row r="4" spans="1:17" ht="23.1" customHeight="1">
+    <row r="4" spans="1:17" ht="23" customHeight="1">
       <c r="A4" s="11">
         <v>29</v>
       </c>
@@ -3229,7 +3260,7 @@
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:17" s="12" customFormat="1" ht="25" customHeight="1">
       <c r="A5" s="11">
         <v>16</v>
       </c>
@@ -3370,7 +3401,7 @@
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
     </row>
-    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:17" ht="17" customHeight="1">
       <c r="A8" s="11">
         <v>23</v>
       </c>
@@ -3464,7 +3495,7 @@
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:17" ht="17" customHeight="1">
       <c r="A10" s="11">
         <v>10</v>
       </c>
@@ -3558,7 +3589,7 @@
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" ht="18.95" customHeight="1">
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="19" customHeight="1">
       <c r="A12" s="11">
         <v>27</v>
       </c>
@@ -3605,210 +3636,186 @@
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="1:17" ht="18.95" customHeight="1">
-      <c r="A13" s="11">
-        <v>9</v>
-      </c>
+    <row r="13" spans="1:17" s="5" customFormat="1" ht="19" customHeight="1">
+      <c r="A13" s="11"/>
       <c r="B13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="64" t="s">
-        <v>150</v>
+      <c r="C13" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="40">
-        <v>42865</v>
-      </c>
-      <c r="F13" s="40">
-        <v>42867</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <v>2</v>
-      </c>
-      <c r="K13" s="15">
-        <v>21</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="60" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M13" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N13" s="56" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
     </row>
-    <row r="14" spans="1:17" ht="39" customHeight="1">
-      <c r="A14" s="11">
-        <v>6</v>
-      </c>
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:17" s="5" customFormat="1" ht="19" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="64" t="s">
-        <v>150</v>
+      <c r="C14" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="40">
-        <v>42867</v>
-      </c>
-      <c r="F14" s="40">
-        <v>42870</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="15">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <v>3</v>
-      </c>
-      <c r="K14" s="15">
-        <v>22</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="60" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M14" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="N14" s="57" t="s">
-        <v>140</v>
+      <c r="N14" s="56" t="s">
+        <v>163</v>
       </c>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" ht="19" customHeight="1">
       <c r="A15" s="11">
-        <v>19</v>
-      </c>
-      <c r="B15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>35</v>
+      <c r="C15" s="64" t="s">
+        <v>150</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="29">
+        <v>44</v>
+      </c>
+      <c r="E15" s="40">
         <v>42865</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="40">
         <v>42867</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>87</v>
+      <c r="G15" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="I15" s="15">
         <v>0</v>
       </c>
       <c r="J15" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L15" s="60" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M15" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N15" s="56" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
     </row>
-    <row r="16" spans="1:17" s="5" customFormat="1">
-      <c r="A16" s="17">
-        <v>44</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="19">
-        <v>42865</v>
-      </c>
-      <c r="F16" s="19">
+    <row r="16" spans="1:17" ht="39" customHeight="1">
+      <c r="A16" s="11">
+        <v>6</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="40">
+        <v>42867</v>
+      </c>
+      <c r="F16" s="40">
         <v>42870</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18">
-        <v>1</v>
-      </c>
-      <c r="J16" s="17">
-        <v>2</v>
-      </c>
-      <c r="K16" s="17">
+      <c r="G16" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>3</v>
+      </c>
+      <c r="K16" s="15">
         <v>22</v>
       </c>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="56"/>
+      <c r="L16" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="N16" s="57" t="s">
+        <v>140</v>
+      </c>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
     </row>
-    <row r="17" spans="1:17" s="5" customFormat="1">
+    <row r="17" spans="1:17">
       <c r="A17" s="11">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>47</v>
+      <c r="C17" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="40">
-        <v>42870</v>
-      </c>
-      <c r="F17" s="40">
-        <v>42872</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>83</v>
+        <v>54</v>
+      </c>
+      <c r="E17" s="29">
+        <v>42865</v>
+      </c>
+      <c r="F17" s="29">
+        <v>42867</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="I17" s="15">
         <v>0</v>
@@ -3817,16 +3824,16 @@
         <v>3</v>
       </c>
       <c r="K17" s="15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L17" s="60" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M17" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N17" s="56" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -3834,33 +3841,35 @@
     </row>
     <row r="18" spans="1:17" s="5" customFormat="1">
       <c r="A18" s="17">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>117</v>
+      <c r="C18" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="19">
-        <v>42871</v>
+        <v>42865</v>
       </c>
       <c r="F18" s="19">
-        <v>42873</v>
+        <v>42870</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
       <c r="J18" s="17">
         <v>2</v>
       </c>
       <c r="K18" s="17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="60"/>
       <c r="M18" s="60"/>
@@ -3871,28 +3880,28 @@
     </row>
     <row r="19" spans="1:17" s="5" customFormat="1">
       <c r="A19" s="11">
-        <v>8</v>
-      </c>
-      <c r="B19" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="64" t="s">
-        <v>150</v>
+      <c r="C19" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="27">
-        <v>42867</v>
-      </c>
-      <c r="F19" s="27">
-        <v>42871</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>118</v>
+        <v>56</v>
+      </c>
+      <c r="E19" s="40">
+        <v>42870</v>
+      </c>
+      <c r="F19" s="40">
+        <v>42872</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="I19" s="15">
         <v>0</v>
@@ -3901,52 +3910,50 @@
         <v>3</v>
       </c>
       <c r="K19" s="15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="60" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M19" s="60" t="s">
         <v>128</v>
       </c>
       <c r="N19" s="56" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
     </row>
-    <row r="20" spans="1:17" s="12" customFormat="1">
+    <row r="20" spans="1:17" s="5" customFormat="1">
       <c r="A20" s="17">
-        <v>46</v>
-      </c>
-      <c r="B20" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="37" t="s">
-        <v>47</v>
+      <c r="C20" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E20" s="19">
-        <v>42840</v>
+        <v>42871</v>
       </c>
       <c r="F20" s="19">
-        <v>42842</v>
+        <v>42873</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="H20" s="17"/>
-      <c r="I20" s="18">
-        <v>1</v>
-      </c>
+      <c r="I20" s="18"/>
       <c r="J20" s="17">
         <v>2</v>
       </c>
       <c r="K20" s="17">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
@@ -3955,144 +3962,136 @@
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
     </row>
-    <row r="21" spans="1:17" s="12" customFormat="1">
-      <c r="A21" s="44">
-        <v>34</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="47">
+    <row r="21" spans="1:17" s="5" customFormat="1">
+      <c r="A21" s="11">
+        <v>8</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="27">
         <v>42867</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="27">
         <v>42871</v>
       </c>
-      <c r="G21" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="46">
+      <c r="G21" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="15">
         <v>0</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="15">
         <v>3</v>
       </c>
-      <c r="K21" s="46">
-        <v>28</v>
-      </c>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="56"/>
+      <c r="K21" s="15">
+        <v>24</v>
+      </c>
+      <c r="L21" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="M21" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" s="56" t="s">
+        <v>155</v>
+      </c>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" s="50" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A22" s="11">
-        <v>15</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>47</v>
+    <row r="22" spans="1:17" s="12" customFormat="1">
+      <c r="A22" s="17">
+        <v>46</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>117</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="27">
+      <c r="D22" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="19">
+        <v>42840</v>
+      </c>
+      <c r="F22" s="19">
+        <v>42842</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
+      <c r="J22" s="17">
+        <v>2</v>
+      </c>
+      <c r="K22" s="17">
+        <v>25</v>
+      </c>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+    </row>
+    <row r="23" spans="1:17" s="12" customFormat="1">
+      <c r="A23" s="44">
+        <v>34</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="47">
+        <v>42867</v>
+      </c>
+      <c r="F23" s="47">
         <v>42871</v>
       </c>
-      <c r="F22" s="27">
-        <v>42875</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="I22" s="15">
+      <c r="G23" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="46">
         <v>0</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J23" s="46">
         <v>3</v>
       </c>
-      <c r="K22" s="15">
-        <v>30</v>
-      </c>
-      <c r="L22" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="M22" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N22" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-    </row>
-    <row r="23" spans="1:17" s="10" customFormat="1">
-      <c r="A23" s="11">
-        <v>35</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="40">
-        <v>42871</v>
-      </c>
-      <c r="F23" s="40">
-        <v>42873</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="15">
-        <v>0</v>
-      </c>
-      <c r="J23" s="15">
-        <v>3</v>
-      </c>
-      <c r="K23" s="15">
-        <v>31</v>
-      </c>
-      <c r="L23" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="M23" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N23" s="56" t="s">
-        <v>159</v>
-      </c>
+      <c r="K23" s="46">
+        <v>28</v>
+      </c>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="56"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
     </row>
-    <row r="24" spans="1:17" s="5" customFormat="1">
+    <row r="24" spans="1:17" s="50" customFormat="1" ht="35" customHeight="1">
       <c r="A24" s="11">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>47</v>
@@ -4101,19 +4100,19 @@
         <v>47</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="29">
-        <v>42872</v>
-      </c>
-      <c r="F24" s="29">
-        <v>42874</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>87</v>
+        <v>151</v>
+      </c>
+      <c r="E24" s="27">
+        <v>42871</v>
+      </c>
+      <c r="F24" s="27">
+        <v>42875</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="I24" s="15">
         <v>0</v>
@@ -4122,42 +4121,42 @@
         <v>3</v>
       </c>
       <c r="K24" s="15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="60" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="M24" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="N24" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="N24" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+    </row>
+    <row r="25" spans="1:17" s="10" customFormat="1">
       <c r="A25" s="11">
+        <v>35</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="40">
+        <v>42871</v>
+      </c>
+      <c r="F25" s="40">
+        <v>42873</v>
+      </c>
+      <c r="G25" s="41" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="40">
-        <v>42873</v>
-      </c>
-      <c r="F25" s="40">
-        <v>42875</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>83</v>
       </c>
       <c r="H25" s="42" t="s">
         <v>83</v>
@@ -4169,7 +4168,7 @@
         <v>3</v>
       </c>
       <c r="K25" s="15">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L25" s="60" t="s">
         <v>154</v>
@@ -4178,79 +4177,83 @@
         <v>128</v>
       </c>
       <c r="N25" s="56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" s="5" customFormat="1">
       <c r="A26" s="11">
-        <v>50</v>
-      </c>
-      <c r="B26" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="40">
-        <v>42875</v>
-      </c>
-      <c r="F26" s="40">
-        <v>42878</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>83</v>
+        <v>67</v>
+      </c>
+      <c r="E26" s="29">
+        <v>42872</v>
+      </c>
+      <c r="F26" s="29">
+        <v>42874</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="I26" s="15">
         <v>0</v>
       </c>
       <c r="J26" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K26" s="15">
-        <v>41</v>
-      </c>
-      <c r="L26" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="M26" s="60"/>
-      <c r="N26" s="56"/>
+        <v>32</v>
+      </c>
+      <c r="L26" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="N26" s="56" t="s">
+        <v>160</v>
+      </c>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
     </row>
-    <row r="27" spans="1:17" s="9" customFormat="1">
+    <row r="27" spans="1:17">
       <c r="A27" s="11">
-        <v>12</v>
-      </c>
-      <c r="B27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E27" s="40">
-        <v>42852</v>
+        <v>42873</v>
       </c>
       <c r="F27" s="40">
-        <v>42857</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>118</v>
+        <v>42875</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>83</v>
       </c>
       <c r="I27" s="15">
         <v>0</v>
@@ -4259,129 +4262,137 @@
         <v>3</v>
       </c>
       <c r="K27" s="15">
-        <v>50</v>
-      </c>
-      <c r="L27" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="M27" s="60"/>
-      <c r="N27" s="56"/>
+        <v>40</v>
+      </c>
+      <c r="L27" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="M27" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="N27" s="56" t="s">
+        <v>158</v>
+      </c>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
     </row>
-    <row r="28" spans="1:17" s="9" customFormat="1">
-      <c r="A28" s="53">
-        <v>42</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="19">
-        <v>42853</v>
-      </c>
-      <c r="F28" s="19">
-        <v>42861</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" s="17">
+    <row r="28" spans="1:17">
+      <c r="A28" s="11">
+        <v>50</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="40">
+        <v>42875</v>
+      </c>
+      <c r="F28" s="40">
+        <v>42878</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="15">
         <v>0</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="15">
         <v>2</v>
       </c>
-      <c r="K28" s="17">
-        <v>50</v>
-      </c>
-      <c r="L28" s="60"/>
+      <c r="K28" s="15">
+        <v>41</v>
+      </c>
+      <c r="L28" s="65" t="s">
+        <v>153</v>
+      </c>
       <c r="M28" s="60"/>
       <c r="N28" s="56"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
     </row>
-    <row r="29" spans="1:17" s="55" customFormat="1">
-      <c r="A29" s="17">
+    <row r="29" spans="1:17" s="9" customFormat="1">
+      <c r="A29" s="11">
+        <v>12</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="40">
+        <v>42852</v>
+      </c>
+      <c r="F29" s="40">
+        <v>42857</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0</v>
+      </c>
+      <c r="J29" s="15">
+        <v>3</v>
+      </c>
+      <c r="K29" s="15">
+        <v>50</v>
+      </c>
+      <c r="L29" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="M29" s="60"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+    </row>
+    <row r="30" spans="1:17" s="9" customFormat="1">
+      <c r="A30" s="53">
+        <v>42</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="19">
+        <v>42853</v>
+      </c>
+      <c r="F30" s="19">
+        <v>42861</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="17">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
         <v>2</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="19">
-        <v>42849</v>
-      </c>
-      <c r="F29" s="19">
-        <v>42850</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I29" s="18">
-        <v>1</v>
-      </c>
-      <c r="J29" s="17">
-        <v>1</v>
-      </c>
-      <c r="K29" s="17">
-        <v>50</v>
-      </c>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-    </row>
-    <row r="30" spans="1:17" s="9" customFormat="1">
-      <c r="A30" s="17">
-        <v>5</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="19">
-        <v>42851</v>
-      </c>
-      <c r="F30" s="19">
-        <v>42851</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="18">
-        <v>1</v>
-      </c>
-      <c r="J30" s="17">
-        <v>1</v>
       </c>
       <c r="K30" s="17">
         <v>50</v>
@@ -4393,29 +4404,31 @@
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" s="55" customFormat="1">
       <c r="A31" s="17">
-        <v>13</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>101</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E31" s="19">
-        <v>42844</v>
+        <v>42849</v>
       </c>
       <c r="F31" s="19">
-        <v>42853</v>
+        <v>42850</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="17"/>
+        <v>85</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="I31" s="18">
         <v>1</v>
       </c>
@@ -4425,36 +4438,38 @@
       <c r="K31" s="17">
         <v>50</v>
       </c>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-    </row>
-    <row r="32" spans="1:17" s="5" customFormat="1">
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+    </row>
+    <row r="32" spans="1:17" s="9" customFormat="1">
       <c r="A32" s="17">
-        <v>14</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>47</v>
+        <v>5</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="64" t="s">
+        <v>150</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="E32" s="19">
-        <v>42844</v>
+        <v>42851</v>
       </c>
       <c r="F32" s="19">
-        <v>42853</v>
+        <v>42851</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="17"/>
+        <v>85</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="I32" s="18">
         <v>1</v>
       </c>
@@ -4473,25 +4488,25 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>101</v>
+        <v>117</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33" s="19">
-        <v>42845</v>
+        <v>42844</v>
       </c>
       <c r="F33" s="19">
-        <v>42852</v>
+        <v>42853</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="18">
@@ -4510,27 +4525,27 @@
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
     </row>
-    <row r="34" spans="1:18" s="12" customFormat="1">
+    <row r="34" spans="1:18" s="5" customFormat="1">
       <c r="A34" s="17">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>101</v>
+        <v>117</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="E34" s="19">
-        <v>42849</v>
+        <v>42844</v>
       </c>
       <c r="F34" s="19">
-        <v>42858</v>
+        <v>42853</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="18">
@@ -4549,9 +4564,9 @@
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
     </row>
-    <row r="35" spans="1:18" s="10" customFormat="1">
+    <row r="35" spans="1:18">
       <c r="A35" s="17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>101</v>
@@ -4560,16 +4575,16 @@
         <v>101</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="E35" s="19">
-        <v>42842</v>
+        <v>42845</v>
       </c>
       <c r="F35" s="19">
-        <v>42850</v>
+        <v>42852</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="18">
@@ -4588,9 +4603,9 @@
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
     </row>
-    <row r="36" spans="1:18" s="10" customFormat="1">
+    <row r="36" spans="1:18" s="12" customFormat="1">
       <c r="A36" s="17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>101</v>
@@ -4599,16 +4614,16 @@
         <v>101</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="E36" s="19">
-        <v>42844</v>
+        <v>42849</v>
       </c>
       <c r="F36" s="19">
-        <v>42851</v>
+        <v>42858</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="18">
@@ -4627,26 +4642,34 @@
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" s="10" customFormat="1">
       <c r="A37" s="17">
-        <v>24</v>
-      </c>
-      <c r="B37" s="38"/>
+        <v>20</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>101</v>
+      </c>
       <c r="C37" s="38" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="E37" s="19">
+        <v>42842</v>
+      </c>
+      <c r="F37" s="19">
+        <v>42850</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>79</v>
+      </c>
       <c r="H37" s="17"/>
       <c r="I37" s="18">
         <v>1</v>
       </c>
       <c r="J37" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K37" s="17">
         <v>50</v>
@@ -4658,30 +4681,34 @@
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" s="10" customFormat="1">
       <c r="A38" s="17">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="E38" s="19">
+        <v>42844</v>
+      </c>
+      <c r="F38" s="19">
+        <v>42851</v>
+      </c>
       <c r="G38" s="17" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="18">
         <v>1</v>
       </c>
       <c r="J38" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K38" s="17">
         <v>50</v>
@@ -4695,16 +4722,14 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="17">
-        <v>26</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>117</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B39" s="38"/>
       <c r="C39" s="38" t="s">
         <v>117</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
@@ -4726,34 +4751,30 @@
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
     </row>
-    <row r="40" spans="1:18" s="12" customFormat="1">
+    <row r="40" spans="1:18">
       <c r="A40" s="17">
-        <v>28</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="19">
-        <v>42857</v>
-      </c>
-      <c r="F40" s="19">
-        <v>42860</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
       <c r="G40" s="17" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="18">
         <v>1</v>
       </c>
       <c r="J40" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K40" s="17">
         <v>50</v>
@@ -4767,32 +4788,26 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="17">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B41" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="37" t="s">
-        <v>47</v>
+      <c r="C41" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="19">
-        <v>42851</v>
-      </c>
-      <c r="F41" s="19">
-        <v>42853</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>46</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="18">
         <v>1</v>
       </c>
       <c r="J41" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K41" s="17">
         <v>50</v>
@@ -4804,27 +4819,27 @@
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" s="12" customFormat="1">
       <c r="A42" s="17">
-        <v>32</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>117</v>
+        <v>28</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E42" s="19">
-        <v>42843</v>
+        <v>42857</v>
       </c>
       <c r="F42" s="19">
-        <v>42853</v>
+        <v>42860</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="18">
@@ -4845,7 +4860,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="17">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B43" s="38" t="s">
         <v>117</v>
@@ -4854,16 +4869,16 @@
         <v>47</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="E43" s="19">
         <v>42851</v>
       </c>
       <c r="F43" s="19">
-        <v>42857</v>
+        <v>42853</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="18">
@@ -4875,17 +4890,16 @@
       <c r="K43" s="17">
         <v>50</v>
       </c>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="33"/>
-    </row>
-    <row r="44" spans="1:18" s="7" customFormat="1">
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="17">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>117</v>
@@ -4894,16 +4908,16 @@
         <v>47</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E44" s="19">
-        <v>42851</v>
+        <v>42843</v>
       </c>
       <c r="F44" s="19">
         <v>42853</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="18">
@@ -4924,7 +4938,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="17">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B45" s="38" t="s">
         <v>117</v>
@@ -4933,33 +4947,38 @@
         <v>47</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+        <v>112</v>
+      </c>
+      <c r="E45" s="19">
+        <v>42851</v>
+      </c>
+      <c r="F45" s="19">
+        <v>42857</v>
+      </c>
       <c r="G45" s="17" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="18">
         <v>1</v>
       </c>
       <c r="J45" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K45" s="17">
         <v>50</v>
       </c>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="33"/>
+    </row>
+    <row r="46" spans="1:18" s="7" customFormat="1">
       <c r="A46" s="17">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B46" s="38" t="s">
         <v>117</v>
@@ -4968,23 +4987,23 @@
         <v>47</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="E46" s="19">
-        <v>42837</v>
+        <v>42851</v>
       </c>
       <c r="F46" s="19">
-        <v>42839</v>
+        <v>42853</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="18">
         <v>1</v>
       </c>
       <c r="J46" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" s="17">
         <v>50</v>
@@ -4998,7 +5017,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="17">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B47" s="38" t="s">
         <v>117</v>
@@ -5007,21 +5026,19 @@
         <v>47</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="19">
-        <v>42874</v>
-      </c>
-      <c r="F47" s="19">
-        <v>42885</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
       <c r="G47" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H47" s="17"/>
-      <c r="I47" s="18"/>
+      <c r="I47" s="18">
+        <v>1</v>
+      </c>
       <c r="J47" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K47" s="17">
         <v>50</v>
@@ -5035,7 +5052,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="17">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B48" s="38" t="s">
         <v>117</v>
@@ -5044,19 +5061,21 @@
         <v>47</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E48" s="19">
-        <v>42874</v>
+        <v>42837</v>
       </c>
       <c r="F48" s="19">
-        <v>42881</v>
+        <v>42839</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H48" s="17"/>
-      <c r="I48" s="18"/>
+      <c r="I48" s="18">
+        <v>1</v>
+      </c>
       <c r="J48" s="17">
         <v>2</v>
       </c>
@@ -5071,21 +5090,33 @@
       <c r="Q48" s="22"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="11">
-        <v>51</v>
-      </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25">
-        <v>42875</v>
-      </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15">
+      <c r="A49" s="17">
+        <v>48</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="19">
+        <v>42874</v>
+      </c>
+      <c r="F49" s="19">
+        <v>42885</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="17">
+        <v>2</v>
+      </c>
+      <c r="K49" s="17">
         <v>50</v>
       </c>
       <c r="L49" s="60"/>
@@ -5096,23 +5127,33 @@
       <c r="Q49" s="22"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="11">
-        <v>52</v>
-      </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="25">
-        <v>42865</v>
-      </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15">
+      <c r="A50" s="17">
+        <v>49</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="19">
+        <v>42874</v>
+      </c>
+      <c r="F50" s="19">
+        <v>42881</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="17"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="17">
+        <v>2</v>
+      </c>
+      <c r="K50" s="17">
         <v>50</v>
       </c>
       <c r="L50" s="60"/>
@@ -5124,18 +5165,14 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="25">
-        <v>42885</v>
-      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="25">
-        <v>42901</v>
+        <v>42875</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -5153,20 +5190,18 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="11">
-        <v>54</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15" t="s">
-        <v>10</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="25">
-        <v>42902</v>
-      </c>
-      <c r="F52" s="25">
-        <v>42916</v>
-      </c>
-      <c r="G52" s="15"/>
+        <v>42865</v>
+      </c>
+      <c r="F52" s="25"/>
+      <c r="G52" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
@@ -5180,21 +5215,23 @@
       <c r="P52" s="22"/>
       <c r="Q52" s="22"/>
     </row>
-    <row r="53" spans="1:17" s="7" customFormat="1">
+    <row r="53" spans="1:17">
       <c r="A53" s="11">
-        <v>55</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="8">
-        <v>42916</v>
-      </c>
-      <c r="F53" s="8">
-        <v>42916</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="25">
+        <v>42885</v>
+      </c>
+      <c r="F53" s="25">
+        <v>42901</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
       <c r="K53" s="15">
@@ -5207,37 +5244,93 @@
       <c r="P53" s="22"/>
       <c r="Q53" s="22"/>
     </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="11"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="56"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="D58" s="1" t="s">
+    <row r="54" spans="1:17">
+      <c r="A54" s="11">
+        <v>54</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="25">
+        <v>42902</v>
+      </c>
+      <c r="F54" s="25">
+        <v>42916</v>
+      </c>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15">
+        <v>50</v>
+      </c>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+    </row>
+    <row r="55" spans="1:17" s="7" customFormat="1">
+      <c r="A55" s="11">
+        <v>55</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="8">
+        <v>42916</v>
+      </c>
+      <c r="F55" s="8">
+        <v>42916</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15">
+        <v>50</v>
+      </c>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="11"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="D60" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
-      <c r="D63" s="1" t="s">
+    <row r="65" spans="4:4">
+      <c r="D65" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="D64" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24940" windowHeight="14080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24945" windowHeight="14085" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="168">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -553,10 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商家管理（不做）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>manager-web</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -723,6 +724,20 @@
   <si>
     <t>购物车(tangyk)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家管理（供应商管理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager-web</t>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/supplier_manage.html</t>
   </si>
 </sst>
 </file>
@@ -732,7 +747,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -844,7 +859,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,6 +893,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,7 +1031,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
@@ -1127,21 +1148,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1212,8 +1218,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="10" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="34">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -1231,23 +1282,22 @@
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1517,7 +1567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1531,18 +1581,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -1552,10 +1602,10 @@
       <c r="B1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="68"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1605,7 +1655,7 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="66" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -1635,7 +1685,7 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="23" t="s">
         <v>35</v>
       </c>
@@ -1663,7 +1713,7 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="23" t="s">
         <v>35</v>
       </c>
@@ -1691,7 +1741,7 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="69"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="23" t="s">
         <v>35</v>
       </c>
@@ -1719,7 +1769,7 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="23" t="s">
         <v>35</v>
       </c>
@@ -1747,7 +1797,7 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="23" t="s">
         <v>35</v>
       </c>
@@ -1775,7 +1825,7 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="23" t="s">
         <v>35</v>
       </c>
@@ -1803,7 +1853,7 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="23" t="s">
         <v>35</v>
       </c>
@@ -1831,7 +1881,7 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="23" t="s">
         <v>35</v>
       </c>
@@ -1859,7 +1909,7 @@
       <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="64" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1889,7 +1939,7 @@
       <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="69"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="21" t="s">
         <v>47</v>
       </c>
@@ -1917,7 +1967,7 @@
       <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="21" t="s">
         <v>47</v>
       </c>
@@ -1945,7 +1995,7 @@
       <c r="A15" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="69"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="21" t="s">
         <v>47</v>
       </c>
@@ -1973,7 +2023,7 @@
       <c r="A16" s="11">
         <v>16</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="21" t="s">
         <v>47</v>
       </c>
@@ -2001,7 +2051,7 @@
       <c r="A17" s="11">
         <v>17</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="20"/>
@@ -2029,7 +2079,7 @@
       <c r="A18" s="11">
         <v>18</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="21"/>
       <c r="D18" s="17" t="s">
         <v>31</v>
@@ -2085,7 +2135,7 @@
       <c r="A20" s="11">
         <v>20</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="66" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="20"/>
@@ -2113,7 +2163,7 @@
       <c r="A21" s="11">
         <v>21</v>
       </c>
-      <c r="B21" s="69"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="23" t="s">
         <v>35</v>
       </c>
@@ -2141,7 +2191,7 @@
       <c r="A22" s="11">
         <v>22</v>
       </c>
-      <c r="B22" s="69"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
@@ -2169,7 +2219,7 @@
       <c r="A23" s="11">
         <v>23</v>
       </c>
-      <c r="B23" s="69"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="23" t="s">
         <v>35</v>
       </c>
@@ -2197,7 +2247,7 @@
       <c r="A24" s="11">
         <v>24</v>
       </c>
-      <c r="B24" s="70"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="24"/>
       <c r="D24" s="15" t="s">
         <v>58</v>
@@ -2217,7 +2267,7 @@
       <c r="A25" s="11">
         <v>25</v>
       </c>
-      <c r="B25" s="69"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="21" t="s">
         <v>47</v>
       </c>
@@ -2241,7 +2291,7 @@
       <c r="A26" s="11">
         <v>26</v>
       </c>
-      <c r="B26" s="69"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="21" t="s">
         <v>47</v>
       </c>
@@ -2263,7 +2313,7 @@
       <c r="A27" s="11">
         <v>27</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="23" t="s">
         <v>35</v>
       </c>
@@ -2291,7 +2341,7 @@
       <c r="A28" s="11">
         <v>28</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="23" t="s">
         <v>35</v>
       </c>
@@ -2319,7 +2369,7 @@
       <c r="A29" s="11">
         <v>29</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="21" t="s">
         <v>47</v>
       </c>
@@ -2347,7 +2397,7 @@
       <c r="A30" s="11">
         <v>31</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="21" t="s">
         <v>47</v>
       </c>
@@ -2377,7 +2427,7 @@
       <c r="A31" s="11">
         <v>32</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="21"/>
       <c r="D31" s="17" t="s">
         <v>64</v>
@@ -2403,7 +2453,7 @@
       <c r="A32" s="11">
         <v>33</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="21"/>
       <c r="D32" s="17" t="s">
         <v>33</v>
@@ -2429,7 +2479,7 @@
       <c r="A33" s="11">
         <v>34</v>
       </c>
-      <c r="B33" s="69"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="21" t="s">
         <v>47</v>
       </c>
@@ -2457,7 +2507,7 @@
       <c r="A34" s="11">
         <v>35</v>
       </c>
-      <c r="B34" s="69"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="21"/>
       <c r="D34" s="15" t="s">
         <v>66</v>
@@ -2483,7 +2533,7 @@
       <c r="A35" s="11">
         <v>36</v>
       </c>
-      <c r="B35" s="69"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="21" t="s">
         <v>47</v>
       </c>
@@ -2511,7 +2561,7 @@
       <c r="A36" s="11">
         <v>37</v>
       </c>
-      <c r="B36" s="69"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="21"/>
       <c r="D36" s="17" t="s">
         <v>34</v>
@@ -2537,7 +2587,7 @@
       <c r="A37" s="11">
         <v>38</v>
       </c>
-      <c r="B37" s="69"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="21" t="s">
         <v>47</v>
       </c>
@@ -2565,7 +2615,7 @@
       <c r="A38" s="11">
         <v>39</v>
       </c>
-      <c r="B38" s="69"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="21" t="s">
         <v>47</v>
       </c>
@@ -2593,7 +2643,7 @@
       <c r="A39" s="11">
         <v>40</v>
       </c>
-      <c r="B39" s="69"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="21"/>
       <c r="D39" s="15" t="s">
         <v>70</v>
@@ -2625,7 +2675,7 @@
       <c r="A40" s="11">
         <v>41</v>
       </c>
-      <c r="B40" s="70"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="24"/>
       <c r="D40" s="15" t="s">
         <v>71</v>
@@ -2647,7 +2697,7 @@
       <c r="A41" s="11">
         <v>42</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="66" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="21"/>
@@ -2675,7 +2725,7 @@
       <c r="A42" s="11">
         <v>43</v>
       </c>
-      <c r="B42" s="69"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="21" t="s">
         <v>47</v>
       </c>
@@ -2703,7 +2753,7 @@
       <c r="A43" s="11">
         <v>44</v>
       </c>
-      <c r="B43" s="69"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="21" t="s">
         <v>47</v>
       </c>
@@ -2731,7 +2781,7 @@
       <c r="A44" s="11">
         <v>45</v>
       </c>
-      <c r="B44" s="69"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="21"/>
       <c r="D44" s="15" t="s">
         <v>74</v>
@@ -2757,7 +2807,7 @@
       <c r="A45" s="11">
         <v>46</v>
       </c>
-      <c r="B45" s="69"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="21"/>
       <c r="D45" s="15" t="s">
         <v>76</v>
@@ -2783,7 +2833,7 @@
       <c r="A46" s="11">
         <v>47</v>
       </c>
-      <c r="B46" s="69"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="21" t="s">
         <v>47</v>
       </c>
@@ -2811,7 +2861,7 @@
       <c r="A47" s="11">
         <v>48</v>
       </c>
-      <c r="B47" s="69"/>
+      <c r="B47" s="64"/>
       <c r="C47" s="21"/>
       <c r="D47" s="15" t="s">
         <v>77</v>
@@ -2837,7 +2887,7 @@
       <c r="A48" s="11">
         <v>49</v>
       </c>
-      <c r="B48" s="70"/>
+      <c r="B48" s="65"/>
       <c r="C48" s="24"/>
       <c r="D48" s="15" t="s">
         <v>78</v>
@@ -3060,23 +3110,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
     <col min="2" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="11" style="63"/>
-    <col min="14" max="14" width="101.7109375" style="59" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="58"/>
+    <col min="14" max="14" width="101.75" style="54" customWidth="1"/>
     <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -3088,7 +3138,7 @@
         <v>28</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D1" s="36"/>
       <c r="E1" s="3" t="s">
@@ -3112,9 +3162,9 @@
       <c r="K1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="56"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="51"/>
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
@@ -3126,8 +3176,8 @@
       <c r="B2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="64" t="s">
-        <v>149</v>
+      <c r="C2" s="59" t="s">
+        <v>148</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>36</v>
@@ -3153,30 +3203,30 @@
       <c r="K2" s="15">
         <v>11</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="56" t="s">
-        <v>130</v>
+      <c r="N2" s="51" t="s">
+        <v>129</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
     </row>
-    <row r="3" spans="1:17" ht="23" customHeight="1">
+    <row r="3" spans="1:17" ht="23.1" customHeight="1">
       <c r="A3" s="34">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="40">
@@ -3200,20 +3250,20 @@
       <c r="K3" s="15">
         <v>11</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="M3" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="N3" s="56" t="s">
-        <v>131</v>
+      <c r="N3" s="51" t="s">
+        <v>130</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
     </row>
-    <row r="4" spans="1:17" ht="23" customHeight="1">
+    <row r="4" spans="1:17" ht="23.1" customHeight="1">
       <c r="A4" s="11">
         <v>29</v>
       </c>
@@ -3247,20 +3297,20 @@
       <c r="K4" s="15">
         <v>12</v>
       </c>
-      <c r="L4" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="N4" s="56" t="s">
-        <v>139</v>
+      <c r="L4" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
     </row>
-    <row r="5" spans="1:17" s="12" customFormat="1" ht="25" customHeight="1">
+    <row r="5" spans="1:17" s="12" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="11">
         <v>16</v>
       </c>
@@ -3294,14 +3344,14 @@
       <c r="K5" s="15">
         <v>13</v>
       </c>
-      <c r="L5" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="M5" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>137</v>
+      <c r="L5" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>136</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -3341,14 +3391,14 @@
       <c r="K6" s="15">
         <v>13</v>
       </c>
-      <c r="L6" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="M6" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N6" s="57" t="s">
-        <v>132</v>
+      <c r="L6" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N6" s="52" t="s">
+        <v>131</v>
       </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
@@ -3388,20 +3438,20 @@
       <c r="K7" s="15">
         <v>14</v>
       </c>
-      <c r="L7" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="M7" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N7" s="56" t="s">
-        <v>133</v>
+      <c r="L7" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>132</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
     </row>
-    <row r="8" spans="1:17" ht="17" customHeight="1">
+    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="11">
         <v>23</v>
       </c>
@@ -3412,7 +3462,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="40">
         <v>42863</v>
@@ -3435,14 +3485,14 @@
       <c r="K8" s="15">
         <v>15</v>
       </c>
-      <c r="L8" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N8" s="56" t="s">
-        <v>146</v>
+      <c r="L8" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>145</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
@@ -3482,28 +3532,28 @@
       <c r="K9" s="15">
         <v>16</v>
       </c>
-      <c r="L9" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="M9" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N9" s="57" t="s">
-        <v>134</v>
+      <c r="L9" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>133</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="1:17" ht="17" customHeight="1">
+    <row r="10" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="11">
         <v>10</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="64" t="s">
-        <v>150</v>
+      <c r="C10" s="59" t="s">
+        <v>149</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>45</v>
@@ -3529,14 +3579,14 @@
       <c r="K10" s="15">
         <v>17</v>
       </c>
-      <c r="L10" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="M10" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N10" s="56" t="s">
-        <v>156</v>
+      <c r="L10" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>155</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -3549,8 +3599,8 @@
       <c r="B11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="64" t="s">
-        <v>150</v>
+      <c r="C11" s="59" t="s">
+        <v>149</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>41</v>
@@ -3576,20 +3626,20 @@
       <c r="K11" s="15">
         <v>18</v>
       </c>
-      <c r="L11" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="M11" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N11" s="56" t="s">
-        <v>135</v>
+      <c r="L11" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>134</v>
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
     </row>
-    <row r="12" spans="1:17" s="5" customFormat="1" ht="19" customHeight="1">
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="18.95" customHeight="1">
       <c r="A12" s="11">
         <v>27</v>
       </c>
@@ -3623,20 +3673,20 @@
       <c r="K12" s="15">
         <v>20</v>
       </c>
-      <c r="L12" s="60" t="s">
+      <c r="L12" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="M12" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N12" s="56" t="s">
-        <v>146</v>
       </c>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
     </row>
-    <row r="13" spans="1:17" s="5" customFormat="1" ht="19" customHeight="1">
+    <row r="13" spans="1:17" s="5" customFormat="1" ht="18.95" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="23" t="s">
         <v>35</v>
@@ -3645,7 +3695,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
@@ -3654,20 +3704,20 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="M13" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N13" s="56" t="s">
-        <v>162</v>
+      <c r="L13" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" s="51" t="s">
+        <v>161</v>
       </c>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
     </row>
-    <row r="14" spans="1:17" s="5" customFormat="1" ht="19" customHeight="1">
+    <row r="14" spans="1:17" s="5" customFormat="1" ht="18.95" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="23" t="s">
         <v>35</v>
@@ -3676,7 +3726,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
@@ -3685,28 +3735,28 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="M14" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N14" s="56" t="s">
-        <v>163</v>
+      <c r="L14" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="51" t="s">
+        <v>162</v>
       </c>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" spans="1:17" ht="19" customHeight="1">
+    <row r="15" spans="1:17" ht="18.95" customHeight="1">
       <c r="A15" s="11">
         <v>9</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="64" t="s">
-        <v>150</v>
+      <c r="C15" s="59" t="s">
+        <v>149</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>44</v>
@@ -3732,14 +3782,14 @@
       <c r="K15" s="15">
         <v>21</v>
       </c>
-      <c r="L15" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="M15" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N15" s="56" t="s">
-        <v>141</v>
+      <c r="L15" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" s="51" t="s">
+        <v>140</v>
       </c>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
@@ -3752,8 +3802,8 @@
       <c r="B16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="64" t="s">
-        <v>150</v>
+      <c r="C16" s="59" t="s">
+        <v>149</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>39</v>
@@ -3779,14 +3829,14 @@
       <c r="K16" s="15">
         <v>22</v>
       </c>
-      <c r="L16" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N16" s="57" t="s">
-        <v>140</v>
+      <c r="L16" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" s="52" t="s">
+        <v>139</v>
       </c>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
@@ -3826,14 +3876,14 @@
       <c r="K17" s="15">
         <v>22</v>
       </c>
-      <c r="L17" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N17" s="56" t="s">
-        <v>152</v>
+      <c r="L17" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N17" s="51" t="s">
+        <v>151</v>
       </c>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -3871,9 +3921,9 @@
       <c r="K18" s="17">
         <v>22</v>
       </c>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="56"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="51"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
@@ -3912,55 +3962,55 @@
       <c r="K19" s="15">
         <v>23</v>
       </c>
-      <c r="L19" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="M19" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N19" s="56" t="s">
-        <v>143</v>
+      <c r="L19" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" s="51" t="s">
+        <v>142</v>
       </c>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
     </row>
-    <row r="20" spans="1:17" s="5" customFormat="1">
-      <c r="A20" s="17">
-        <v>47</v>
-      </c>
-      <c r="B20" s="38" t="s">
+    <row r="20" spans="1:17" s="83" customFormat="1">
+      <c r="A20" s="71">
+        <v>47</v>
+      </c>
+      <c r="B20" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="74">
         <v>42871</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="74">
         <v>42873</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17">
+      <c r="H20" s="71"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="71">
         <v>2</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="71">
         <v>23</v>
       </c>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
     </row>
     <row r="21" spans="1:17" s="5" customFormat="1">
       <c r="A21" s="11">
@@ -3969,8 +4019,8 @@
       <c r="B21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="64" t="s">
-        <v>150</v>
+      <c r="C21" s="59" t="s">
+        <v>149</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>43</v>
@@ -3996,100 +4046,100 @@
       <c r="K21" s="15">
         <v>24</v>
       </c>
-      <c r="L21" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="M21" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N21" s="56" t="s">
-        <v>155</v>
+      <c r="L21" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N21" s="51" t="s">
+        <v>154</v>
       </c>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" s="12" customFormat="1">
-      <c r="A22" s="17">
+    <row r="22" spans="1:17" s="78" customFormat="1">
+      <c r="A22" s="71">
         <v>46</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="74">
         <v>42840</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="74">
         <v>42842</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18">
+      <c r="H22" s="71"/>
+      <c r="I22" s="75">
         <v>1</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="71">
         <v>2</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="71">
         <v>25</v>
       </c>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-    </row>
-    <row r="23" spans="1:17" s="12" customFormat="1">
-      <c r="A23" s="44">
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="77"/>
+    </row>
+    <row r="23" spans="1:17" s="78" customFormat="1">
+      <c r="A23" s="70">
         <v>34</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="47">
+      <c r="C23" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="80">
         <v>42867</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="80">
         <v>42871</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="48" t="s">
+      <c r="H23" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="70">
         <v>0</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="70">
         <v>3</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="70">
         <v>28</v>
       </c>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-    </row>
-    <row r="24" spans="1:17" s="50" customFormat="1" ht="35" customHeight="1">
+      <c r="L23" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N23" s="77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="45" customFormat="1" ht="35.1" customHeight="1">
       <c r="A24" s="11">
         <v>15</v>
       </c>
@@ -4100,7 +4150,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E24" s="27">
         <v>42871</v>
@@ -4123,18 +4173,18 @@
       <c r="K24" s="15">
         <v>30</v>
       </c>
-      <c r="L24" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="M24" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N24" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
+      <c r="L24" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="M24" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N24" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
     </row>
     <row r="25" spans="1:17" s="10" customFormat="1">
       <c r="A25" s="11">
@@ -4170,14 +4220,14 @@
       <c r="K25" s="15">
         <v>31</v>
       </c>
-      <c r="L25" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="M25" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N25" s="56" t="s">
-        <v>159</v>
+      <c r="L25" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="M25" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N25" s="51" t="s">
+        <v>158</v>
       </c>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
@@ -4217,14 +4267,14 @@
       <c r="K26" s="15">
         <v>32</v>
       </c>
-      <c r="L26" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="M26" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N26" s="56" t="s">
-        <v>160</v>
+      <c r="L26" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N26" s="51" t="s">
+        <v>159</v>
       </c>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
@@ -4264,14 +4314,14 @@
       <c r="K27" s="15">
         <v>40</v>
       </c>
-      <c r="L27" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="M27" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="N27" s="56" t="s">
-        <v>158</v>
+      <c r="L27" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="M27" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N27" s="51" t="s">
+        <v>157</v>
       </c>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
@@ -4311,11 +4361,11 @@
       <c r="K28" s="15">
         <v>41</v>
       </c>
-      <c r="L28" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="M28" s="60"/>
-      <c r="N28" s="56"/>
+      <c r="L28" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="M28" s="55"/>
+      <c r="N28" s="51"/>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
@@ -4354,27 +4404,27 @@
       <c r="K29" s="15">
         <v>50</v>
       </c>
-      <c r="L29" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="M29" s="60"/>
-      <c r="N29" s="56"/>
+      <c r="L29" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="M29" s="55"/>
+      <c r="N29" s="51"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
     </row>
     <row r="30" spans="1:17" s="9" customFormat="1">
-      <c r="A30" s="53">
+      <c r="A30" s="48">
         <v>42</v>
       </c>
       <c r="B30" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>123</v>
       </c>
       <c r="E30" s="19">
         <v>42853</v>
@@ -4383,10 +4433,10 @@
         <v>42861</v>
       </c>
       <c r="G30" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="I30" s="17">
         <v>0</v>
@@ -4397,14 +4447,14 @@
       <c r="K30" s="17">
         <v>50</v>
       </c>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="56"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="51"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
     </row>
-    <row r="31" spans="1:17" s="55" customFormat="1">
+    <row r="31" spans="1:17" s="50" customFormat="1">
       <c r="A31" s="17">
         <v>2</v>
       </c>
@@ -4438,12 +4488,12 @@
       <c r="K31" s="17">
         <v>50</v>
       </c>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
     </row>
     <row r="32" spans="1:17" s="9" customFormat="1">
       <c r="A32" s="17">
@@ -4452,8 +4502,8 @@
       <c r="B32" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="64" t="s">
-        <v>150</v>
+      <c r="C32" s="59" t="s">
+        <v>149</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>103</v>
@@ -4479,9 +4529,9 @@
       <c r="K32" s="17">
         <v>50</v>
       </c>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="56"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="51"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
@@ -4518,9 +4568,9 @@
       <c r="K33" s="17">
         <v>50</v>
       </c>
-      <c r="L33" s="60"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="56"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="51"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
@@ -4557,9 +4607,9 @@
       <c r="K34" s="17">
         <v>50</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="56"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="51"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
@@ -4596,9 +4646,9 @@
       <c r="K35" s="17">
         <v>50</v>
       </c>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="56"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="51"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
@@ -4635,9 +4685,9 @@
       <c r="K36" s="17">
         <v>50</v>
       </c>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="56"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="51"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
@@ -4674,9 +4724,9 @@
       <c r="K37" s="17">
         <v>50</v>
       </c>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="56"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="51"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
@@ -4713,9 +4763,9 @@
       <c r="K38" s="17">
         <v>50</v>
       </c>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="56"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="51"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="22"/>
@@ -4744,9 +4794,9 @@
       <c r="K39" s="17">
         <v>50</v>
       </c>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="56"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="51"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
@@ -4779,9 +4829,9 @@
       <c r="K40" s="17">
         <v>50</v>
       </c>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="56"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="51"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
       <c r="Q40" s="22"/>
@@ -4812,9 +4862,9 @@
       <c r="K41" s="17">
         <v>50</v>
       </c>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="56"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="51"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
@@ -4851,9 +4901,9 @@
       <c r="K42" s="17">
         <v>50</v>
       </c>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="56"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="51"/>
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
       <c r="Q42" s="22"/>
@@ -4890,9 +4940,9 @@
       <c r="K43" s="17">
         <v>50</v>
       </c>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
-      <c r="N43" s="56"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="51"/>
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
       <c r="Q43" s="22"/>
@@ -4929,9 +4979,9 @@
       <c r="K44" s="17">
         <v>50</v>
       </c>
-      <c r="L44" s="60"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="56"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="51"/>
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
       <c r="Q44" s="22"/>
@@ -4968,9 +5018,9 @@
       <c r="K45" s="17">
         <v>50</v>
       </c>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="52"/>
       <c r="O45" s="35"/>
       <c r="P45" s="35"/>
       <c r="Q45" s="35"/>
@@ -5008,9 +5058,9 @@
       <c r="K46" s="17">
         <v>50</v>
       </c>
-      <c r="L46" s="60"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="56"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="51"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
       <c r="Q46" s="22"/>
@@ -5043,9 +5093,9 @@
       <c r="K47" s="17">
         <v>50</v>
       </c>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="56"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="51"/>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
       <c r="Q47" s="22"/>
@@ -5082,9 +5132,9 @@
       <c r="K48" s="17">
         <v>50</v>
       </c>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="56"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="51"/>
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
       <c r="Q48" s="22"/>
@@ -5119,9 +5169,9 @@
       <c r="K49" s="17">
         <v>50</v>
       </c>
-      <c r="L49" s="60"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="56"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="51"/>
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
@@ -5156,9 +5206,9 @@
       <c r="K50" s="17">
         <v>50</v>
       </c>
-      <c r="L50" s="60"/>
-      <c r="M50" s="60"/>
-      <c r="N50" s="56"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="51"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
@@ -5181,9 +5231,9 @@
       <c r="K51" s="15">
         <v>50</v>
       </c>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="56"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="51"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
@@ -5208,9 +5258,9 @@
       <c r="K52" s="15">
         <v>50</v>
       </c>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="56"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="51"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
       <c r="Q52" s="22"/>
@@ -5237,9 +5287,9 @@
       <c r="K53" s="15">
         <v>50</v>
       </c>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="56"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="51"/>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
       <c r="Q53" s="22"/>
@@ -5266,9 +5316,9 @@
       <c r="K54" s="15">
         <v>50</v>
       </c>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="56"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="51"/>
       <c r="O54" s="22"/>
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
@@ -5293,18 +5343,33 @@
       <c r="K55" s="15">
         <v>50</v>
       </c>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="56"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="51"/>
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
       <c r="Q55" s="22"/>
     </row>
+    <row r="56" spans="1:17" s="83" customFormat="1">
+      <c r="B56" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="73"/>
+      <c r="D56" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="G56" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="85"/>
+    </row>
     <row r="59" spans="1:17">
       <c r="A59" s="11"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
-      <c r="N59" s="56"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="51"/>
       <c r="O59" s="22"/>
       <c r="P59" s="22"/>
       <c r="Q59" s="22"/>
@@ -5340,7 +5405,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="170">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -604,6 +604,139 @@
     <t>/manager-web/src/main/resources/templates/menus_manage.html</t>
   </si>
   <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/myfavorite.html</t>
+  </si>
+  <si>
+    <t>下单功能（数据购买）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/order_manage.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liangsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/goods_classification.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/mybill_apply.html
+/mall-web/src/main/resources/templates/personalCenter/mybill.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/mydata.html</t>
+  </si>
+  <si>
+    <t>liangsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/goods_complaint.html</t>
+  </si>
+  <si>
+    <t>唐演坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐演坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/data_purchase.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐演坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI界面调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多媒体资料管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/goods_list_gys.html</t>
+  </si>
+  <si>
+    <t>不做了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liangsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/personalCenter/browsing_ history.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/personalCenter/myOrder.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/personalCenter/multiMedia_manage.html
+/manager-web/src/main/resources/templates/personalCenter/singlePicture_manage.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/dataCustom_manage.html</t>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/invoice_manage.html</t>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/uesr_manage.html</t>
+  </si>
+  <si>
+    <t>线下汇款(tangyk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/shoppint_cart.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/offline_remittance.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车(tangyk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家管理（供应商管理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager-web</t>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/supplier_manage.html</t>
+  </si>
+  <si>
+    <t>API接口文档维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/manager-web/src/main/resources/templates/api_document_deploy.html
 /manager-web/src/main/resources/templates/api_document_deploy2.html
 /manager-web/src/main/resources/templates/api_document_deploy3.html
@@ -611,133 +744,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/mall-web/src/main/resources/templates/personalCenter/myfavorite.html</t>
-  </si>
-  <si>
-    <t>下单功能（数据购买）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/manager-web/src/main/resources/templates/order_manage.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liangsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/manager-web/src/main/resources/templates/goods_classification.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mall-web/src/main/resources/templates/personalCenter/mybill_apply.html
-/mall-web/src/main/resources/templates/personalCenter/mybill.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mall-web/src/main/resources/templates/personalCenter/mydata.html</t>
-  </si>
-  <si>
-    <t>liangsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mall-web/src/main/resources/templates/personalCenter/goods_complaint.html</t>
-  </si>
-  <si>
-    <t>唐演坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐演坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mall-web/src/main/resources/templates/personalCenter/data_purchase.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐演坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI界面调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager-web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager-web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多媒体资料管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mall-web/src/main/resources/templates/goods_list_gys.html</t>
-  </si>
-  <si>
-    <t>不做了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liangsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/manager-web/src/main/resources/templates/personalCenter/browsing_ history.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/manager-web/src/main/resources/templates/personalCenter/myOrder.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/manager-web/src/main/resources/templates/personalCenter/multiMedia_manage.html
-/manager-web/src/main/resources/templates/personalCenter/singlePicture_manage.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/manager-web/src/main/resources/templates/dataCustom_manage.html</t>
-  </si>
-  <si>
-    <t>/manager-web/src/main/resources/templates/invoice_manage.html</t>
-  </si>
-  <si>
-    <t>/manager-web/src/main/resources/templates/uesr_manage.html</t>
-  </si>
-  <si>
-    <t>线下汇款(tangyk)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mall-web/src/main/resources/templates/shoppint_cart.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mall-web/src/main/resources/templates/offline_remittance.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车(tangyk)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商家管理（供应商管理）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品分类配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manager-web</t>
-  </si>
-  <si>
-    <t>/manager-web/src/main/resources/templates/supplier_manage.html</t>
+    <t>/manager-web/src/main/resources/templates/apikey_manage.html</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1038,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
@@ -1194,33 +1201,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1243,18 +1223,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="10" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1262,6 +1230,64 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="10" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1602,10 +1628,10 @@
       <c r="B1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="63"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1655,7 +1681,7 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="77" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -1685,7 +1711,7 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="23" t="s">
         <v>35</v>
       </c>
@@ -1713,7 +1739,7 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="23" t="s">
         <v>35</v>
       </c>
@@ -1741,7 +1767,7 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="23" t="s">
         <v>35</v>
       </c>
@@ -1769,7 +1795,7 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="23" t="s">
         <v>35</v>
       </c>
@@ -1797,7 +1823,7 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="67"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="23" t="s">
         <v>35</v>
       </c>
@@ -1825,7 +1851,7 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="67"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="23" t="s">
         <v>35</v>
       </c>
@@ -1853,7 +1879,7 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="67"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="23" t="s">
         <v>35</v>
       </c>
@@ -1881,7 +1907,7 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="67"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="23" t="s">
         <v>35</v>
       </c>
@@ -1909,7 +1935,7 @@
       <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="75" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1939,7 +1965,7 @@
       <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="64"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="21" t="s">
         <v>47</v>
       </c>
@@ -1967,7 +1993,7 @@
       <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="64"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="21" t="s">
         <v>47</v>
       </c>
@@ -1995,7 +2021,7 @@
       <c r="A15" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="64"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="21" t="s">
         <v>47</v>
       </c>
@@ -2023,7 +2049,7 @@
       <c r="A16" s="11">
         <v>16</v>
       </c>
-      <c r="B16" s="65"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="21" t="s">
         <v>47</v>
       </c>
@@ -2051,7 +2077,7 @@
       <c r="A17" s="11">
         <v>17</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="79" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="20"/>
@@ -2079,7 +2105,7 @@
       <c r="A18" s="11">
         <v>18</v>
       </c>
-      <c r="B18" s="69"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="21"/>
       <c r="D18" s="17" t="s">
         <v>31</v>
@@ -2135,7 +2161,7 @@
       <c r="A20" s="11">
         <v>20</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="77" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="20"/>
@@ -2163,7 +2189,7 @@
       <c r="A21" s="11">
         <v>21</v>
       </c>
-      <c r="B21" s="64"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="23" t="s">
         <v>35</v>
       </c>
@@ -2191,7 +2217,7 @@
       <c r="A22" s="11">
         <v>22</v>
       </c>
-      <c r="B22" s="64"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
@@ -2219,7 +2245,7 @@
       <c r="A23" s="11">
         <v>23</v>
       </c>
-      <c r="B23" s="64"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="23" t="s">
         <v>35</v>
       </c>
@@ -2247,7 +2273,7 @@
       <c r="A24" s="11">
         <v>24</v>
       </c>
-      <c r="B24" s="65"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="24"/>
       <c r="D24" s="15" t="s">
         <v>58</v>
@@ -2267,7 +2293,7 @@
       <c r="A25" s="11">
         <v>25</v>
       </c>
-      <c r="B25" s="64"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="21" t="s">
         <v>47</v>
       </c>
@@ -2291,7 +2317,7 @@
       <c r="A26" s="11">
         <v>26</v>
       </c>
-      <c r="B26" s="64"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="21" t="s">
         <v>47</v>
       </c>
@@ -2313,7 +2339,7 @@
       <c r="A27" s="11">
         <v>27</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="23" t="s">
         <v>35</v>
       </c>
@@ -2341,7 +2367,7 @@
       <c r="A28" s="11">
         <v>28</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="23" t="s">
         <v>35</v>
       </c>
@@ -2369,7 +2395,7 @@
       <c r="A29" s="11">
         <v>29</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="21" t="s">
         <v>47</v>
       </c>
@@ -2397,7 +2423,7 @@
       <c r="A30" s="11">
         <v>31</v>
       </c>
-      <c r="B30" s="64"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="21" t="s">
         <v>47</v>
       </c>
@@ -2427,7 +2453,7 @@
       <c r="A31" s="11">
         <v>32</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="21"/>
       <c r="D31" s="17" t="s">
         <v>64</v>
@@ -2453,7 +2479,7 @@
       <c r="A32" s="11">
         <v>33</v>
       </c>
-      <c r="B32" s="64"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="21"/>
       <c r="D32" s="17" t="s">
         <v>33</v>
@@ -2479,7 +2505,7 @@
       <c r="A33" s="11">
         <v>34</v>
       </c>
-      <c r="B33" s="64"/>
+      <c r="B33" s="75"/>
       <c r="C33" s="21" t="s">
         <v>47</v>
       </c>
@@ -2507,7 +2533,7 @@
       <c r="A34" s="11">
         <v>35</v>
       </c>
-      <c r="B34" s="64"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="21"/>
       <c r="D34" s="15" t="s">
         <v>66</v>
@@ -2533,7 +2559,7 @@
       <c r="A35" s="11">
         <v>36</v>
       </c>
-      <c r="B35" s="64"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="21" t="s">
         <v>47</v>
       </c>
@@ -2561,7 +2587,7 @@
       <c r="A36" s="11">
         <v>37</v>
       </c>
-      <c r="B36" s="64"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="21"/>
       <c r="D36" s="17" t="s">
         <v>34</v>
@@ -2587,7 +2613,7 @@
       <c r="A37" s="11">
         <v>38</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="21" t="s">
         <v>47</v>
       </c>
@@ -2615,7 +2641,7 @@
       <c r="A38" s="11">
         <v>39</v>
       </c>
-      <c r="B38" s="64"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="21" t="s">
         <v>47</v>
       </c>
@@ -2643,7 +2669,7 @@
       <c r="A39" s="11">
         <v>40</v>
       </c>
-      <c r="B39" s="64"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="21"/>
       <c r="D39" s="15" t="s">
         <v>70</v>
@@ -2675,7 +2701,7 @@
       <c r="A40" s="11">
         <v>41</v>
       </c>
-      <c r="B40" s="65"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="24"/>
       <c r="D40" s="15" t="s">
         <v>71</v>
@@ -2697,7 +2723,7 @@
       <c r="A41" s="11">
         <v>42</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="77" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="21"/>
@@ -2725,7 +2751,7 @@
       <c r="A42" s="11">
         <v>43</v>
       </c>
-      <c r="B42" s="64"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="21" t="s">
         <v>47</v>
       </c>
@@ -2753,7 +2779,7 @@
       <c r="A43" s="11">
         <v>44</v>
       </c>
-      <c r="B43" s="64"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="21" t="s">
         <v>47</v>
       </c>
@@ -2781,7 +2807,7 @@
       <c r="A44" s="11">
         <v>45</v>
       </c>
-      <c r="B44" s="64"/>
+      <c r="B44" s="75"/>
       <c r="C44" s="21"/>
       <c r="D44" s="15" t="s">
         <v>74</v>
@@ -2807,7 +2833,7 @@
       <c r="A45" s="11">
         <v>46</v>
       </c>
-      <c r="B45" s="64"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="21"/>
       <c r="D45" s="15" t="s">
         <v>76</v>
@@ -2833,7 +2859,7 @@
       <c r="A46" s="11">
         <v>47</v>
       </c>
-      <c r="B46" s="64"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="21" t="s">
         <v>47</v>
       </c>
@@ -2861,7 +2887,7 @@
       <c r="A47" s="11">
         <v>48</v>
       </c>
-      <c r="B47" s="64"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="21"/>
       <c r="D47" s="15" t="s">
         <v>77</v>
@@ -2887,7 +2913,7 @@
       <c r="A48" s="11">
         <v>49</v>
       </c>
-      <c r="B48" s="65"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="24"/>
       <c r="D48" s="15" t="s">
         <v>78</v>
@@ -3110,8 +3136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3138,7 +3164,7 @@
         <v>28</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D1" s="36"/>
       <c r="E1" s="3" t="s">
@@ -3177,7 +3203,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>36</v>
@@ -3224,7 +3250,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>37</v>
@@ -3298,13 +3324,13 @@
         <v>12</v>
       </c>
       <c r="L4" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M4" s="55" t="s">
         <v>128</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -3351,7 +3377,7 @@
         <v>128</v>
       </c>
       <c r="N5" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -3462,7 +3488,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="40">
         <v>42863</v>
@@ -3486,19 +3512,19 @@
         <v>15</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M8" s="55" t="s">
         <v>127</v>
       </c>
       <c r="N8" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
     </row>
-    <row r="9" spans="1:17" s="12" customFormat="1" ht="30.75" customHeight="1">
+    <row r="9" spans="1:17" s="12" customFormat="1" ht="125.25" customHeight="1">
       <c r="A9" s="11">
         <v>43</v>
       </c>
@@ -3509,7 +3535,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="E9" s="27">
         <v>42857</v>
@@ -3539,7 +3565,7 @@
         <v>127</v>
       </c>
       <c r="N9" s="52" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
@@ -3553,7 +3579,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>45</v>
@@ -3580,13 +3606,13 @@
         <v>17</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M10" s="55" t="s">
         <v>127</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -3600,7 +3626,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>41</v>
@@ -3633,7 +3659,7 @@
         <v>127</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -3674,13 +3700,13 @@
         <v>20</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M12" s="55" t="s">
         <v>127</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
@@ -3695,7 +3721,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
@@ -3705,13 +3731,13 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M13" s="55" t="s">
         <v>127</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -3726,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
@@ -3736,13 +3762,13 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M14" s="55" t="s">
         <v>127</v>
       </c>
       <c r="N14" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
@@ -3756,7 +3782,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>44</v>
@@ -3783,13 +3809,13 @@
         <v>21</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M15" s="55" t="s">
         <v>127</v>
       </c>
       <c r="N15" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
@@ -3803,7 +3829,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>39</v>
@@ -3830,13 +3856,13 @@
         <v>22</v>
       </c>
       <c r="L16" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M16" s="55" t="s">
         <v>127</v>
       </c>
       <c r="N16" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
@@ -3877,13 +3903,13 @@
         <v>22</v>
       </c>
       <c r="L17" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M17" s="55" t="s">
         <v>127</v>
       </c>
       <c r="N17" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
@@ -3963,54 +3989,60 @@
         <v>23</v>
       </c>
       <c r="L19" s="55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M19" s="55" t="s">
         <v>127</v>
       </c>
       <c r="N19" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
     </row>
-    <row r="20" spans="1:17" s="83" customFormat="1">
-      <c r="A20" s="71">
-        <v>47</v>
-      </c>
-      <c r="B20" s="82" t="s">
+    <row r="20" spans="1:17" s="92" customFormat="1">
+      <c r="A20" s="88">
+        <v>47</v>
+      </c>
+      <c r="B20" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="90">
         <v>42871</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="90">
         <v>42873</v>
       </c>
-      <c r="G20" s="71" t="s">
+      <c r="G20" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="71"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="71">
+      <c r="H20" s="88"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="88">
         <v>2</v>
       </c>
-      <c r="K20" s="71">
+      <c r="K20" s="88">
         <v>23</v>
       </c>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
+      <c r="L20" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="M20" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" s="5" customFormat="1">
       <c r="A21" s="11">
@@ -4020,7 +4052,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>43</v>
@@ -4047,96 +4079,96 @@
         <v>24</v>
       </c>
       <c r="L21" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M21" s="55" t="s">
         <v>127</v>
       </c>
       <c r="N21" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="1:17" s="78" customFormat="1">
-      <c r="A22" s="71">
+    <row r="22" spans="1:17" s="69" customFormat="1">
+      <c r="A22" s="62">
         <v>46</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="71" t="s">
+      <c r="C22" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="74">
+      <c r="E22" s="65">
         <v>42840</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="65">
         <v>42842</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="75">
+      <c r="H22" s="62"/>
+      <c r="I22" s="66">
         <v>1</v>
       </c>
-      <c r="J22" s="71">
+      <c r="J22" s="62">
         <v>2</v>
       </c>
-      <c r="K22" s="71">
+      <c r="K22" s="62">
         <v>25</v>
       </c>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="77"/>
-    </row>
-    <row r="23" spans="1:17" s="78" customFormat="1">
-      <c r="A23" s="70">
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="68"/>
+    </row>
+    <row r="23" spans="1:17" s="10" customFormat="1">
+      <c r="A23" s="81">
         <v>34</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="80">
+      <c r="C23" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="84">
         <v>42867</v>
       </c>
-      <c r="F23" s="80">
+      <c r="F23" s="84">
         <v>42871</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="81" t="s">
+      <c r="H23" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="70">
+      <c r="I23" s="81">
         <v>0</v>
       </c>
-      <c r="J23" s="70">
+      <c r="J23" s="81">
         <v>3</v>
       </c>
-      <c r="K23" s="70">
+      <c r="K23" s="81">
         <v>28</v>
       </c>
-      <c r="L23" s="55" t="s">
+      <c r="L23" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="M23" s="55" t="s">
+      <c r="M23" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="N23" s="77" t="s">
-        <v>167</v>
+      <c r="N23" s="87" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="45" customFormat="1" ht="35.1" customHeight="1">
@@ -4150,7 +4182,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="27">
         <v>42871</v>
@@ -4174,13 +4206,13 @@
         <v>30</v>
       </c>
       <c r="L24" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M24" s="55" t="s">
         <v>127</v>
       </c>
       <c r="N24" s="61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O24" s="44"/>
       <c r="P24" s="44"/>
@@ -4221,13 +4253,13 @@
         <v>31</v>
       </c>
       <c r="L25" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M25" s="55" t="s">
         <v>127</v>
       </c>
       <c r="N25" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
@@ -4274,7 +4306,7 @@
         <v>127</v>
       </c>
       <c r="N26" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
@@ -4315,13 +4347,13 @@
         <v>40</v>
       </c>
       <c r="L27" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M27" s="55" t="s">
         <v>127</v>
       </c>
       <c r="N27" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
@@ -4362,7 +4394,7 @@
         <v>41</v>
       </c>
       <c r="L28" s="60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M28" s="55"/>
       <c r="N28" s="51"/>
@@ -4405,7 +4437,7 @@
         <v>50</v>
       </c>
       <c r="L29" s="60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M29" s="55"/>
       <c r="N29" s="51"/>
@@ -4503,7 +4535,7 @@
         <v>101</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>103</v>
@@ -5350,20 +5382,22 @@
       <c r="P55" s="22"/>
       <c r="Q55" s="22"/>
     </row>
-    <row r="56" spans="1:17" s="83" customFormat="1">
-      <c r="B56" s="83" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="83" t="s">
+    <row r="56" spans="1:17" s="70" customFormat="1">
+      <c r="B56" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="G56" s="71" t="s">
+      <c r="C56" s="64"/>
+      <c r="D56" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="85"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N56" s="72"/>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="11"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24945" windowHeight="14085" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="170">
   <si>
     <t>人员</t>
     <rPh sb="0" eb="1">
@@ -553,10 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商家管理（不做）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>manager-web</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,6 +602,139 @@
   </si>
   <si>
     <t>/manager-web/src/main/resources/templates/menus_manage.html</t>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/myfavorite.html</t>
+  </si>
+  <si>
+    <t>下单功能（数据购买）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/order_manage.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liangsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/goods_classification.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/mybill_apply.html
+/mall-web/src/main/resources/templates/personalCenter/mybill.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/mydata.html</t>
+  </si>
+  <si>
+    <t>liangsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/goods_complaint.html</t>
+  </si>
+  <si>
+    <t>唐演坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐演坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/personalCenter/data_purchase.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐演坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI界面调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager-web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多媒体资料管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/goods_list_gys.html</t>
+  </si>
+  <si>
+    <t>不做了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liangsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/personalCenter/browsing_ history.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/personalCenter/myOrder.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/personalCenter/multiMedia_manage.html
+/manager-web/src/main/resources/templates/personalCenter/singlePicture_manage.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/dataCustom_manage.html</t>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/invoice_manage.html</t>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/uesr_manage.html</t>
+  </si>
+  <si>
+    <t>线下汇款(tangyk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/shoppint_cart.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/mall-web/src/main/resources/templates/offline_remittance.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车(tangyk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家管理（供应商管理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager-web</t>
+  </si>
+  <si>
+    <t>/manager-web/src/main/resources/templates/supplier_manage.html</t>
+  </si>
+  <si>
+    <t>API接口文档维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/manager-web/src/main/resources/templates/api_document_deploy.html
@@ -610,58 +744,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/mall-web/src/main/resources/templates/personalCenter/myfavorite.html</t>
-  </si>
-  <si>
-    <t>下单功能（数据购买）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/manager-web/src/main/resources/templates/order_manage.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liangsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/manager-web/src/main/resources/templates/goods_classification.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mall-web/src/main/resources/templates/personalCenter/mybill_apply.html
-/mall-web/src/main/resources/templates/personalCenter/mybill.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mall-web/src/main/resources/templates/personalCenter/mydata.html</t>
-  </si>
-  <si>
-    <t>liangsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mall-web/src/main/resources/templates/personalCenter/goods_complaint.html</t>
-  </si>
-  <si>
-    <t>唐演坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐演坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mall-web/src/main/resources/templates/personalCenter/myOrder.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mall-web/src/main/resources/templates/personalCenter/data_purchase.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐演坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>/manager-web/src/main/resources/templates/apikey_manage.html</t>
   </si>
 </sst>
 </file>
@@ -671,7 +754,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -783,7 +866,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -817,6 +900,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,11 +1000,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -929,7 +1038,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
@@ -1046,21 +1155,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,9 +1174,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1092,9 +1183,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1104,6 +1192,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,8 +1254,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="10" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="34">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -1137,13 +1298,32 @@
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1413,7 +1593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1427,18 +1607,18 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1">
@@ -1448,10 +1628,10 @@
       <c r="B1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="67"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1501,7 +1681,7 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="77" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -1531,7 +1711,7 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="23" t="s">
         <v>35</v>
       </c>
@@ -1559,7 +1739,7 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="71"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="23" t="s">
         <v>35</v>
       </c>
@@ -1587,7 +1767,7 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="23" t="s">
         <v>35</v>
       </c>
@@ -1615,7 +1795,7 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="23" t="s">
         <v>35</v>
       </c>
@@ -1643,7 +1823,7 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="23" t="s">
         <v>35</v>
       </c>
@@ -1671,7 +1851,7 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="71"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="23" t="s">
         <v>35</v>
       </c>
@@ -1699,7 +1879,7 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="71"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="23" t="s">
         <v>35</v>
       </c>
@@ -1727,7 +1907,7 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="71"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="23" t="s">
         <v>35</v>
       </c>
@@ -1755,7 +1935,7 @@
       <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="75" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1785,7 +1965,7 @@
       <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="21" t="s">
         <v>47</v>
       </c>
@@ -1813,7 +1993,7 @@
       <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="21" t="s">
         <v>47</v>
       </c>
@@ -1841,7 +2021,7 @@
       <c r="A15" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="21" t="s">
         <v>47</v>
       </c>
@@ -1869,7 +2049,7 @@
       <c r="A16" s="11">
         <v>16</v>
       </c>
-      <c r="B16" s="69"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="21" t="s">
         <v>47</v>
       </c>
@@ -1897,7 +2077,7 @@
       <c r="A17" s="11">
         <v>17</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="79" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="20"/>
@@ -1925,7 +2105,7 @@
       <c r="A18" s="11">
         <v>18</v>
       </c>
-      <c r="B18" s="73"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="21"/>
       <c r="D18" s="17" t="s">
         <v>31</v>
@@ -1981,7 +2161,7 @@
       <c r="A20" s="11">
         <v>20</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="77" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="20"/>
@@ -2009,7 +2189,7 @@
       <c r="A21" s="11">
         <v>21</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="23" t="s">
         <v>35</v>
       </c>
@@ -2037,7 +2217,7 @@
       <c r="A22" s="11">
         <v>22</v>
       </c>
-      <c r="B22" s="68"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
@@ -2065,7 +2245,7 @@
       <c r="A23" s="11">
         <v>23</v>
       </c>
-      <c r="B23" s="68"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="23" t="s">
         <v>35</v>
       </c>
@@ -2093,7 +2273,7 @@
       <c r="A24" s="11">
         <v>24</v>
       </c>
-      <c r="B24" s="69"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="24"/>
       <c r="D24" s="15" t="s">
         <v>58</v>
@@ -2113,7 +2293,7 @@
       <c r="A25" s="11">
         <v>25</v>
       </c>
-      <c r="B25" s="68"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="21" t="s">
         <v>47</v>
       </c>
@@ -2137,7 +2317,7 @@
       <c r="A26" s="11">
         <v>26</v>
       </c>
-      <c r="B26" s="68"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="21" t="s">
         <v>47</v>
       </c>
@@ -2159,7 +2339,7 @@
       <c r="A27" s="11">
         <v>27</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="23" t="s">
         <v>35</v>
       </c>
@@ -2187,7 +2367,7 @@
       <c r="A28" s="11">
         <v>28</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="23" t="s">
         <v>35</v>
       </c>
@@ -2215,7 +2395,7 @@
       <c r="A29" s="11">
         <v>29</v>
       </c>
-      <c r="B29" s="68"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="21" t="s">
         <v>47</v>
       </c>
@@ -2243,7 +2423,7 @@
       <c r="A30" s="11">
         <v>31</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="21" t="s">
         <v>47</v>
       </c>
@@ -2273,7 +2453,7 @@
       <c r="A31" s="11">
         <v>32</v>
       </c>
-      <c r="B31" s="68"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="21"/>
       <c r="D31" s="17" t="s">
         <v>64</v>
@@ -2299,7 +2479,7 @@
       <c r="A32" s="11">
         <v>33</v>
       </c>
-      <c r="B32" s="68"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="21"/>
       <c r="D32" s="17" t="s">
         <v>33</v>
@@ -2325,7 +2505,7 @@
       <c r="A33" s="11">
         <v>34</v>
       </c>
-      <c r="B33" s="68"/>
+      <c r="B33" s="75"/>
       <c r="C33" s="21" t="s">
         <v>47</v>
       </c>
@@ -2353,7 +2533,7 @@
       <c r="A34" s="11">
         <v>35</v>
       </c>
-      <c r="B34" s="68"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="21"/>
       <c r="D34" s="15" t="s">
         <v>66</v>
@@ -2379,7 +2559,7 @@
       <c r="A35" s="11">
         <v>36</v>
       </c>
-      <c r="B35" s="68"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="21" t="s">
         <v>47</v>
       </c>
@@ -2407,7 +2587,7 @@
       <c r="A36" s="11">
         <v>37</v>
       </c>
-      <c r="B36" s="68"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="21"/>
       <c r="D36" s="17" t="s">
         <v>34</v>
@@ -2433,7 +2613,7 @@
       <c r="A37" s="11">
         <v>38</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="21" t="s">
         <v>47</v>
       </c>
@@ -2461,7 +2641,7 @@
       <c r="A38" s="11">
         <v>39</v>
       </c>
-      <c r="B38" s="68"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="21" t="s">
         <v>47</v>
       </c>
@@ -2489,7 +2669,7 @@
       <c r="A39" s="11">
         <v>40</v>
       </c>
-      <c r="B39" s="68"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="21"/>
       <c r="D39" s="15" t="s">
         <v>70</v>
@@ -2521,7 +2701,7 @@
       <c r="A40" s="11">
         <v>41</v>
       </c>
-      <c r="B40" s="69"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="24"/>
       <c r="D40" s="15" t="s">
         <v>71</v>
@@ -2543,7 +2723,7 @@
       <c r="A41" s="11">
         <v>42</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="77" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="21"/>
@@ -2571,7 +2751,7 @@
       <c r="A42" s="11">
         <v>43</v>
       </c>
-      <c r="B42" s="68"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="21" t="s">
         <v>47</v>
       </c>
@@ -2599,7 +2779,7 @@
       <c r="A43" s="11">
         <v>44</v>
       </c>
-      <c r="B43" s="68"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="21" t="s">
         <v>47</v>
       </c>
@@ -2627,7 +2807,7 @@
       <c r="A44" s="11">
         <v>45</v>
       </c>
-      <c r="B44" s="68"/>
+      <c r="B44" s="75"/>
       <c r="C44" s="21"/>
       <c r="D44" s="15" t="s">
         <v>74</v>
@@ -2653,7 +2833,7 @@
       <c r="A45" s="11">
         <v>46</v>
       </c>
-      <c r="B45" s="68"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="21"/>
       <c r="D45" s="15" t="s">
         <v>76</v>
@@ -2679,7 +2859,7 @@
       <c r="A46" s="11">
         <v>47</v>
       </c>
-      <c r="B46" s="68"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="21" t="s">
         <v>47</v>
       </c>
@@ -2707,7 +2887,7 @@
       <c r="A47" s="11">
         <v>48</v>
       </c>
-      <c r="B47" s="68"/>
+      <c r="B47" s="75"/>
       <c r="C47" s="21"/>
       <c r="D47" s="15" t="s">
         <v>77</v>
@@ -2733,7 +2913,7 @@
       <c r="A48" s="11">
         <v>49</v>
       </c>
-      <c r="B48" s="69"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="24"/>
       <c r="D48" s="15" t="s">
         <v>78</v>
@@ -2954,2044 +3134,2312 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11" style="65"/>
-    <col min="13" max="13" width="101.7109375" style="60" customWidth="1"/>
-    <col min="14" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11" style="58"/>
+    <col min="14" max="14" width="101.75" style="54" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="11">
-        <v>3</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="40">
-        <v>42857</v>
-      </c>
-      <c r="E1" s="40">
-        <v>42857</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="15">
+    <row r="1" spans="1:17">
+      <c r="A1" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="15">
-        <v>3</v>
-      </c>
-      <c r="J1" s="15">
-        <v>11</v>
-      </c>
-      <c r="K1" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" s="22"/>
+      <c r="H1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="51"/>
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
-    </row>
-    <row r="2" spans="1:16" ht="23" customHeight="1">
-      <c r="A2" s="34">
-        <v>4</v>
-      </c>
-      <c r="B2" s="51" t="s">
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="11">
+        <v>3</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="40">
-        <v>42858</v>
+      <c r="C2" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="E2" s="40">
-        <v>42858</v>
-      </c>
-      <c r="F2" s="41" t="s">
+        <v>42857</v>
+      </c>
+      <c r="F2" s="40">
+        <v>42857</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="H2" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="15">
+      <c r="I2" s="15">
         <v>0</v>
       </c>
-      <c r="I2" s="15">
+      <c r="J2" s="15">
         <v>3</v>
       </c>
-      <c r="J2" s="15">
+      <c r="K2" s="15">
         <v>11</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="L2" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="M2" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="N2" s="22"/>
+      <c r="N2" s="51" t="s">
+        <v>129</v>
+      </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
-    </row>
-    <row r="3" spans="1:16" ht="23" customHeight="1">
-      <c r="A3" s="11">
-        <v>29</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="27">
-        <v>42859</v>
-      </c>
-      <c r="E3" s="27">
-        <v>42863</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="15">
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" ht="23.1" customHeight="1">
+      <c r="A3" s="34">
+        <v>4</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="40">
+        <v>42858</v>
+      </c>
+      <c r="F3" s="40">
+        <v>42858</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="15">
         <v>0</v>
       </c>
-      <c r="I3" s="15">
+      <c r="J3" s="15">
         <v>3</v>
       </c>
-      <c r="J3" s="15">
-        <v>12</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="N3" s="22"/>
+      <c r="K3" s="15">
+        <v>11</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>130</v>
+      </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
-    </row>
-    <row r="4" spans="1:16" s="12" customFormat="1" ht="25" customHeight="1">
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" ht="23.1" customHeight="1">
       <c r="A4" s="11">
-        <v>16</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="40">
-        <v>42857</v>
-      </c>
-      <c r="E4" s="40">
-        <v>42865</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="15">
+        <v>29</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="27">
+        <v>42859</v>
+      </c>
+      <c r="F4" s="27">
+        <v>42863</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="15">
         <v>0</v>
       </c>
-      <c r="I4" s="15">
+      <c r="J4" s="15">
         <v>3</v>
       </c>
-      <c r="J4" s="15">
-        <v>13</v>
-      </c>
-      <c r="K4" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="M4" s="56" t="s">
+      <c r="K4" s="15">
+        <v>12</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:16" s="12" customFormat="1" ht="45" customHeight="1">
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" s="12" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="11">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="29">
-        <v>42858</v>
-      </c>
-      <c r="E5" s="29">
-        <v>42859</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="C5" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="40">
+        <v>42857</v>
+      </c>
+      <c r="F5" s="40">
+        <v>42865</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="15">
         <v>0</v>
       </c>
-      <c r="I5" s="15">
+      <c r="J5" s="15">
         <v>3</v>
       </c>
-      <c r="J5" s="15">
+      <c r="K5" s="15">
         <v>13</v>
       </c>
-      <c r="K5" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="M5" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="N5" s="22"/>
+      <c r="N5" s="51" t="s">
+        <v>135</v>
+      </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" spans="1:17" s="12" customFormat="1" ht="45" customHeight="1">
       <c r="A6" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="29">
-        <v>42860</v>
+      <c r="C6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="E6" s="29">
-        <v>42861</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>87</v>
+        <v>42858</v>
+      </c>
+      <c r="F6" s="29">
+        <v>42859</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="15">
         <v>0</v>
       </c>
-      <c r="I6" s="15">
+      <c r="J6" s="15">
         <v>3</v>
       </c>
-      <c r="J6" s="15">
-        <v>14</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="L6" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="M6" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="N6" s="22"/>
+      <c r="K6" s="15">
+        <v>13</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N6" s="52" t="s">
+        <v>131</v>
+      </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="1:16" ht="17" customHeight="1">
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="11">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="40">
-        <v>42863</v>
-      </c>
-      <c r="E7" s="40">
-        <v>42866</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="15">
+        <v>47</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="29">
+        <v>42860</v>
+      </c>
+      <c r="F7" s="29">
+        <v>42861</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="15">
         <v>0</v>
       </c>
-      <c r="I7" s="15">
-        <v>2</v>
-      </c>
       <c r="J7" s="15">
-        <v>15</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="M7" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="N7" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K7" s="15">
+        <v>14</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="1:16" s="12" customFormat="1" ht="77" customHeight="1">
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="11">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="27">
-        <v>42857</v>
-      </c>
-      <c r="E8" s="27">
-        <v>42864</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="15">
+        <v>35</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="40">
+        <v>42863</v>
+      </c>
+      <c r="F8" s="40">
+        <v>42866</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="15">
         <v>0</v>
       </c>
-      <c r="I8" s="15">
+      <c r="J8" s="15">
         <v>2</v>
       </c>
-      <c r="J8" s="15">
-        <v>16</v>
-      </c>
-      <c r="K8" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="L8" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" s="22"/>
+      <c r="K8" s="15">
+        <v>15</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>144</v>
+      </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="1:16" ht="17" customHeight="1">
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:17" s="12" customFormat="1" ht="125.25" customHeight="1">
       <c r="A9" s="11">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="40">
-        <v>42867</v>
-      </c>
-      <c r="E9" s="41">
-        <v>42868</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="15">
+        <v>47</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="27">
+        <v>42857</v>
+      </c>
+      <c r="F9" s="27">
+        <v>42864</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="15">
         <v>0</v>
       </c>
-      <c r="I9" s="15">
+      <c r="J9" s="15">
         <v>2</v>
       </c>
-      <c r="J9" s="15">
-        <v>17</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="L9" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="M9" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="N9" s="22"/>
+      <c r="K9" s="15">
+        <v>16</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>168</v>
+      </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" s="5" customFormat="1">
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="27">
-        <v>42863</v>
-      </c>
-      <c r="E10" s="27">
-        <v>42866</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="15">
+      <c r="C10" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="40">
+        <v>42867</v>
+      </c>
+      <c r="F10" s="41">
+        <v>42868</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="15">
         <v>0</v>
       </c>
-      <c r="I10" s="15">
-        <v>3</v>
-      </c>
       <c r="J10" s="15">
-        <v>18</v>
-      </c>
-      <c r="K10" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="L10" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="M10" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="N10" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="15">
+        <v>17</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>154</v>
+      </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" s="5" customFormat="1" ht="19" customHeight="1">
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="1:17" s="5" customFormat="1">
       <c r="A11" s="11">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="40">
-        <v>42867</v>
-      </c>
-      <c r="E11" s="40">
-        <v>42880</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="C11" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="27">
+        <v>42863</v>
+      </c>
+      <c r="F11" s="27">
+        <v>42866</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="15">
         <v>0</v>
       </c>
-      <c r="I11" s="15">
-        <v>2</v>
-      </c>
       <c r="J11" s="15">
-        <v>20</v>
-      </c>
-      <c r="K11" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="L11" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="M11" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="N11" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="15">
+        <v>18</v>
+      </c>
+      <c r="L11" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>133</v>
+      </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
-    </row>
-    <row r="12" spans="1:16" ht="19" customHeight="1">
+      <c r="Q11" s="22"/>
+    </row>
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="18.95" customHeight="1">
       <c r="A12" s="11">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="40">
-        <v>42865</v>
+      <c r="C12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="E12" s="40">
         <v>42867</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="42" t="s">
+      <c r="F12" s="40">
+        <v>42880</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="15">
+      <c r="I12" s="15">
         <v>0</v>
       </c>
-      <c r="I12" s="15">
+      <c r="J12" s="15">
         <v>2</v>
       </c>
-      <c r="J12" s="15">
-        <v>21</v>
-      </c>
-      <c r="K12" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="M12" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="N12" s="22"/>
+      <c r="K12" s="15">
+        <v>20</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" s="51" t="s">
+        <v>144</v>
+      </c>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
-    </row>
-    <row r="13" spans="1:16" ht="39" customHeight="1">
-      <c r="A13" s="11">
-        <v>6</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="Q12" s="22"/>
+    </row>
+    <row r="13" spans="1:17" s="5" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="40">
-        <v>42867</v>
-      </c>
-      <c r="E13" s="40">
-        <v>42870</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="15">
-        <v>3</v>
-      </c>
-      <c r="J13" s="15">
-        <v>22</v>
-      </c>
-      <c r="K13" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="M13" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="N13" s="22"/>
+      <c r="C13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" s="51" t="s">
+        <v>160</v>
+      </c>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="11">
-        <v>19</v>
-      </c>
-      <c r="B14" s="21" t="s">
+      <c r="Q13" s="22"/>
+    </row>
+    <row r="14" spans="1:17" s="5" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="29">
-        <v>42865</v>
-      </c>
-      <c r="E14" s="29">
-        <v>42867</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15">
-        <v>3</v>
-      </c>
-      <c r="J14" s="15">
-        <v>22</v>
-      </c>
-      <c r="K14" s="61" t="s">
+      <c r="C14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="61"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="22"/>
+      <c r="M14" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="51" t="s">
+        <v>161</v>
+      </c>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
-    </row>
-    <row r="15" spans="1:16" s="5" customFormat="1">
-      <c r="A15" s="17">
+      <c r="Q14" s="22"/>
+    </row>
+    <row r="15" spans="1:17" ht="18.95" customHeight="1">
+      <c r="A15" s="11">
+        <v>9</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="19">
+      <c r="E15" s="40">
         <v>42865</v>
       </c>
-      <c r="E15" s="19">
-        <v>42870</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18">
-        <v>1</v>
-      </c>
-      <c r="I15" s="17">
+      <c r="F15" s="40">
+        <v>42867</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
         <v>2</v>
       </c>
-      <c r="J15" s="17">
-        <v>22</v>
-      </c>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="22"/>
+      <c r="K15" s="15">
+        <v>21</v>
+      </c>
+      <c r="L15" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" s="51" t="s">
+        <v>139</v>
+      </c>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
-    </row>
-    <row r="16" spans="1:16" s="5" customFormat="1">
+      <c r="Q15" s="22"/>
+    </row>
+    <row r="16" spans="1:17" ht="39" customHeight="1">
       <c r="A16" s="11">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="40">
+      <c r="C16" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="40">
+        <v>42867</v>
+      </c>
+      <c r="F16" s="40">
         <v>42870</v>
       </c>
-      <c r="E16" s="40">
-        <v>42872</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="15">
+      <c r="I16" s="15">
         <v>0</v>
       </c>
-      <c r="I16" s="15">
+      <c r="J16" s="15">
         <v>3</v>
       </c>
-      <c r="J16" s="15">
-        <v>23</v>
-      </c>
-      <c r="K16" s="61" t="s">
+      <c r="K16" s="15">
+        <v>22</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="L16" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="M16" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
-    </row>
-    <row r="17" spans="1:16" s="5" customFormat="1">
-      <c r="A17" s="17">
-        <v>47</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="19">
-        <v>42871</v>
-      </c>
-      <c r="E17" s="19">
-        <v>42873</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="17">
-        <v>2</v>
-      </c>
-      <c r="J17" s="17">
-        <v>23</v>
-      </c>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="22"/>
+      <c r="Q16" s="22"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="11">
+        <v>19</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="29">
+        <v>42865</v>
+      </c>
+      <c r="F17" s="29">
+        <v>42867</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <v>3</v>
+      </c>
+      <c r="K17" s="15">
+        <v>22</v>
+      </c>
+      <c r="L17" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N17" s="51" t="s">
+        <v>150</v>
+      </c>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
-    </row>
-    <row r="18" spans="1:16" s="5" customFormat="1">
-      <c r="A18" s="11">
-        <v>8</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="27">
-        <v>42867</v>
-      </c>
-      <c r="E18" s="27">
-        <v>42871</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15">
-        <v>3</v>
-      </c>
-      <c r="J18" s="15">
-        <v>24</v>
-      </c>
-      <c r="K18" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="L18" s="61"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="22"/>
+      <c r="Q17" s="22"/>
+    </row>
+    <row r="18" spans="1:17" s="5" customFormat="1">
+      <c r="A18" s="17">
+        <v>44</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="19">
+        <v>42865</v>
+      </c>
+      <c r="F18" s="19">
+        <v>42870</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="17">
+        <v>2</v>
+      </c>
+      <c r="K18" s="17">
+        <v>22</v>
+      </c>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="51"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
-    </row>
-    <row r="19" spans="1:16" s="12" customFormat="1">
-      <c r="A19" s="17">
+      <c r="Q18" s="22"/>
+    </row>
+    <row r="19" spans="1:17" s="5" customFormat="1">
+      <c r="A19" s="11">
+        <v>22</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="40">
+        <v>42870</v>
+      </c>
+      <c r="F19" s="40">
+        <v>42872</v>
+      </c>
+      <c r="G19" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="19">
-        <v>42840</v>
-      </c>
-      <c r="E19" s="19">
-        <v>42842</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18">
-        <v>1</v>
-      </c>
-      <c r="I19" s="17">
-        <v>2</v>
-      </c>
-      <c r="J19" s="17">
-        <v>25</v>
-      </c>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="22"/>
+      <c r="H19" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>3</v>
+      </c>
+      <c r="K19" s="15">
+        <v>23</v>
+      </c>
+      <c r="L19" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" s="51" t="s">
+        <v>141</v>
+      </c>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
-    </row>
-    <row r="20" spans="1:16" s="12" customFormat="1">
-      <c r="A20" s="44">
+      <c r="Q19" s="22"/>
+    </row>
+    <row r="20" spans="1:17" s="92" customFormat="1">
+      <c r="A20" s="88">
+        <v>47</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="90">
+        <v>42871</v>
+      </c>
+      <c r="F20" s="90">
+        <v>42873</v>
+      </c>
+      <c r="G20" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="88"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="88">
+        <v>2</v>
+      </c>
+      <c r="K20" s="88">
+        <v>23</v>
+      </c>
+      <c r="L20" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="M20" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" s="5" customFormat="1">
+      <c r="A21" s="11">
+        <v>8</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="27">
+        <v>42867</v>
+      </c>
+      <c r="F21" s="27">
+        <v>42871</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15">
+        <v>3</v>
+      </c>
+      <c r="K21" s="15">
+        <v>24</v>
+      </c>
+      <c r="L21" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="M21" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N21" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+    </row>
+    <row r="22" spans="1:17" s="69" customFormat="1">
+      <c r="A22" s="62">
+        <v>46</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="65">
+        <v>42840</v>
+      </c>
+      <c r="F22" s="65">
+        <v>42842</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="62"/>
+      <c r="I22" s="66">
+        <v>1</v>
+      </c>
+      <c r="J22" s="62">
+        <v>2</v>
+      </c>
+      <c r="K22" s="62">
+        <v>25</v>
+      </c>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="68"/>
+    </row>
+    <row r="23" spans="1:17" s="10" customFormat="1">
+      <c r="A23" s="81">
         <v>34</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B23" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="47">
+      <c r="C23" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="84">
         <v>42867</v>
       </c>
-      <c r="E20" s="47">
+      <c r="F23" s="84">
         <v>42871</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="G23" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="H23" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="46">
+      <c r="I23" s="81">
         <v>0</v>
       </c>
-      <c r="I20" s="46">
+      <c r="J23" s="81">
         <v>3</v>
       </c>
-      <c r="J20" s="46">
+      <c r="K23" s="81">
         <v>28</v>
       </c>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-    </row>
-    <row r="21" spans="1:16" s="50" customFormat="1">
-      <c r="A21" s="11">
+      <c r="L23" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="N23" s="87" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="45" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A24" s="11">
         <v>15</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="27">
+      <c r="B24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="27">
         <v>42871</v>
       </c>
-      <c r="E21" s="27">
+      <c r="F24" s="27">
         <v>42875</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="G24" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="H24" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="15">
+      <c r="I24" s="15">
         <v>0</v>
       </c>
-      <c r="I21" s="15">
+      <c r="J24" s="15">
         <v>3</v>
       </c>
-      <c r="J21" s="15">
+      <c r="K24" s="15">
         <v>30</v>
       </c>
-      <c r="K21" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="62"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-    </row>
-    <row r="22" spans="1:16" s="10" customFormat="1">
-      <c r="A22" s="11">
+      <c r="L24" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="M24" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N24" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+    </row>
+    <row r="25" spans="1:17" s="10" customFormat="1">
+      <c r="A25" s="11">
         <v>35</v>
       </c>
-      <c r="B22" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="40">
+      <c r="E25" s="40">
         <v>42871</v>
       </c>
-      <c r="E22" s="40">
+      <c r="F25" s="40">
         <v>42873</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="G25" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="H25" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="15">
+      <c r="I25" s="15">
         <v>0</v>
       </c>
-      <c r="I22" s="15">
+      <c r="J25" s="15">
         <v>3</v>
       </c>
-      <c r="J22" s="15">
+      <c r="K25" s="15">
         <v>31</v>
       </c>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-    </row>
-    <row r="23" spans="1:16" s="5" customFormat="1">
-      <c r="A23" s="11">
-        <v>36</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="29">
-        <v>42872</v>
-      </c>
-      <c r="E23" s="29">
-        <v>42874</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15">
-        <v>3</v>
-      </c>
-      <c r="J23" s="15">
-        <v>32</v>
-      </c>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="11">
-        <v>40</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="40">
-        <v>42873</v>
-      </c>
-      <c r="E24" s="40">
-        <v>42875</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0</v>
-      </c>
-      <c r="I24" s="15">
-        <v>3</v>
-      </c>
-      <c r="J24" s="15">
-        <v>40</v>
-      </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="11">
-        <v>50</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="40">
-        <v>42875</v>
-      </c>
-      <c r="E25" s="40">
-        <v>42878</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0</v>
-      </c>
-      <c r="I25" s="15">
-        <v>2</v>
-      </c>
-      <c r="J25" s="15">
-        <v>41</v>
-      </c>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="22"/>
+      <c r="L25" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="M25" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N25" s="51" t="s">
+        <v>157</v>
+      </c>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
-    </row>
-    <row r="26" spans="1:16" s="9" customFormat="1">
+      <c r="Q25" s="22"/>
+    </row>
+    <row r="26" spans="1:17" s="5" customFormat="1">
       <c r="A26" s="11">
-        <v>12</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="40">
-        <v>42852</v>
-      </c>
-      <c r="E26" s="40">
-        <v>42857</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H26" s="15">
+        <v>36</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="29">
+        <v>42872</v>
+      </c>
+      <c r="F26" s="29">
+        <v>42874</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="15">
         <v>0</v>
       </c>
-      <c r="I26" s="15">
+      <c r="J26" s="15">
         <v>3</v>
       </c>
-      <c r="J26" s="15">
-        <v>50</v>
-      </c>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="22"/>
+      <c r="K26" s="15">
+        <v>32</v>
+      </c>
+      <c r="L26" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N26" s="51" t="s">
+        <v>158</v>
+      </c>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
-    </row>
-    <row r="27" spans="1:16" s="9" customFormat="1">
-      <c r="A27" s="53">
-        <v>42</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" s="19">
-        <v>42853</v>
-      </c>
-      <c r="E27" s="19">
-        <v>42861</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="17">
+      <c r="Q26" s="22"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="11">
+        <v>40</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="40">
+        <v>42873</v>
+      </c>
+      <c r="F27" s="40">
+        <v>42875</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="15">
         <v>0</v>
       </c>
-      <c r="I27" s="17">
-        <v>2</v>
-      </c>
-      <c r="J27" s="17">
-        <v>50</v>
-      </c>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="22"/>
+      <c r="J27" s="15">
+        <v>3</v>
+      </c>
+      <c r="K27" s="15">
+        <v>40</v>
+      </c>
+      <c r="L27" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="M27" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N27" s="51" t="s">
+        <v>156</v>
+      </c>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
-    </row>
-    <row r="28" spans="1:16" s="55" customFormat="1">
-      <c r="A28" s="17">
+      <c r="Q27" s="22"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="11">
+        <v>50</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="40">
+        <v>42875</v>
+      </c>
+      <c r="F28" s="40">
+        <v>42878</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
         <v>2</v>
       </c>
-      <c r="B28" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="19">
-        <v>42849</v>
-      </c>
-      <c r="E28" s="19">
-        <v>42850</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="18">
-        <v>1</v>
-      </c>
-      <c r="I28" s="17">
-        <v>1</v>
-      </c>
-      <c r="J28" s="17">
-        <v>50</v>
-      </c>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-    </row>
-    <row r="29" spans="1:16" s="9" customFormat="1">
-      <c r="A29" s="17">
-        <v>5</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="19">
-        <v>42851</v>
-      </c>
-      <c r="E29" s="19">
-        <v>42851</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="18">
-        <v>1</v>
-      </c>
-      <c r="I29" s="17">
-        <v>1</v>
-      </c>
-      <c r="J29" s="17">
-        <v>50</v>
-      </c>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="22"/>
+      <c r="K28" s="15">
+        <v>41</v>
+      </c>
+      <c r="L28" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="M28" s="55"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+    </row>
+    <row r="29" spans="1:17" s="9" customFormat="1">
+      <c r="A29" s="11">
+        <v>12</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="40">
+        <v>42852</v>
+      </c>
+      <c r="F29" s="40">
+        <v>42857</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0</v>
+      </c>
+      <c r="J29" s="15">
+        <v>3</v>
+      </c>
+      <c r="K29" s="15">
+        <v>50</v>
+      </c>
+      <c r="L29" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="M29" s="55"/>
+      <c r="N29" s="51"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="17">
-        <v>13</v>
+      <c r="Q29" s="22"/>
+    </row>
+    <row r="30" spans="1:17" s="9" customFormat="1">
+      <c r="A30" s="48">
+        <v>42</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="19">
-        <v>42844</v>
+        <v>121</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="E30" s="19">
         <v>42853</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18">
-        <v>1</v>
+      <c r="F30" s="19">
+        <v>42861</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="I30" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="17">
-        <v>50</v>
-      </c>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K30" s="17">
+        <v>50</v>
+      </c>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="51"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
-    </row>
-    <row r="31" spans="1:16" s="5" customFormat="1">
+      <c r="Q30" s="22"/>
+    </row>
+    <row r="31" spans="1:17" s="50" customFormat="1">
       <c r="A31" s="17">
-        <v>14</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="19">
-        <v>42844</v>
+        <v>2</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="E31" s="19">
-        <v>42853</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18">
+        <v>42849</v>
+      </c>
+      <c r="F31" s="19">
+        <v>42850</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="18">
         <v>1</v>
       </c>
-      <c r="I31" s="17">
+      <c r="J31" s="17">
         <v>1</v>
       </c>
-      <c r="J31" s="17">
-        <v>50</v>
-      </c>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
+      <c r="K31" s="17">
+        <v>50</v>
+      </c>
+      <c r="L31" s="56"/>
       <c r="M31" s="56"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="N31" s="53"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+    </row>
+    <row r="32" spans="1:17" s="9" customFormat="1">
       <c r="A32" s="17">
-        <v>17</v>
-      </c>
-      <c r="B32" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="19">
-        <v>42845</v>
+      <c r="C32" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="E32" s="19">
-        <v>42852</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18">
+        <v>42851</v>
+      </c>
+      <c r="F32" s="19">
+        <v>42851</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="18">
         <v>1</v>
       </c>
-      <c r="I32" s="17">
+      <c r="J32" s="17">
         <v>1</v>
       </c>
-      <c r="J32" s="17">
-        <v>50</v>
-      </c>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="22"/>
+      <c r="K32" s="17">
+        <v>50</v>
+      </c>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="51"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
-    </row>
-    <row r="33" spans="1:17" s="12" customFormat="1">
+      <c r="Q32" s="22"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="19">
-        <v>42849</v>
+        <v>117</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="E33" s="19">
-        <v>42858</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18">
+        <v>42844</v>
+      </c>
+      <c r="F33" s="19">
+        <v>42853</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18">
         <v>1</v>
       </c>
-      <c r="I33" s="17">
+      <c r="J33" s="17">
         <v>1</v>
       </c>
-      <c r="J33" s="17">
-        <v>50</v>
-      </c>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="22"/>
+      <c r="K33" s="17">
+        <v>50</v>
+      </c>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="51"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
-    </row>
-    <row r="34" spans="1:17" s="10" customFormat="1">
+      <c r="Q33" s="22"/>
+    </row>
+    <row r="34" spans="1:18" s="5" customFormat="1">
       <c r="A34" s="17">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="19">
-        <v>42842</v>
+        <v>117</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="E34" s="19">
-        <v>42850</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18">
+        <v>42844</v>
+      </c>
+      <c r="F34" s="19">
+        <v>42853</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18">
         <v>1</v>
       </c>
-      <c r="I34" s="17">
+      <c r="J34" s="17">
         <v>1</v>
       </c>
-      <c r="J34" s="17">
-        <v>50</v>
-      </c>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="22"/>
+      <c r="K34" s="17">
+        <v>50</v>
+      </c>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="51"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
-    </row>
-    <row r="35" spans="1:17" s="10" customFormat="1">
+      <c r="Q34" s="22"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="17">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="19">
-        <v>42844</v>
+      <c r="C35" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="E35" s="19">
-        <v>42851</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18">
+        <v>42845</v>
+      </c>
+      <c r="F35" s="19">
+        <v>42852</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="18">
         <v>1</v>
       </c>
-      <c r="I35" s="17">
+      <c r="J35" s="17">
         <v>1</v>
       </c>
-      <c r="J35" s="17">
-        <v>50</v>
-      </c>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="22"/>
+      <c r="K35" s="17">
+        <v>50</v>
+      </c>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="51"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="Q35" s="22"/>
+    </row>
+    <row r="36" spans="1:18" s="12" customFormat="1">
       <c r="A36" s="17">
-        <v>24</v>
-      </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18">
+        <v>18</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="19">
+        <v>42849</v>
+      </c>
+      <c r="F36" s="19">
+        <v>42858</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18">
         <v>1</v>
       </c>
-      <c r="I36" s="17">
-        <v>3</v>
-      </c>
       <c r="J36" s="17">
-        <v>50</v>
-      </c>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="17">
+        <v>50</v>
+      </c>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="51"/>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="Q36" s="22"/>
+    </row>
+    <row r="37" spans="1:18" s="10" customFormat="1">
       <c r="A37" s="17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18">
+        <v>101</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="19">
+        <v>42842</v>
+      </c>
+      <c r="F37" s="19">
+        <v>42850</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18">
         <v>1</v>
       </c>
-      <c r="I37" s="17">
-        <v>3</v>
-      </c>
       <c r="J37" s="17">
-        <v>50</v>
-      </c>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="17">
+        <v>50</v>
+      </c>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="51"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="Q37" s="22"/>
+    </row>
+    <row r="38" spans="1:18" s="10" customFormat="1">
       <c r="A38" s="17">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18">
+        <v>101</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="19">
+        <v>42844</v>
+      </c>
+      <c r="F38" s="19">
+        <v>42851</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18">
         <v>1</v>
       </c>
-      <c r="I38" s="17">
-        <v>3</v>
-      </c>
       <c r="J38" s="17">
-        <v>50</v>
-      </c>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="17">
+        <v>50</v>
+      </c>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="51"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
-    </row>
-    <row r="39" spans="1:17" s="12" customFormat="1">
+      <c r="Q38" s="22"/>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="17">
-        <v>28</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="19">
-        <v>42857</v>
-      </c>
-      <c r="E39" s="19">
-        <v>42860</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>46</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="18">
+      <c r="H39" s="17"/>
+      <c r="I39" s="18">
         <v>1</v>
       </c>
-      <c r="I39" s="17">
-        <v>1</v>
-      </c>
       <c r="J39" s="17">
-        <v>50</v>
-      </c>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K39" s="17">
+        <v>50</v>
+      </c>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="51"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="Q39" s="22"/>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="17">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B40" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="19">
-        <v>42851</v>
-      </c>
-      <c r="E40" s="19">
-        <v>42853</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18">
+      <c r="C40" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="17"/>
+      <c r="I40" s="18">
         <v>1</v>
       </c>
-      <c r="I40" s="17">
-        <v>1</v>
-      </c>
       <c r="J40" s="17">
-        <v>50</v>
-      </c>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K40" s="17">
+        <v>50</v>
+      </c>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="51"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="Q40" s="22"/>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="17">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B41" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="19">
-        <v>42843</v>
-      </c>
-      <c r="E41" s="19">
-        <v>42853</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>80</v>
-      </c>
+      <c r="C41" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="18">
+      <c r="H41" s="17"/>
+      <c r="I41" s="18">
         <v>1</v>
       </c>
-      <c r="I41" s="17">
-        <v>1</v>
-      </c>
       <c r="J41" s="17">
-        <v>50</v>
-      </c>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K41" s="17">
+        <v>50</v>
+      </c>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="51"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="Q41" s="22"/>
+    </row>
+    <row r="42" spans="1:18" s="12" customFormat="1">
       <c r="A42" s="17">
-        <v>33</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="19">
-        <v>42851</v>
+        <v>28</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="E42" s="19">
         <v>42857</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18">
+      <c r="F42" s="19">
+        <v>42860</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="17"/>
+      <c r="I42" s="18">
         <v>1</v>
       </c>
-      <c r="I42" s="17">
+      <c r="J42" s="17">
         <v>1</v>
       </c>
-      <c r="J42" s="17">
-        <v>50</v>
-      </c>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="33"/>
-    </row>
-    <row r="43" spans="1:17" s="7" customFormat="1">
+      <c r="K42" s="17">
+        <v>50</v>
+      </c>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="17">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B43" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="19">
+      <c r="C43" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="19">
         <v>42851</v>
       </c>
-      <c r="E43" s="19">
+      <c r="F43" s="19">
         <v>42853</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18">
+      <c r="G43" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="17"/>
+      <c r="I43" s="18">
         <v>1</v>
       </c>
-      <c r="I43" s="17">
+      <c r="J43" s="17">
         <v>1</v>
       </c>
-      <c r="J43" s="17">
-        <v>50</v>
-      </c>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="22"/>
+      <c r="K43" s="17">
+        <v>50</v>
+      </c>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="51"/>
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="Q43" s="22"/>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="17">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18">
+      <c r="C44" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="19">
+        <v>42843</v>
+      </c>
+      <c r="F44" s="19">
+        <v>42853</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" s="17"/>
+      <c r="I44" s="18">
         <v>1</v>
       </c>
-      <c r="I44" s="17">
-        <v>3</v>
-      </c>
       <c r="J44" s="17">
-        <v>50</v>
-      </c>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="17">
+        <v>50</v>
+      </c>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="51"/>
       <c r="O44" s="22"/>
       <c r="P44" s="22"/>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="Q44" s="22"/>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="17">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B45" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="19">
-        <v>42837</v>
+      <c r="C45" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="E45" s="19">
-        <v>42839</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18">
+        <v>42851</v>
+      </c>
+      <c r="F45" s="19">
+        <v>42857</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="18">
         <v>1</v>
       </c>
-      <c r="I45" s="17">
-        <v>2</v>
-      </c>
       <c r="J45" s="17">
-        <v>50</v>
-      </c>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-    </row>
-    <row r="46" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="K45" s="17">
+        <v>50</v>
+      </c>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="33"/>
+    </row>
+    <row r="46" spans="1:18" s="7" customFormat="1">
       <c r="A46" s="17">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B46" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="19">
-        <v>42874</v>
+      <c r="C46" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="E46" s="19">
-        <v>42885</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="17">
-        <v>2</v>
+        <v>42851</v>
+      </c>
+      <c r="F46" s="19">
+        <v>42853</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" s="17"/>
+      <c r="I46" s="18">
+        <v>1</v>
       </c>
       <c r="J46" s="17">
-        <v>50</v>
-      </c>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K46" s="17">
+        <v>50</v>
+      </c>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="51"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="Q46" s="22"/>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="17">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B47" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="19">
-        <v>42874</v>
-      </c>
-      <c r="E47" s="19">
-        <v>42881</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="17">
-        <v>2</v>
+      <c r="C47" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="17"/>
+      <c r="I47" s="18">
+        <v>1</v>
       </c>
       <c r="J47" s="17">
-        <v>50</v>
-      </c>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K47" s="17">
+        <v>50</v>
+      </c>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="51"/>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="11">
-        <v>51</v>
-      </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25">
-        <v>42875</v>
-      </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15">
-        <v>50</v>
-      </c>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="22"/>
+      <c r="Q47" s="22"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="17">
+        <v>45</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="19">
+        <v>42837</v>
+      </c>
+      <c r="F48" s="19">
+        <v>42839</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" s="17"/>
+      <c r="I48" s="18">
+        <v>1</v>
+      </c>
+      <c r="J48" s="17">
+        <v>2</v>
+      </c>
+      <c r="K48" s="17">
+        <v>50</v>
+      </c>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="51"/>
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" s="11">
-        <v>52</v>
-      </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="25">
-        <v>42865</v>
-      </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15">
-        <v>50</v>
-      </c>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="22"/>
+      <c r="Q48" s="22"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="17">
+        <v>48</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="19">
+        <v>42874</v>
+      </c>
+      <c r="F49" s="19">
+        <v>42885</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="17"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="17">
+        <v>2</v>
+      </c>
+      <c r="K49" s="17">
+        <v>50</v>
+      </c>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="51"/>
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="11">
-        <v>53</v>
-      </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="25">
-        <v>42885</v>
-      </c>
-      <c r="E50" s="25">
-        <v>42901</v>
-      </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15">
-        <v>50</v>
-      </c>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="22"/>
+      <c r="Q49" s="22"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="17">
+        <v>49</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="19">
+        <v>42874</v>
+      </c>
+      <c r="F50" s="19">
+        <v>42881</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="17"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="17">
+        <v>2</v>
+      </c>
+      <c r="K50" s="17">
+        <v>50</v>
+      </c>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="51"/>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50" s="22"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="11">
-        <v>54</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="25">
-        <v>42902</v>
-      </c>
-      <c r="E51" s="25">
-        <v>42916</v>
-      </c>
-      <c r="F51" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25">
+        <v>42875</v>
+      </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
-      <c r="J51" s="15">
-        <v>50</v>
-      </c>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="22"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15">
+        <v>50</v>
+      </c>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="51"/>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
-    </row>
-    <row r="52" spans="1:16" s="7" customFormat="1">
+      <c r="Q51" s="22"/>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="11">
-        <v>55</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="8">
-        <v>42916</v>
-      </c>
-      <c r="E52" s="8">
-        <v>42916</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="25">
+        <v>42865</v>
+      </c>
+      <c r="F52" s="25"/>
+      <c r="G52" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
-      <c r="J52" s="15">
-        <v>50</v>
-      </c>
-      <c r="K52" s="61"/>
-      <c r="L52" s="61"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="22"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15">
+        <v>50</v>
+      </c>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="51"/>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
-    </row>
-    <row r="53" spans="1:16">
-      <c r="A53" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K53" s="61"/>
-      <c r="L53" s="61"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="22"/>
+      <c r="Q52" s="22"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="11">
+        <v>53</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="25">
+        <v>42885</v>
+      </c>
+      <c r="F53" s="25">
+        <v>42901</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15">
+        <v>50</v>
+      </c>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="51"/>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="11"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="C57" s="1" t="s">
+      <c r="Q53" s="22"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="11">
+        <v>54</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="25">
+        <v>42902</v>
+      </c>
+      <c r="F54" s="25">
+        <v>42916</v>
+      </c>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15">
+        <v>50</v>
+      </c>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+    </row>
+    <row r="55" spans="1:17" s="7" customFormat="1">
+      <c r="A55" s="11">
+        <v>55</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="8">
+        <v>42916</v>
+      </c>
+      <c r="F55" s="8">
+        <v>42916</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15">
+        <v>50</v>
+      </c>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+    </row>
+    <row r="56" spans="1:17" s="70" customFormat="1">
+      <c r="B56" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="64"/>
+      <c r="D56" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="L56" s="71"/>
+      <c r="M56" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="N56" s="72"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="11"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="55"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="D60" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
-      <c r="C62" s="1" t="s">
+    <row r="65" spans="4:4">
+      <c r="D65" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
-      <c r="C63" s="1" t="s">
+    <row r="66" spans="4:4">
+      <c r="D66" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
-      <c r="C64" s="3" t="s">
+    <row r="67" spans="4:4">
+      <c r="D67" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="1" t="s">
+    <row r="68" spans="4:4">
+      <c r="D68" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:J65">
-    <sortCondition ref="J1"/>
+  <sortState ref="A1:K65">
+    <sortCondition ref="K1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
+++ b/mall-web/src/main/resources/templates/广数交项目进度跟踪--一期功能点-4-27.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\git\data-exchange\mall-web\src\main\resources\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24945" windowHeight="14085" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块功能点" sheetId="1" r:id="rId1"/>
@@ -750,7 +745,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -1230,6 +1225,40 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="10" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1254,40 +1283,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="10" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1593,21 +1588,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -1628,10 +1623,10 @@
       <c r="B1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="74"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1681,7 +1676,7 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="89" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="23" t="s">
@@ -1711,7 +1706,7 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="78"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="23" t="s">
         <v>35</v>
       </c>
@@ -1739,7 +1734,7 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="78"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="23" t="s">
         <v>35</v>
       </c>
@@ -1767,7 +1762,7 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="23" t="s">
         <v>35</v>
       </c>
@@ -1795,7 +1790,7 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="23" t="s">
         <v>35</v>
       </c>
@@ -1823,7 +1818,7 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="78"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="23" t="s">
         <v>35</v>
       </c>
@@ -1851,7 +1846,7 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="23" t="s">
         <v>35</v>
       </c>
@@ -1879,7 +1874,7 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="23" t="s">
         <v>35</v>
       </c>
@@ -1907,7 +1902,7 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="78"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="23" t="s">
         <v>35</v>
       </c>
@@ -1935,7 +1930,7 @@
       <c r="A12" s="11">
         <v>12</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="87" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -1965,7 +1960,7 @@
       <c r="A13" s="11">
         <v>13</v>
       </c>
-      <c r="B13" s="75"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="21" t="s">
         <v>47</v>
       </c>
@@ -1993,7 +1988,7 @@
       <c r="A14" s="11">
         <v>14</v>
       </c>
-      <c r="B14" s="75"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="21" t="s">
         <v>47</v>
       </c>
@@ -2021,7 +2016,7 @@
       <c r="A15" s="11">
         <v>15</v>
       </c>
-      <c r="B15" s="75"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="21" t="s">
         <v>47</v>
       </c>
@@ -2049,7 +2044,7 @@
       <c r="A16" s="11">
         <v>16</v>
       </c>
-      <c r="B16" s="76"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="21" t="s">
         <v>47</v>
       </c>
@@ -2077,7 +2072,7 @@
       <c r="A17" s="11">
         <v>17</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="91" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="20"/>
@@ -2105,7 +2100,7 @@
       <c r="A18" s="11">
         <v>18</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="21"/>
       <c r="D18" s="17" t="s">
         <v>31</v>
@@ -2161,7 +2156,7 @@
       <c r="A20" s="11">
         <v>20</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="89" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="20"/>
@@ -2189,7 +2184,7 @@
       <c r="A21" s="11">
         <v>21</v>
       </c>
-      <c r="B21" s="75"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="23" t="s">
         <v>35</v>
       </c>
@@ -2217,7 +2212,7 @@
       <c r="A22" s="11">
         <v>22</v>
       </c>
-      <c r="B22" s="75"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2240,7 @@
       <c r="A23" s="11">
         <v>23</v>
       </c>
-      <c r="B23" s="75"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="23" t="s">
         <v>35</v>
       </c>
@@ -2273,7 +2268,7 @@
       <c r="A24" s="11">
         <v>24</v>
       </c>
-      <c r="B24" s="76"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="24"/>
       <c r="D24" s="15" t="s">
         <v>58</v>
@@ -2293,7 +2288,7 @@
       <c r="A25" s="11">
         <v>25</v>
       </c>
-      <c r="B25" s="75"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="21" t="s">
         <v>47</v>
       </c>
@@ -2317,7 +2312,7 @@
       <c r="A26" s="11">
         <v>26</v>
       </c>
-      <c r="B26" s="75"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="21" t="s">
         <v>47</v>
       </c>
@@ -2339,7 +2334,7 @@
       <c r="A27" s="11">
         <v>27</v>
       </c>
-      <c r="B27" s="75"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="23" t="s">
         <v>35</v>
       </c>
@@ -2367,7 +2362,7 @@
       <c r="A28" s="11">
         <v>28</v>
       </c>
-      <c r="B28" s="75"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="23" t="s">
         <v>35</v>
       </c>
@@ -2395,7 +2390,7 @@
       <c r="A29" s="11">
         <v>29</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="21" t="s">
         <v>47</v>
       </c>
@@ -2423,7 +2418,7 @@
       <c r="A30" s="11">
         <v>31</v>
       </c>
-      <c r="B30" s="75"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="21" t="s">
         <v>47</v>
       </c>
@@ -2453,7 +2448,7 @@
       <c r="A31" s="11">
         <v>32</v>
       </c>
-      <c r="B31" s="75"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="21"/>
       <c r="D31" s="17" t="s">
         <v>64</v>
@@ -2479,7 +2474,7 @@
       <c r="A32" s="11">
         <v>33</v>
       </c>
-      <c r="B32" s="75"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="21"/>
       <c r="D32" s="17" t="s">
         <v>33</v>
@@ -2505,7 +2500,7 @@
       <c r="A33" s="11">
         <v>34</v>
       </c>
-      <c r="B33" s="75"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="21" t="s">
         <v>47</v>
       </c>
@@ -2533,7 +2528,7 @@
       <c r="A34" s="11">
         <v>35</v>
       </c>
-      <c r="B34" s="75"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="21"/>
       <c r="D34" s="15" t="s">
         <v>66</v>
@@ -2559,7 +2554,7 @@
       <c r="A35" s="11">
         <v>36</v>
       </c>
-      <c r="B35" s="75"/>
+      <c r="B35" s="87"/>
       <c r="C35" s="21" t="s">
         <v>47</v>
       </c>
@@ -2587,7 +2582,7 @@
       <c r="A36" s="11">
         <v>37</v>
       </c>
-      <c r="B36" s="75"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="21"/>
       <c r="D36" s="17" t="s">
         <v>34</v>
@@ -2613,7 +2608,7 @@
       <c r="A37" s="11">
         <v>38</v>
       </c>
-      <c r="B37" s="75"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="21" t="s">
         <v>47</v>
       </c>
@@ -2641,7 +2636,7 @@
       <c r="A38" s="11">
         <v>39</v>
       </c>
-      <c r="B38" s="75"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="21" t="s">
         <v>47</v>
       </c>
@@ -2669,7 +2664,7 @@
       <c r="A39" s="11">
         <v>40</v>
       </c>
-      <c r="B39" s="75"/>
+      <c r="B39" s="87"/>
       <c r="C39" s="21"/>
       <c r="D39" s="15" t="s">
         <v>70</v>
@@ -2701,7 +2696,7 @@
       <c r="A40" s="11">
         <v>41</v>
       </c>
-      <c r="B40" s="76"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="24"/>
       <c r="D40" s="15" t="s">
         <v>71</v>
@@ -2723,7 +2718,7 @@
       <c r="A41" s="11">
         <v>42</v>
       </c>
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="89" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="21"/>
@@ -2751,7 +2746,7 @@
       <c r="A42" s="11">
         <v>43</v>
       </c>
-      <c r="B42" s="75"/>
+      <c r="B42" s="87"/>
       <c r="C42" s="21" t="s">
         <v>47</v>
       </c>
@@ -2779,7 +2774,7 @@
       <c r="A43" s="11">
         <v>44</v>
       </c>
-      <c r="B43" s="75"/>
+      <c r="B43" s="87"/>
       <c r="C43" s="21" t="s">
         <v>47</v>
       </c>
@@ -2807,7 +2802,7 @@
       <c r="A44" s="11">
         <v>45</v>
       </c>
-      <c r="B44" s="75"/>
+      <c r="B44" s="87"/>
       <c r="C44" s="21"/>
       <c r="D44" s="15" t="s">
         <v>74</v>
@@ -2833,7 +2828,7 @@
       <c r="A45" s="11">
         <v>46</v>
       </c>
-      <c r="B45" s="75"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="21"/>
       <c r="D45" s="15" t="s">
         <v>76</v>
@@ -2859,7 +2854,7 @@
       <c r="A46" s="11">
         <v>47</v>
       </c>
-      <c r="B46" s="75"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="21" t="s">
         <v>47</v>
       </c>
@@ -2887,7 +2882,7 @@
       <c r="A47" s="11">
         <v>48</v>
       </c>
-      <c r="B47" s="75"/>
+      <c r="B47" s="87"/>
       <c r="C47" s="21"/>
       <c r="D47" s="15" t="s">
         <v>77</v>
@@ -2913,7 +2908,7 @@
       <c r="A48" s="11">
         <v>49</v>
       </c>
-      <c r="B48" s="76"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="24"/>
       <c r="D48" s="15" t="s">
         <v>78</v>
@@ -3133,14 +3128,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.875" style="1" customWidth="1"/>
     <col min="2" max="3" width="17" style="1" customWidth="1"/>
@@ -4001,43 +3996,43 @@
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
     </row>
-    <row r="20" spans="1:17" s="92" customFormat="1">
-      <c r="A20" s="88">
-        <v>47</v>
-      </c>
-      <c r="B20" s="89" t="s">
+    <row r="20" spans="1:17" s="84" customFormat="1">
+      <c r="A20" s="80">
+        <v>47</v>
+      </c>
+      <c r="B20" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="88" t="s">
+      <c r="D20" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="82">
         <v>42871</v>
       </c>
-      <c r="F20" s="90">
+      <c r="F20" s="82">
         <v>42873</v>
       </c>
-      <c r="G20" s="88" t="s">
+      <c r="G20" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="88">
+      <c r="H20" s="80"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="80">
         <v>2</v>
       </c>
-      <c r="K20" s="88">
+      <c r="K20" s="80">
         <v>23</v>
       </c>
-      <c r="L20" s="86" t="s">
+      <c r="L20" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="M20" s="86" t="s">
+      <c r="M20" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="N20" s="87" t="s">
+      <c r="N20" s="79" t="s">
         <v>169</v>
       </c>
       <c r="O20" s="10"/>
@@ -4128,46 +4123,46 @@
       <c r="N22" s="68"/>
     </row>
     <row r="23" spans="1:17" s="10" customFormat="1">
-      <c r="A23" s="81">
+      <c r="A23" s="73">
         <v>34</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="81" t="s">
+      <c r="C23" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="76">
         <v>42867</v>
       </c>
-      <c r="F23" s="84">
+      <c r="F23" s="76">
         <v>42871</v>
       </c>
-      <c r="G23" s="85" t="s">
+      <c r="G23" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="H23" s="85" t="s">
+      <c r="H23" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="81">
+      <c r="I23" s="73">
         <v>0</v>
       </c>
-      <c r="J23" s="81">
+      <c r="J23" s="73">
         <v>3</v>
       </c>
-      <c r="K23" s="81">
+      <c r="K23" s="73">
         <v>28</v>
       </c>
-      <c r="L23" s="86" t="s">
+      <c r="L23" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="M23" s="86" t="s">
+      <c r="M23" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="N23" s="87" t="s">
+      <c r="N23" s="79" t="s">
         <v>166</v>
       </c>
     </row>
